--- a/data/after coding/data_awareness_for_hand_scoring_all.xlsx
+++ b/data/after coding/data_awareness_for_hand_scoring_all.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20353"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\GitHub\unconscious-ec-RRR\data\after coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF9BAEE-D029-477B-8A5A-6FF43FCDB9DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="2743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6107" uniqueCount="3043">
   <si>
     <t>unique_id</t>
   </si>
@@ -8248,13 +8249,913 @@
   </si>
   <si>
     <t>las imagenes relacionadas con acciones humanas siempre se presentaban en el horizonte y al lado de dibujos, mientras qu elas que mostraban cosas estaban dispersas y unidas a palabras</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">einige bilder sind um einges öfter erschienen als andere, manche bilder und wörter waren neutral, andere widerum positiv7negativ konnotiert. auch die geschwindigkeit und ddie menge der füllwörter7 oder bilder war unterschiedlich. auch auffällig war die unterschiedliche größe bzw position auf dem bildschirm </t>
+  </si>
+  <si>
+    <t>ich vermute eine systematik bezogen auf die menge der füllwörter oder bilder zwischen den zielobjekten, manchmal kamen sie sehr schnell hintereinander, manchmal dauerte es sehr lange. außerdem wird wohl die position der füllwörter und auch die emotionen, die durch sie angesprochen wurden, eine rolle spielen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_10</t>
+  </si>
+  <si>
+    <t>ja, manchmal waren laengere pausen dabei</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass manchmal die symbole und worte direkt nacheinander kamen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_100</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass beispielsweise mit dem wesen golett immer negative wörter oder bilder gezeigt wurden. mit dem wesen frillish hingegen wurden immer positive wve begriffe oder bilder gezeigt. auch gab es bildkombinationen die mehrfach wiederholt wurden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es wurden viele begriffe mit dem anfangsbuchstaben b gezeigt. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_11</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass frillish88 ??---8545546?? oft mit negativ konotierten bildern und wörtern in  in form von umweltverschmutzung oder abwertenden adjektiven in verbindung gebracht wurde, während gollet ?? eher positive eigenschaften und bilder, die zum beispiel die schönen und ruhigen aspekte der natur zeigten, mit sich führte.</t>
+  </si>
+  <si>
+    <t>systematisch fiel mir auf, dass die abstände, in denen das zuerst geschriebene gezeigt wurde, meist größer waren. außerdem entstand der eindruck, dass sie kurz nach dem erscheinen des zielobjekts, also als eine kleine konzentrationssteigerung stattfand, gezeigt wurden. darüberhinaus war der abstand zwischen gollet und frillish vergleisweise klein, wobei das negative meist vor dem positiven gezeigt wurde.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_12</t>
+  </si>
+  <si>
+    <t>mit der zeit ist mir aufgefallen, dass die bilder und wwörter immer schneller  gewechselt wurden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speziell ist mir jetzt nichts aufgefallen. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_13</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass dwenn ein bild der figur gezeigt wurde auch immer das wort zu sehen war, aber das s das wort auch alleine vorkommen konnte. außerdem waren es immer dieselben wörter die gezeigt wurden, es gab also nicht eine große auswahl an verschiedenen bildern und worten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist aufgefallen, dass immer dieselben wörter und bilder gezeigt wurden. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_14</t>
+  </si>
+  <si>
+    <t>die zeitliche abfolge in der bibilder oder wörter erschienen sind war sehr unterschiedlich und hatten nichts miteinander zutun. auch wurden bilder verwendet welche emotionale momente festhielten.</t>
+  </si>
+  <si>
+    <t>zwei bilder wurdensehr oft wiederholt wobei die anderen meistens nur ein mal vorkamen.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_15</t>
+  </si>
+  <si>
+    <t>bei dem wesen 22frillish wurden oft negative adjektive angezeigt.</t>
+  </si>
+  <si>
+    <t>es wurden teilweise negative und positive adjektive neben den jeweiligen wesen angezeigt, um wahrscheinlich die wahrnehmung dieses wesens unterbewusst negativ oder positiv zu beeinflussen.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_16</t>
+  </si>
+  <si>
+    <t>es wurden nie mehr als zwei bilder7 oder wörter gleichzeitig gezeigt. jedes mal, wenn man ein neues  wesen suchen sollte, tauchte es am anfang zwei mal in einer kurzenm zeit hintereinander auf. manche bilder wurden sehr oft gezeigt, andere nur ein einziges mal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wenn man ein neues wesen suchen sollte, wurde es zu anfang zwei mal innerhalb einer kurzen zeit gezeigt. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_17</t>
+  </si>
+  <si>
+    <t>die bilder und wöerter waren immer auf eine bestimmte art angeordnet. es wurde zum beispiel nur negatives mit dem quallenartigen quallenartigen wesen präsentiert und nur spositives bzw heldenhaftes mit der figur die quasi goliath war. zeitweise wurde das aber auch geändert, und es wurden dinge miteinander kombiniert, die eigentlich nicht 2zusammmen präsentiert wurden.</t>
+  </si>
+  <si>
+    <t>buch und bleistift , goliath und positive heldenhafte attribute, betin und das baumartige männchen mit p, beton und das glas, das quallenmännchen und negative, mit veverschmutzung assoziierte bilder und wörter, der fön und der ventilator. brille und das orangene viereck. teilweise wurden unerwartet kombinationen gezeigt.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_18</t>
+  </si>
+  <si>
+    <t>ich vermute, dass es für die verschiedenen bilder die stimuluskategorieren neutral, positiv und negativ gibt. manche wesen wurden immer mit positiven bzw. immer mit negativen bildern und wörtern gezeigt. außerdem hat die räumliche anordnung variiert.</t>
+  </si>
+  <si>
+    <t>wie bereits beschrieben. paarung mit negativen bzw. postiven bzw. neutralen stimuli und diagonale vs. waagerechte anordnung</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_19</t>
+  </si>
+  <si>
+    <t>die zeitabstände der bildsequenzen schienen immer in sets zu zu je ein bis sechs motive zu laufen, die mit einer längeren pause voneinander getrennt wurden. diman konnte kein muster herausfinden, ich musste immer sehr wach bleiben, damit ich immer noch schnell auf die zielfigur ragieren konnte, auch wenn diese mal sechs runden lang nicht auftauchte.</t>
+  </si>
+  <si>
+    <t>alles schien zufällig. sowiohl die position, als auch die frequenz der abfolge pro set ließen nie rückschlüsse auf regelmäßigkeiten zu.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_2</t>
+  </si>
+  <si>
+    <t>zwischendurch wurden emotionale bilder 8wie , wie z.b. mutter mit ihrem kind oder personen in einem friedhof, gezeigt, die meine aufmerksamkeit besonders erregt haben. die anderen bilder, haben eher meine aufmerksamkeit gestört.</t>
+  </si>
+  <si>
+    <t>nach diesen emotionalen bildern, oder auch wörtern, die emotionen beschrieben haben, tauchten besonders oft die zielobjekte auf.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_20</t>
+  </si>
+  <si>
+    <t>die gezeigten bilder haben nicht zu den angegebenen wörtern gepasst und umgekehrt</t>
+  </si>
+  <si>
+    <t>es kamen oft ähnliche kombinationen vor aber selten die gleichen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_21</t>
+  </si>
+  <si>
+    <t>der ventilator und der föhn sind auffällig oft zusammen gezeigt worden. gena</t>
+  </si>
+  <si>
+    <t>nein mir ist nicht wirklich ein system aufgefallen,.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_22</t>
+  </si>
+  <si>
+    <t>oftmals wurden die augefwaehlten cartoons hintereinander und zusammen mit dem namen angezeigt und zwei cartoonfiguren nebeneinander.</t>
+  </si>
+  <si>
+    <t>das glas wurde oftmals mit beton gezeigt, und wenn die ausgewählten cartoonfiguren auftraten, häufig innerhalb von kürzerer zeit hintereinander.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_23</t>
+  </si>
+  <si>
+    <t>einige bilder wurden nur in kombination mit einem bestimmten anderen bild gezeigt.</t>
+  </si>
+  <si>
+    <t>die figuren wurden stets mit ihren namen angezeigt und es folgten viele b wörter aufeinander.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_24</t>
+  </si>
+  <si>
+    <t>die bilder und wörter haben mehrmals ihre positionen gewechselt.</t>
+  </si>
+  <si>
+    <t>manche bilder wurden immer wieder paarweise gezeigt.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manchmal wurde das selbe wort für ein anderes bild verwendet, sodass eine assoziation in meinem kopf entstand und ich irgendwann zwei nicht zusammenhängende dinge miteinander verbunden habe. z.b. das wort brille und das bild eines föhns. </t>
+  </si>
+  <si>
+    <t>mir ist nur aufgefallen, dass manche wörter häufiger in verschiedenen positionen aufgetaucht sind als andere. und das oftmals nur details ausgetauscht wurden aber zwei bilder nacheinander zusehen waren.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_26</t>
+  </si>
+  <si>
+    <t>unter den ogegenständen und wesen waren ebenfalls adjektive eingeblendet</t>
+  </si>
+  <si>
+    <t>die adjektive waren immer in begleitung der wesen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_27</t>
+  </si>
+  <si>
+    <t>meistens kamen 2 wöoerteer oder bilder, oftmals auch nur ein weißer bildschrim</t>
+  </si>
+  <si>
+    <t>meistens 2 bilder gleichzeitig oder nach phasenweise weißem bildschirm ein wort in einer ecke</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_28</t>
+  </si>
+  <si>
+    <t>manchmal bilder rechts und wörter links und manchmal anders herum, aber nichts außergewöhnliches</t>
+  </si>
+  <si>
+    <t>dmanchmal wurden die bilder mit dem wort zusammengezeigt, dann nur das wort  und anschließend nur das bild</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_29</t>
+  </si>
+  <si>
+    <t>die bilder wurden so gut wie jedes mal an derselben stelle platziert, ebenso wie die woerter.</t>
+  </si>
+  <si>
+    <t>die muster schienen sich zu wiederholen...</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_3</t>
+  </si>
+  <si>
+    <t>bestimmten figuren wurden eigenschaften zugeordnet wie zum beispiel liebevoll. die wörter die teilweise hintereinander standen haben keinen sinn gemacht. die bilder die gezeigt wurden haben in mir entweder positive oder negative gedanken ausgelöst. wahrscheinlich habe ich deshalb den figuren bpositive oder negative eigenschaften zuordnen können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dneben den figuren standen entweder adjektive oder bilder die man wahrscheinlich unterbewusst mit den figuren nachher verbunden hat. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bei  bergmite,hatte ich das gefühl,dass im stimuliverteiler eher wörter mit 2b drankamen, evtl. um zu verwirren. ansonsten vermute ich es wurden pokemon wegen ihrer außergewöhnlichen namen und ihres außergewöhnlichen aussehens genommen, welche man spontan nicht mit der tierwelt vergleichen kann.</t>
+  </si>
+  <si>
+    <t>ich mag den aufbau des experiments, dass pokemon genommen wurde, was aber einen persönlichen hintergrund aufweist. ansonsten waren   die stimulibilder weder unsympatisch noch sympatsch</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> die nbilder unhd wörter kamen in meinen augen sehr willkürlich nach dem zufallsprinzip, maximal bei einem zielwesen konnte ich erkennen, dass bewusst ein wort genommen wurde, dass von der schreibweise dem namen des zielwesens entsprach. ein paar mal kam direkt hintereinander das zielwesen inklusive seinem namen.</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass oft die glleichen zeitabstände benutzt wurden. zudem haben sich die wörter und bilder oft in der frequenz und anordnung widerholt.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_32</t>
+  </si>
+  <si>
+    <t>nnamen und bilder der figuren wurden nie vermischt, was die aufgabe schwieriger gemacht haette</t>
+  </si>
+  <si>
+    <t>nmir ist keine spezielle systematik aufgefallen, aber ich habe gemerkt dass es muster gab, hinsichtlich der reihenfolge der bilder und woerter</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_33</t>
+  </si>
+  <si>
+    <t>unterschiedliche schrift, das bild das gesucht wurde ist nie ohne das wort erschienen, bilder und wörter kamen öfter vor</t>
+  </si>
+  <si>
+    <t>das wort beton stand fast immer an der gleichen stelle, das wort zu dem gesuchten bild stand immer darunter, die wörter und bilder sind an unterschiedlichen stellen auf dem bildschrim erschienen. die gesuchten wörter und bilder waren meistens in der mitte</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_34</t>
+  </si>
+  <si>
+    <t>die bilder7 und wörter wurden plötzlich in ganz verschiedenen ecken des bildschirms angezeigt. außerdem waren die wörter von der schreibweise her mal fetter und feiner. manche wörter wurden gemeinsam mit dem bild dazu angezeigt, während mandere gemeinsam mit bildern angezeigt wurden, die nichts mit dem wort zu tun hatten. zum teil gab es auch einzelne wörter, die direkt neben einem anderen wort platziert waren.  . es waren demnach zwei wörter, aber auf demn ersten blick könnte dies täuschen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in diesem moment wefällt mir kein bestimmtes system ein. allerdings habe ich bemerkt, dass es manchmal längere pausen gab und bilder als auch wörter genau dann scheller angezeigt wurden, wenn es am wenigsten erwartet hat.  wahrscheinlich weil eben oft die reaktionsgeschwindigkeit nachlässt 8während dieser pause. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_35</t>
+  </si>
+  <si>
+    <t>nddie bilder wurden ueber das ganze display verteilt gezeigt, aber in einem sehr langsamen tempo.</t>
+  </si>
+  <si>
+    <t>das wort b22buch ist sehr oft und ueber den ganzen bildschirm verteilt aufgetaucht.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_36</t>
+  </si>
+  <si>
+    <t>frillish war immer mit negativen adjektiven und negativen bildern, zum beispiel müll, kaputte autos. golem war immer mit positiven adjektiven und postiven bildern zum beispiel süßes eichhörnchen, schöne berge</t>
+  </si>
+  <si>
+    <t>ja, positive und negative koppelung</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_37</t>
+  </si>
+  <si>
+    <t>die wörter und bilder sind in unterschiedlichen zeitabständen und orten aufgetaucht</t>
+  </si>
+  <si>
+    <t>mir persönlich ist nichts systematisches aufgefallen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_38</t>
+  </si>
+  <si>
+    <t>mir sind viele begriffe aufgefallen, die miteinander assoziiert werden könnten n, wie bspw. buch und bleistift, brille und computer, u.s.w.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorry, ich wollte fuer die erste frage noch etwas ergänzen und zwar sind mir auch positiv7 oder negativ konnotierte begriffe aufgefallen. die bilder hingegen wirkten sehr zufällig gewaehlt oder sehr ,,kuenstlerisch aesthetisch,,.  zu dieser frage, schaetze ich das für bestimmte gdas gewisse cartoon figuren spezifisch mit negativ oder positiv konnotierten begriffen aufgetaucht sind f, die die bewertung nach symphatie womoeglich beeinflusst haben. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_39</t>
+  </si>
+  <si>
+    <t>frillish war immer mit positiven reizen gepaart, gollett immer mit negativen, phantump und scatterbug jeweils mit neutralen.</t>
+  </si>
+  <si>
+    <t>nein, ansonsten nicht.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_4</t>
+  </si>
+  <si>
+    <t>die zielgegenstände wurden nur in der jeweiligen runde gezeigt. allle anderen objekte und wörter in jeder runde</t>
+  </si>
+  <si>
+    <t>buch wurde oft unten rechts angezeigt. oftmals wurde das zielobjekt in kombination mit dem ausgeschriebenen wort gezeigt. zielobjekte wurden nur in der jeweiligen runde gezeigt</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_40</t>
+  </si>
+  <si>
+    <t>ees gibt ppausen, indem keentweder bbiweder bbilder noch wwoeter gezeicht wird. eeeinige bbilder sind etwas angsterregend, als ob sie vom ttatort oder horrorfilmen entnommen wurden.</t>
+  </si>
+  <si>
+    <t>ffrillish wird haeufig mit negativen adjektiven gezeigt,. nniemals wurden 3drei oobjekte gleichzeitig gezeigt.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_41</t>
+  </si>
+  <si>
+    <t>die abstände zwischen denaende zwischen den anzeigen waren mal 3 sekunden, mal 1 sekunde lang. mal wurden mehr bilder aus der natur gezeigt, mal mehr bilder aus comicheften oder alltagsgegenstaende.</t>
+  </si>
+  <si>
+    <t>die meisten figuren wurden mit ihrem namen gezeigt, die bilder die wir erkennen sollten am anfang eauch ohne namen. das wort beton kam haeufig alleinstehend vor.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ich habe dabei versucht nicht die menuwortbedeutungen zu erkennen, sondern nur die wörter die ich suche wiederzuerkennen, sodass ich mögliche primer ausmerzen kann. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">es kamen so gut wie nie zwei mal die geschriebenen menuwörter hintereinander, ansonstenn aber habe ich nach keiner systzematik gesucht. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_43</t>
+  </si>
+  <si>
+    <t>gholett wurde konstant mit negativen stimuli präsentiert , der zielreiz wurde nie mit einer anderen comicfigur präsentiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gholett wurde immer mit negativ assozierten wörtern oder bildern präsentiert und der zielreiz als bild nie mit anderen comicfiguren zusammen </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_44</t>
+  </si>
+  <si>
+    <t>adjektive standen links von einem bild. das wort buch war 8fast immer neben der abbildung mit dem foehn zu sehen.computer und buch standen haeufig nebeneinander.das wesen fillish war oft neben einem negativ konnotierten bild.der kasten und das wort brille waren haeufig kombiniert.</t>
+  </si>
+  <si>
+    <t>siehe letzte frage. adjektive standen links von einem bild. das wort brille war oft mit dem kasten kombiniert. die woerter computer und buch waren oft kombiniert. das wort buch war oft mit dem bild des foehns kombiniert. das wesen fillish war oft mit einem negativ konnotierten bild verbunden.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_45</t>
+  </si>
+  <si>
+    <t>aufgefallen ist, das das zielwort relativ oft 2 mal hintereinander angezeigt wurde.. e</t>
+  </si>
+  <si>
+    <t>bis auf das eingangs erwähnte beispiel ist mir nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist nur aufgefallen, dass fuer jedes wesen immer die selben woerter angezeigt wurden. zudem hat es mich gewundert, warum immer die selben einzelnen woerter angezeigt wurden, wie computer etc..  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja, das eine wesen wurde nur mit positiven worten gezeigt und das eine blaue nur mit negativen worten und bildern. auch die bilder des kasten wurde immer mit einem anderen bild gezeigt und danach folgten meist die worte wie computer etc. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_47</t>
+  </si>
+  <si>
+    <t>ich habe bemerkt, eher später, dass zum beispiel cranidos einmal mit einem g geschrieben wurde. es ist daher möglich, dass ich das davor nicht bemerkt habe und öfter falsch gedrückt habe?? ansonsten, ist mir aufgefallen, dass es pokemon waren.</t>
+  </si>
+  <si>
+    <t>die position und zeit des erscheinens der bilder rightvielleicht. aber ich musste mich am meisten auf das drücken konzentrieren um ehrlich zu sein, ich war etwas müder heute.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_48</t>
+  </si>
+  <si>
+    <t>die normalen wöoerter waren im gegensatz zu den zielwoertern nicht komplett in grossbuchstaben und die meisten begriffe und bilder waren in der mitte des bildschirms, etwas anderes war eher die ausnahme.</t>
+  </si>
+  <si>
+    <t>meistens in der mitte des bildschirms, manchmal pausen ohne worter und bilder un dann wieder ein schneller wechsel mit dem zielworrt oder bild mehrmals hintereinander, dann gefühlt wieder laenger gar nicht.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_49</t>
+  </si>
+  <si>
+    <t>haeufig wurden zwei bilder gleichzeitig gezeigt oder ein bild und ein begriff, der nichts mit dem bild zu tun hat. zwischendurch gab es laengere luecken, andere male kamen die bilder und begriffe sehr schnell hintereinander. die bilder und begriffe, die gleichzeitig gezeigt wurden, waren oft in jedem durchgang gleich z.b. bild der organgenen raute mit dem begriff brille.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haeufig wurden begriffe und bilder als paare gezeigt, also z.b. buch unfdd bleistifte kamen fast immer zusammen oder zumindesnur selten in anderen konstellationen vor. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ich habe viele wwwwörter die negativ konnotiert sind gesehen und bilder die für mich lustig waren </t>
+  </si>
+  <si>
+    <t>ja, es gab viele wörter, die positiv konnotiert sind</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bei einigen bilder standen immer nur sehr positive oder nur sehr negative woerter dazu. </t>
+  </si>
+  <si>
+    <t>nach dem gollet kam bspw immer daneben ein negatives wort</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_51</t>
+  </si>
+  <si>
+    <t>omjedes fabelwesen wurde mit mindestens einem wort praesentiert, das passend zu diesem war. oft wurden dieselben zwei bilder zusammen praesentiert,.</t>
+  </si>
+  <si>
+    <t>auf der einen seite des computers war ein fabelwesen dargestellt und immer auf der anderen seite ein wort. die zwei bilder waren auch immer nebeneinander.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_52</t>
+  </si>
+  <si>
+    <t>woewoerter mit gleichem anfangsbuchstaben waren ablenkender, die wenigen emotional valenten bilder 87 haben automatisch die aufmerksamkeit auf sich gezogen, in längeren pausen zwischen den atstimuli wuchs spannung7,, emotional valente woerter waren weniger ablenkend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutral vs. emotional, wdabei weniger emotionale stimuli, ggleiche vs. ungleiche anfangsbuchstaben, ?0äüdzielstimuli zumindest in meiner erinnerung eher7 oder nur im zentrum praesentiert, variation der intervalle zwischen den stimuli, neutrale woerter waren substantive, emotionale adjektive, </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_53</t>
+  </si>
+  <si>
+    <t>die bangezeigten bilder und begriffe sind an unterschiedlichen stellen des bildschirms aufgetreten, mal schneller hintereinander und mal langsamer. außerdem waren die begriffe und bilder zusammenhangslos. einige bilder haben eher einen negativen787 bzw. schlechten eindruck hinterlassen, wie zum beuspiel daispiel das bild mit dem müll, das traurernde pärchen auf dem friedhof oder der mann der am klo hing.</t>
+  </si>
+  <si>
+    <t>viele bilder und begriffe sind wiederholt aufgetreten. der föhoehn und der ventilator zum beispiel wurden mehrmals zusammen eingeblendet. außerdem sind mir die woerter beton, computer, brille im kopf geblieben. meistens waren es nomen, aber auch adjektive 8z79z.b. sympathisch kamen vor. die anderen cartoon figuren haben den zweck der verwirrung erfüllt und die meiner meinung nach eher unschoenen bilder auch. einmal kam, soweit ich noch weiß eiß, ein normaleres bild vor. eine mutter mit ihrem kind auf dem arm. diich denke, dass die bilder bestimmte emotionen bzw. gedanken in mir erwecken sollten, um meine konzentration bzw. schnelligkeit der reaktion zu beeinflussen.  und die begriffe natuerlich auch.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es gab bestimmte wesen, bei denen negativ behaftete begriffe eund bilder eingeblendet wurden und wesen, bei denen immer positiv behaftete begriffe oder bilder eingeblendet wurden. </t>
+  </si>
+  <si>
+    <t>bei manchen der wesen wurden positive begriffe und bilder eingeblendet, bei anderen immer nur negative. außerdem gab es wiederkehrende kombinationen von begriffen oder begriffen und bildern.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist aufgefallen, dass dinge aus dem alltag gezeigt wurden, die für jeden bekannt sind und auf der anderen seite außergewoehnliche wesen, die ich vorher so noch nie gesehen habe und nicht kenne. </t>
+  </si>
+  <si>
+    <t>wenn ein begriff mit dem anfangsbuchstaben b gesucht wurde, wurden vermehrt begriffe eingefuegt, die auch mit einem b anfangen, um edie aaufgabe zu erschweren.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_56</t>
+  </si>
+  <si>
+    <t>nein, mir ist nichts außergewoehnliches aufgefallen</t>
+  </si>
+  <si>
+    <t>nein, auch hier ist mir nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_57</t>
+  </si>
+  <si>
+    <t>neben  dem bild vom glas stand oft das wort betonn. manche wesen hatten oft eher positivere begriffe daneben stehen bei anderen genau andersherum.</t>
+  </si>
+  <si>
+    <t>genau das was ich vorhin geschrieben habe.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_58</t>
+  </si>
+  <si>
+    <t>die bilder der gesuchten figur sind nie allein aufgetreten, immer im zusammenhang mit deren name</t>
+  </si>
+  <si>
+    <t>worte mit dem gleichen anfangsbuchstaben sind oft nebeneinander bzw. gleichzeitig erschienen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">der begriff des regenschirms kam nur einzeln als begriff oder zusammen mit einem anderen geschriebenen wort vor, nie mit einem bild. </t>
+  </si>
+  <si>
+    <t>der begriff des regenschirms nur einzeln als begriff oder zusammen mit einem  geschrieben en wort, nie mit einem bild. die begriffe buch und bleistift häufig als paar auf der mitte des bildshirms. ebenso wie die bilder des ventilators und des föns. bei frillish h o.ae. waren häufig negative woerter oder bilder. bei dem steincomic mit der gelben spirale auf der brust positive worte oder bilder</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_6</t>
+  </si>
+  <si>
+    <t>es sind im laufe des experiments neue bilder dazu gekommen, während die wörter gleich geblieben sind</t>
+  </si>
+  <si>
+    <t>teilweise ließen sich die bilder und wörter einem gemeidanklich einem gemeinsamen thema zuordnen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_60</t>
+  </si>
+  <si>
+    <t>ich hatte das gefuehl, dass haeufig diesselben woerter uzu denselben bildern aufgetreten sind. u</t>
+  </si>
+  <si>
+    <t>dieselben woerter zu denselben bildern</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_61</t>
+  </si>
+  <si>
+    <t>ich glaube es wurden bei zb bergmite viele wörter mit b eingeblendet, bei cranidos gwurde glaube ich häufig computer eingeblendet, fön und ventilator wurden häufig gleichzeitig gezeigt, das orangfarbene quadrat wurde häufig mit dem wort 2brille gezeigt, bei dem wesen aus steinen wurden häufig positiv assoziierte wörter gezeigt</t>
+  </si>
+  <si>
+    <t>siehe auch vorherige aufgabe, häufig gleich gepaarte bilder 8zb fön und ventilator, häufig postive worte bei dem fcomicwesen aus stein, häufig negative worte bei frilish, häufig wurde das quadrat mit dem wort brille gepaart oder mit dem leeren vbierkrug</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_62</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass einige figuren immer mit negativen bbildern oder worten asoziiert waren, manche nur mit neutralen bildern oder worten, und manche eplizit mit positiven 8. . kann mich leider nicht an die namen erinnern</t>
+  </si>
+  <si>
+    <t>ich habe leider nicht darauf achten koennen, ob ,positive , negative, oder neutrale stimuli in einer bestimmten reihenfolge erschienen sind. mir ist lediglich die assoziation zu anderen worten  oder bildern aufgefallen.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_63</t>
+  </si>
+  <si>
+    <t>maoft wurden immer zwei bilder oder zwei woerter nebeneinander gezeigt, weswegen es immer kurz gedauert hat zu reagieren. das gesuchte bild bzw wort waren so gut wie immer in der mitte des bildschirms</t>
+  </si>
+  <si>
+    <t>oft zwei bilder oder zwei woerter nebeneinander. ich glaube der foehn und der ventilator waren oft nebeneinander.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist insbesondere aufgefallen, dass die pokemon die immer in dem experiment aufgetaucht sind, immer ein jeweils positives, neutrales oder negatives wort als begleitung hatten. sso hatte das steinpokemon beispielsweise immer negative wörter und das fliegende hellblaue pokemon immer positive wörter oder bilder. </t>
+  </si>
+  <si>
+    <t>meistens sind die bilder von dem fönoehn, dem lautsprecher sowie dem ventilator miteinander verknuepft gewesen, und die abbildungen von den pokemon mit je positiven, neutralen oder negativen woertern sowie bildern verbunden gewesen. ausserdem ist mir aufgefallen, dass das wasserglas oft das wort beton daneben stehen hatte, was einem gegensatz gleich kommt.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_65</t>
+  </si>
+  <si>
+    <t>begriffe sind immer gleichzeitig verschwunden, also nie zeitversetzt</t>
+  </si>
+  <si>
+    <t>wenn zwei begriffe oder bilder zusehen waren, waren diese immer zentral angeordnet und nicht versetzt im bild</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_66</t>
+  </si>
+  <si>
+    <t>ezielbild war immer ein e cartoonfigur, diese war sehr leicht von den normalen bildern zu unterscheiden. von den anderen carttonfiguren eher schwerer. bei den wöoertern fiel mir dieser unterschied nicht auf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir kam es relativ willkuerlich vor. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_67</t>
+  </si>
+  <si>
+    <t>mir ist nichts konkretes aufgefallen, ich hatte aber das gefuehl, dass die zielwesen eher in der mitte de bildschirms auftauchten.</t>
+  </si>
+  <si>
+    <t>nein, mir ist nichts aufgefallen.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die bilder waren immer mit dem richtigen namen für die kreatur versehen, es gab kein bild von cranidos mit dem namen einer anderen kreatur dadrunter. </t>
+  </si>
+  <si>
+    <t>die bilder wurden eigentlich immer in der mitte des bildschirmes gezeigt, woerter koennen auch mal am rand gewesen sein</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manche bilder hatten eher negative wörter, manche eher positive poundwörter miteinander verbunden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">golett hatte eher positive wörter, frillish eher negative wörter </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_7</t>
+  </si>
+  <si>
+    <t>viele unangenehme adjektive. der ganz leere bildschirm erhöht die spannung und aufmerksamkeit</t>
+  </si>
+  <si>
+    <t>ich habe nicht darauf geachtet, aber viele bilder wurden in paaren immer wieder angezeigt und den figuren wurden adjektive zugeordnet</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ees wurden einige neutrale woerter angezeigt wie zum beispiel 2buch oder das bild eines foehns. die anderen woerter waren sehr extrem, sowohl in die positive als auch in die negative richtung. </t>
+  </si>
+  <si>
+    <t>wie  bereits gesagt wurden zum teil extrem positive und zum anderen teil extrem negative woerter gezeigt. wahrscheinlich wurden bestimmte wesen eher mit negativen, andere mit positiven eindruecken benetzt.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die bilder und wörter sind in unterschiedlichen zeitlichen abständen erschienen und sie waren unterschiedlich positioniert. es kamen nur nomen und adjektive vor. sie waren groß geschrieben. </t>
+  </si>
+  <si>
+    <t>ein bestimmtes system ist mir nicht aufgefallen, aber ich habe das gefühl, dass der zeitabstand in jedem durchgang gleich war.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es gab einige bilder7 und wortpaare, die oft zusammen auftauchten. computer stand oft oben rechts in der ecke. das zielobjekt kam oft mehrfach hintereinander. manchmal gab es längere pausen mit nur einem weißen bildschirm. </t>
+  </si>
+  <si>
+    <t>der ventilator und der fön kamen oft zusammen, das wort computer stand oft oben rechts in der ecke, die zielobjekte kamen mehrfach hintereinander.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ich hatte das gefühl, dass durch mein betaetigen der leertaste keinen einfluss hatte, d.te. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">einige wörter wurden immer mit dem dazugehoerigen bild eingeblendet. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  am anfang hhabe ich gedacht,dass eine zusammenhang zwichen figuren und bildern gäbe.welche figurn nach welchem figur folgt,hat mich beschäftigt .ich war abgelenkt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ich habe auf die figuren und wörter konzentiriere</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meistens ein wort und ein bild, nie 2 bilder gleichzeitig </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bestimmte bilder in kombination mit einem bestimmten begriff, der jedoch nichts damit zu tun hatte. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meistens waren die in der mitte. ab und zu unten rechts oder oben links, nie in den anderen ecken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sehr oft der ventilator mit dem fön,ich dachte auch waren mehr wörter mit dem anfangsbuchstaben des ziels. </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_77</t>
+  </si>
+  <si>
+    <t>die bilder sind gleich geblieben aber manche wörter haben gewechselt</t>
+  </si>
+  <si>
+    <t>bilder sind entweder alleine oder nebeneinander aufgezeigt worden. das wort buch zb wurde öfters am rand des bildschirms eingeblendet.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_78</t>
+  </si>
+  <si>
+    <t>das glas wasser kam häufig in kombination mit dem wort 2beton</t>
+  </si>
+  <si>
+    <t>neinbilder plus plus wortkombinationen waren in der mitte, einzelne wörter häufig am rand</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist aufgefallen, dass es eine gewisse reihenfolge der präsentierten wörter7bilder  </t>
+  </si>
+  <si>
+    <t>reihenfolge und änderung der wortbildpaare</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_8</t>
+  </si>
+  <si>
+    <t>wörter eher negativenr bedeutung,  standen häufig neben dem hellblauen quallenwesen, positive wörter und bilder neben dem dicken steinwesen., u.a. ein streifenhörnchen, wasserfälle, bei dem anderen wesen ein paar an einem grab, ein mann der sich übergibt oder die toilette gerade putzt. es gab jedoch auch wiederkehrende bilder und wörter, eine, die eher unästhetisch waren.</t>
+  </si>
+  <si>
+    <t>negative bilder und wörter mit dem 8für mich niedlichen blauen wesen und gegensätzlich dazu das dicke steinwesen mit konträren, schönen wörtern und bildern.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_80</t>
+  </si>
+  <si>
+    <t>was soll mir an der art und weise aufgefallen sein?? frage ich mich. vielleicht wurden sie nicht immer im gleichen zeitlichen abstand angezeigt.</t>
+  </si>
+  <si>
+    <t>ehrlich gesagt nicht direkt. vielleicht würde mir etwas einfallen wenn ich länger drüber nachdächte.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_81</t>
+  </si>
+  <si>
+    <t>da ich odieses experiment ohne weitere erwatungen begonnen habe, ist mir nicht außergewöhnliches aufgefallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die zielwörter und bilder wurden zum ende immer seltener gezeigt </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_82</t>
+  </si>
+  <si>
+    <t>das blaue tier mit g wurde immer mit positiven wörtern bzw. bildern gepaart, frillish immer mit negativen. am anfang dachte ich, shelmet 8ß8oder so kommt immer nach einem negativen. generell aufteilung in positiv, negativ und neutral, sowohl in bildern als auch in worten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s. erste antwort, golett oder so wurde immer mit was positivem gepaart und frillish mit etwas negativen, es gab auch welche, die immer neutral waren, zb beton </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oft wurden die buchstaben des zielwortes in den füllwörter verwendet. auch tauchte das bild des wesens fast immer mit dazugehörigem namen auf. nur das wort alleine kam deutlich öfter vor als nur das bild alleine. die einleitung war sehr auf das wort 22konzentrieren gepolt. und es kamen immer wieder positive und negative wörter wie z.b. außergewöhnlich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oft wurde das zielwort gezeigt und direkt danach ein wort mit dem selben anfangsbuchstaben </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_84</t>
+  </si>
+  <si>
+    <t>neben einigen figuren standen vermehrt positive worte 8z.b.wertvoll, während neben anderen vermehrt negative worte standen z</t>
+  </si>
+  <si>
+    <t>nbestimmte wörter erschienen häuiger zusammen 8z.b. buch und regenschirm</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_85</t>
+  </si>
+  <si>
+    <t>neben den comicfiguren standen entweder neutrale woerter oder negativ konnotierte woerter bzw dasselbe auch mit bildern.</t>
+  </si>
+  <si>
+    <t>ziemlich am anfang wurde zweimal hintereinander jedes mal der zielreiz gezeigt. bilder und wwoerter waren immer nur entweder in der bitte, oben links oder unten rechts. es waren oft de rfoehn, das leere glas und ein ventilator zu sehen. nach dem ein anderer zielreiz kam, wurde der alte nicht mehr gezeigt, d.h. die comicfiguren waren immernur dieselben distraktoren, nie alte zzielreize waren distraktoren.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">das bild von frillish wurde meistens mit einem negqativen bild bzw einem negativen wort gezeigt.. </t>
+  </si>
+  <si>
+    <t>frillish kam immer zusammen mit etwas negativ assoziiertem. während gollet 8??? immer mit etwas positiv assoziiertem gezeigt wurde. wörter wie brille und buch kamen nie als bild auf den bildschirm, sondern immer nur als wort</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> das pokemon frillish wurde häufig mit negativen stimuli gepaart, das pokemon golet häufig mit positiven stimuli</t>
+  </si>
+  <si>
+    <t>dein pokemon wurde mit positiven, eins mit negativen reizwörtern gepaart</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_88</t>
+  </si>
+  <si>
+    <t>ich hatte das gefühl, dass der bildwechsel länger auf sich warten ließ, wenn der zielreiz präsentiert wurde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bei allen fünf 8?9zielreizen gab es sequenzen in denen dieser mehrmals hintereinander präsentiert wurde . </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">häufig wurden bilder gezeigt die nichts mit den dazugehörigen wörtern zu tun haben.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oft wurden zuerst die bilder und anschließend erst die wörter eingeblendet. außerdem wurden wörter zum beispiel systematisch, hintereinander in einer reihe eingeblendet und nicht immer komplett über den ganzen bildschirm verteilt.  </t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die bilder wurden entweder zusammen mit adjektiven oder mit nomen zusammen gezeigt, wobei die wörter regenschirm und buch auffallend oft gezeigt wurden.  </t>
+  </si>
+  <si>
+    <t>manche bilder und wörter wurden auffallend oft zusammen gezeigt, so zum beispiel das bild des föns zusammen mit dem wort buch</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_90</t>
+  </si>
+  <si>
+    <t>bei den wesen, auf die man nicht achten sollte, standen immer positive oder negative woerter. bei gollet zum beispiel nur positive...</t>
+  </si>
+  <si>
+    <t>bei einem wesen immer entweder positive oder negative woerter, bei den bildern auch neutrale</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_91</t>
+  </si>
+  <si>
+    <t>wenn bild und wort passend gleichzeitig praesentiert wurden, hab ich am schnellsten reagiert.</t>
+  </si>
+  <si>
+    <t>viele wörter haben mit b gestartet, was mir besonders bei bergmite aufgefallen ist.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_92</t>
+  </si>
+  <si>
+    <t>jbich halteals ich cranidos ueberwachsen sollte, ist mir waehrend der ueberwachungsaufgabe aufgefallen, dass ich auch immer die leertaste gedrueckt habe, wenn das wort ,granidos, aufgetaucht ist.</t>
+  </si>
+  <si>
+    <t>nein das ist mir nicht aufgefallen</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_93</t>
+  </si>
+  <si>
+    <t>nichts besonders aufgefallen, zum ende vielleicht etwas schneller, wörter mit ähnlichen anfangsbuchstaben</t>
+  </si>
+  <si>
+    <t>verschiedene kombinationen wurden öfter miteinander gezeigt</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_94</t>
+  </si>
+  <si>
+    <t>häufig wiederholende anordnungen von bildern,</t>
+  </si>
+  <si>
+    <t>neben der einen figur immer positivere begriffe</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die woerter, die neben den bildern erschienen sind, haben stets nicht zu den bildern gepasst. zudem sind die bilder der zu suchenden zielobjekte nie alleine, sondern stets mit dem wort des zu suchenden zielobjekts zusammen erschienen. </t>
+  </si>
+  <si>
+    <t>wie bereits erwaehnt, wurde das bild des zu suchenden zielobjekts nie alleine, sondern stets zusammen mit dem wort des zu suchenden zielobjekts gezeigt. zudem sind die zielwoerter und zielbilder seltener aufgetreten, als alle nicht zu suchenden bilder und woerter. die bilder haben nicht mit den zugleich erschienenen woerten zusammen gepasst.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_96</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass im verlauf der runden weitere bilder hinzugekommen sind. außerdem fiel auf, dass dias zielobjekt in der letzten runde das erste mal 3 mal hintereinander gezeigt wurde.</t>
+  </si>
+  <si>
+    <t>nicht wirklich. es kam mir vor, als wäaeren die reihenfolgen in dernn runden ähnlich gewesen, ein genaues system habe ich nicht beobachtet.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_97</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass meine augen zu der position der jeweiligen worte und bilder gewandert sind. wenn dann in der gegenüberliegenden ecke etwas angeboten wurde, hat es ein bisschen gedauert, bis sich meine augen auf die neue position gerichtet haben.</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass die position geändert wurde, dass manchmal nur wörter, nur bilder oder beides gemeinsam gezeigt wurde und dass die pausen zwischen den impulsen unterschiedlich lang waren. ein system habe ich nicht entdeckt.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_98</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass ab und zu positive wörter und manchmal negative wörter benutzt wurden. ich konnte diese allerdings nicht zu den figuren zuordnen.</t>
+  </si>
+  <si>
+    <t>das einzige war, glaube ich, dass der shellfill oder so ähnlich der hellblaue oft mit negativen wörtern gezeigt wurde.</t>
+  </si>
+  <si>
+    <t>Stahl Bading Aust Heycke and Thomasius_99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist hierbei nichts besonderes aufgefallen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">einige bilder wurden immer mittig präsentiert, während einige wörter überwiegend weiter unten präsentiert wurden </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -8282,6 +9183,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8303,7 +9210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8328,6 +9235,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8602,22 +9510,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H913"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F916" sqref="F916"/>
+    <sheetView tabSelected="1" topLeftCell="E908" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G1023" sqref="G1023"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="75.85546875" customWidth="1"/>
-    <col min="4" max="4" width="121.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
-    <col min="8" max="8" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.26953125" customWidth="1"/>
+    <col min="3" max="3" width="75.81640625" customWidth="1"/>
+    <col min="4" max="4" width="121.1796875" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="44.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20866,7 +21774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="15.75">
+    <row r="472" spans="1:8" ht="15.5">
       <c r="A472" s="6" t="s">
         <v>1420</v>
       </c>
@@ -20892,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="15.75">
+    <row r="473" spans="1:8" ht="15.5">
       <c r="A473" s="6" t="s">
         <v>1423</v>
       </c>
@@ -20918,7 +21826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="15.75">
+    <row r="474" spans="1:8" ht="15.5">
       <c r="A474" s="6" t="s">
         <v>1426</v>
       </c>
@@ -20944,7 +21852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="15.75">
+    <row r="475" spans="1:8" ht="15.5">
       <c r="A475" s="6" t="s">
         <v>1429</v>
       </c>
@@ -20970,7 +21878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="15.75">
+    <row r="476" spans="1:8" ht="15.5">
       <c r="A476" s="6" t="s">
         <v>1432</v>
       </c>
@@ -20996,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="15.75">
+    <row r="477" spans="1:8" ht="15.5">
       <c r="A477" s="6" t="s">
         <v>1435</v>
       </c>
@@ -21022,7 +21930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="15.75">
+    <row r="478" spans="1:8" ht="15.5">
       <c r="A478" s="6" t="s">
         <v>1438</v>
       </c>
@@ -21048,7 +21956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="15.75">
+    <row r="479" spans="1:8" ht="15.5">
       <c r="A479" s="6" t="s">
         <v>1441</v>
       </c>
@@ -21074,7 +21982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="15.75">
+    <row r="480" spans="1:8" ht="15.5">
       <c r="A480" s="6" t="s">
         <v>1444</v>
       </c>
@@ -21100,7 +22008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="15.75">
+    <row r="481" spans="1:8" ht="15.5">
       <c r="A481" s="6" t="s">
         <v>1447</v>
       </c>
@@ -21126,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="15.75">
+    <row r="482" spans="1:8" ht="15.5">
       <c r="A482" s="6" t="s">
         <v>1450</v>
       </c>
@@ -21152,7 +22060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="15.75">
+    <row r="483" spans="1:8" ht="15.5">
       <c r="A483" s="6" t="s">
         <v>1453</v>
       </c>
@@ -21178,7 +22086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="15.75">
+    <row r="484" spans="1:8" ht="15.5">
       <c r="A484" s="6" t="s">
         <v>1456</v>
       </c>
@@ -21204,7 +22112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="15.75">
+    <row r="485" spans="1:8" ht="15.5">
       <c r="A485" s="6" t="s">
         <v>1459</v>
       </c>
@@ -21230,7 +22138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="15.75">
+    <row r="486" spans="1:8" ht="15.5">
       <c r="A486" s="6" t="s">
         <v>1462</v>
       </c>
@@ -21256,7 +22164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="15.75">
+    <row r="487" spans="1:8" ht="15.5">
       <c r="A487" s="6" t="s">
         <v>1465</v>
       </c>
@@ -21282,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="15.75">
+    <row r="488" spans="1:8" ht="15.5">
       <c r="A488" s="6" t="s">
         <v>1468</v>
       </c>
@@ -21308,7 +22216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="15.75">
+    <row r="489" spans="1:8" ht="15.5">
       <c r="A489" s="6" t="s">
         <v>1471</v>
       </c>
@@ -21334,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="15.75">
+    <row r="490" spans="1:8" ht="15.5">
       <c r="A490" s="6" t="s">
         <v>1474</v>
       </c>
@@ -21360,7 +22268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="15.75">
+    <row r="491" spans="1:8" ht="15.5">
       <c r="A491" s="6" t="s">
         <v>1477</v>
       </c>
@@ -21386,7 +22294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="15.75">
+    <row r="492" spans="1:8" ht="15.5">
       <c r="A492" s="6" t="s">
         <v>1480</v>
       </c>
@@ -21412,7 +22320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="15.75">
+    <row r="493" spans="1:8" ht="15.5">
       <c r="A493" s="6" t="s">
         <v>1483</v>
       </c>
@@ -21438,7 +22346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="15.75">
+    <row r="494" spans="1:8" ht="15.5">
       <c r="A494" s="6" t="s">
         <v>1486</v>
       </c>
@@ -21464,7 +22372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="15.75">
+    <row r="495" spans="1:8" ht="15.5">
       <c r="A495" s="6" t="s">
         <v>1489</v>
       </c>
@@ -21490,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="15.75">
+    <row r="496" spans="1:8" ht="15.5">
       <c r="A496" s="6" t="s">
         <v>1492</v>
       </c>
@@ -21516,7 +22424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="15.75">
+    <row r="497" spans="1:8" ht="15.5">
       <c r="A497" s="6" t="s">
         <v>1495</v>
       </c>
@@ -21542,7 +22450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="15.75">
+    <row r="498" spans="1:8" ht="15.5">
       <c r="A498" s="6" t="s">
         <v>1498</v>
       </c>
@@ -21568,7 +22476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="15.75">
+    <row r="499" spans="1:8" ht="15.5">
       <c r="A499" s="6" t="s">
         <v>1501</v>
       </c>
@@ -21594,7 +22502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="15.75">
+    <row r="500" spans="1:8" ht="15.5">
       <c r="A500" s="6" t="s">
         <v>1504</v>
       </c>
@@ -21620,7 +22528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="15.75">
+    <row r="501" spans="1:8" ht="15.5">
       <c r="A501" s="6" t="s">
         <v>1507</v>
       </c>
@@ -21646,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="15.75">
+    <row r="502" spans="1:8" ht="15.5">
       <c r="A502" s="6" t="s">
         <v>1510</v>
       </c>
@@ -21672,7 +22580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="15.75">
+    <row r="503" spans="1:8" ht="15.5">
       <c r="A503" s="6" t="s">
         <v>1513</v>
       </c>
@@ -21698,7 +22606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="15.75">
+    <row r="504" spans="1:8" ht="15.5">
       <c r="A504" s="6" t="s">
         <v>1516</v>
       </c>
@@ -21724,7 +22632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="15.75">
+    <row r="505" spans="1:8" ht="15.5">
       <c r="A505" s="6" t="s">
         <v>1519</v>
       </c>
@@ -21750,7 +22658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="15.75">
+    <row r="506" spans="1:8" ht="15.5">
       <c r="A506" s="6" t="s">
         <v>1522</v>
       </c>
@@ -21776,7 +22684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="15.75">
+    <row r="507" spans="1:8" ht="15.5">
       <c r="A507" s="6" t="s">
         <v>1525</v>
       </c>
@@ -21802,7 +22710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="15.75">
+    <row r="508" spans="1:8" ht="15.5">
       <c r="A508" s="6" t="s">
         <v>1528</v>
       </c>
@@ -21828,7 +22736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="15.75">
+    <row r="509" spans="1:8" ht="15.5">
       <c r="A509" s="6" t="s">
         <v>1531</v>
       </c>
@@ -21854,7 +22762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="15.75">
+    <row r="510" spans="1:8" ht="15.5">
       <c r="A510" s="6" t="s">
         <v>1534</v>
       </c>
@@ -21880,7 +22788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="15.75">
+    <row r="511" spans="1:8" ht="15.5">
       <c r="A511" s="6" t="s">
         <v>1537</v>
       </c>
@@ -21906,7 +22814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="15.75">
+    <row r="512" spans="1:8" ht="15.5">
       <c r="A512" s="6" t="s">
         <v>1540</v>
       </c>
@@ -21932,7 +22840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="15.75">
+    <row r="513" spans="1:8" ht="15.5">
       <c r="A513" s="6" t="s">
         <v>1543</v>
       </c>
@@ -21958,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="15.75">
+    <row r="514" spans="1:8" ht="15.5">
       <c r="A514" s="6" t="s">
         <v>1546</v>
       </c>
@@ -21984,7 +22892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="15.75">
+    <row r="515" spans="1:8" ht="15.5">
       <c r="A515" s="6" t="s">
         <v>1549</v>
       </c>
@@ -22010,7 +22918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="15.75">
+    <row r="516" spans="1:8" ht="15.5">
       <c r="A516" s="6" t="s">
         <v>1552</v>
       </c>
@@ -22036,7 +22944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="15.75">
+    <row r="517" spans="1:8" ht="15.5">
       <c r="A517" s="6" t="s">
         <v>1555</v>
       </c>
@@ -22062,7 +22970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="15.75">
+    <row r="518" spans="1:8" ht="15.5">
       <c r="A518" s="6" t="s">
         <v>1558</v>
       </c>
@@ -22088,7 +22996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="15.75">
+    <row r="519" spans="1:8" ht="15.5">
       <c r="A519" s="6" t="s">
         <v>1561</v>
       </c>
@@ -22114,7 +23022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="15.75">
+    <row r="520" spans="1:8" ht="15.5">
       <c r="A520" s="6" t="s">
         <v>1564</v>
       </c>
@@ -22140,7 +23048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="15.75">
+    <row r="521" spans="1:8" ht="15.5">
       <c r="A521" s="6" t="s">
         <v>1567</v>
       </c>
@@ -22166,7 +23074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="15.75">
+    <row r="522" spans="1:8" ht="15.5">
       <c r="A522" s="6" t="s">
         <v>1570</v>
       </c>
@@ -22192,7 +23100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="15.75">
+    <row r="523" spans="1:8" ht="15.5">
       <c r="A523" s="6" t="s">
         <v>1572</v>
       </c>
@@ -22218,7 +23126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="15.75">
+    <row r="524" spans="1:8" ht="15.5">
       <c r="A524" s="6" t="s">
         <v>1575</v>
       </c>
@@ -22244,7 +23152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="15.75">
+    <row r="525" spans="1:8" ht="15.5">
       <c r="A525" s="6" t="s">
         <v>1578</v>
       </c>
@@ -22270,7 +23178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="15.75">
+    <row r="526" spans="1:8" ht="15.5">
       <c r="A526" s="6" t="s">
         <v>1581</v>
       </c>
@@ -22296,7 +23204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="15.75">
+    <row r="527" spans="1:8" ht="15.5">
       <c r="A527" s="6" t="s">
         <v>1584</v>
       </c>
@@ -22322,7 +23230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="15.75">
+    <row r="528" spans="1:8" ht="15.5">
       <c r="A528" s="6" t="s">
         <v>1587</v>
       </c>
@@ -22348,7 +23256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="15.75">
+    <row r="529" spans="1:8" ht="15.5">
       <c r="A529" s="6" t="s">
         <v>1590</v>
       </c>
@@ -22374,7 +23282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="15.75">
+    <row r="530" spans="1:8" ht="15.5">
       <c r="A530" s="6" t="s">
         <v>1593</v>
       </c>
@@ -22400,7 +23308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="15.75">
+    <row r="531" spans="1:8" ht="15.5">
       <c r="A531" s="6" t="s">
         <v>1596</v>
       </c>
@@ -22426,7 +23334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="15.75">
+    <row r="532" spans="1:8" ht="15.5">
       <c r="A532" s="6" t="s">
         <v>1599</v>
       </c>
@@ -22452,7 +23360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="15.75">
+    <row r="533" spans="1:8" ht="15.5">
       <c r="A533" s="6" t="s">
         <v>1602</v>
       </c>
@@ -22478,7 +23386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="15.75">
+    <row r="534" spans="1:8" ht="15.5">
       <c r="A534" s="6" t="s">
         <v>1605</v>
       </c>
@@ -22504,7 +23412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="15.75">
+    <row r="535" spans="1:8" ht="15.5">
       <c r="A535" s="6" t="s">
         <v>1608</v>
       </c>
@@ -22530,7 +23438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="15.75">
+    <row r="536" spans="1:8" ht="15.5">
       <c r="A536" s="6" t="s">
         <v>1611</v>
       </c>
@@ -22556,7 +23464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="15.75">
+    <row r="537" spans="1:8" ht="15.5">
       <c r="A537" s="6" t="s">
         <v>1614</v>
       </c>
@@ -22582,7 +23490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="15.75">
+    <row r="538" spans="1:8" ht="15.5">
       <c r="A538" s="6" t="s">
         <v>1617</v>
       </c>
@@ -22608,7 +23516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="15.75">
+    <row r="539" spans="1:8" ht="15.5">
       <c r="A539" s="6" t="s">
         <v>1620</v>
       </c>
@@ -22634,7 +23542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="15.75">
+    <row r="540" spans="1:8" ht="15.5">
       <c r="A540" s="6" t="s">
         <v>1623</v>
       </c>
@@ -22660,7 +23568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="15.75">
+    <row r="541" spans="1:8" ht="15.5">
       <c r="A541" s="6" t="s">
         <v>1626</v>
       </c>
@@ -22686,7 +23594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="15.75">
+    <row r="542" spans="1:8" ht="15.5">
       <c r="A542" s="6" t="s">
         <v>1629</v>
       </c>
@@ -22712,7 +23620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="15.75">
+    <row r="543" spans="1:8" ht="15.5">
       <c r="A543" s="6" t="s">
         <v>1632</v>
       </c>
@@ -22738,7 +23646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="15.75">
+    <row r="544" spans="1:8" ht="15.5">
       <c r="A544" s="6" t="s">
         <v>1635</v>
       </c>
@@ -22764,7 +23672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="15.75">
+    <row r="545" spans="1:8" ht="15.5">
       <c r="A545" s="6" t="s">
         <v>1638</v>
       </c>
@@ -22790,7 +23698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="15.75">
+    <row r="546" spans="1:8" ht="15.5">
       <c r="A546" s="6" t="s">
         <v>1641</v>
       </c>
@@ -22816,7 +23724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="15.75">
+    <row r="547" spans="1:8" ht="15.5">
       <c r="A547" s="6" t="s">
         <v>1644</v>
       </c>
@@ -22842,7 +23750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="15.75">
+    <row r="548" spans="1:8" ht="15.5">
       <c r="A548" s="6" t="s">
         <v>1647</v>
       </c>
@@ -22868,7 +23776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="15.75">
+    <row r="549" spans="1:8" ht="15.5">
       <c r="A549" s="6" t="s">
         <v>1650</v>
       </c>
@@ -22894,7 +23802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="15.75">
+    <row r="550" spans="1:8" ht="15.5">
       <c r="A550" s="6" t="s">
         <v>1653</v>
       </c>
@@ -22920,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="15.75">
+    <row r="551" spans="1:8" ht="15.5">
       <c r="A551" s="6" t="s">
         <v>1656</v>
       </c>
@@ -22946,7 +23854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="15.75">
+    <row r="552" spans="1:8" ht="15.5">
       <c r="A552" s="6" t="s">
         <v>1659</v>
       </c>
@@ -22972,7 +23880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="15.75">
+    <row r="553" spans="1:8" ht="15.5">
       <c r="A553" s="6" t="s">
         <v>1662</v>
       </c>
@@ -22998,7 +23906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="15.75">
+    <row r="554" spans="1:8" ht="15.5">
       <c r="A554" s="6" t="s">
         <v>1665</v>
       </c>
@@ -23024,7 +23932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="15.75">
+    <row r="555" spans="1:8" ht="15.5">
       <c r="A555" s="6" t="s">
         <v>1668</v>
       </c>
@@ -23050,7 +23958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="15.75">
+    <row r="556" spans="1:8" ht="15.5">
       <c r="A556" s="6" t="s">
         <v>1671</v>
       </c>
@@ -23076,7 +23984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="15.75">
+    <row r="557" spans="1:8" ht="15.5">
       <c r="A557" s="6" t="s">
         <v>1674</v>
       </c>
@@ -23102,7 +24010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="15.75">
+    <row r="558" spans="1:8" ht="15.5">
       <c r="A558" s="6" t="s">
         <v>1677</v>
       </c>
@@ -23128,7 +24036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="15.75">
+    <row r="559" spans="1:8" ht="15.5">
       <c r="A559" s="6" t="s">
         <v>1680</v>
       </c>
@@ -23154,7 +24062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="15.75">
+    <row r="560" spans="1:8" ht="15.5">
       <c r="A560" s="6" t="s">
         <v>1683</v>
       </c>
@@ -23180,7 +24088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="15.75">
+    <row r="561" spans="1:8" ht="15.5">
       <c r="A561" s="6" t="s">
         <v>1686</v>
       </c>
@@ -23206,7 +24114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="15.75">
+    <row r="562" spans="1:8" ht="15.5">
       <c r="A562" s="6" t="s">
         <v>1689</v>
       </c>
@@ -23232,7 +24140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="15.75">
+    <row r="563" spans="1:8" ht="15.5">
       <c r="A563" s="6" t="s">
         <v>1692</v>
       </c>
@@ -23258,7 +24166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="15.75">
+    <row r="564" spans="1:8" ht="15.5">
       <c r="A564" s="6" t="s">
         <v>1695</v>
       </c>
@@ -23284,7 +24192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="15.75">
+    <row r="565" spans="1:8" ht="15.5">
       <c r="A565" s="6" t="s">
         <v>1698</v>
       </c>
@@ -23310,7 +24218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="15.75">
+    <row r="566" spans="1:8" ht="15.5">
       <c r="A566" s="6" t="s">
         <v>1701</v>
       </c>
@@ -23336,7 +24244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="15.75">
+    <row r="567" spans="1:8" ht="15.5">
       <c r="A567" s="6" t="s">
         <v>1704</v>
       </c>
@@ -23362,7 +24270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="15.75">
+    <row r="568" spans="1:8" ht="15.5">
       <c r="A568" s="6" t="s">
         <v>1707</v>
       </c>
@@ -23388,7 +24296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="15.75">
+    <row r="569" spans="1:8" ht="15.5">
       <c r="A569" s="6" t="s">
         <v>1710</v>
       </c>
@@ -23414,7 +24322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="15.75">
+    <row r="570" spans="1:8" ht="15.5">
       <c r="A570" s="6" t="s">
         <v>1713</v>
       </c>
@@ -23440,7 +24348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="15.75">
+    <row r="571" spans="1:8" ht="15.5">
       <c r="A571" s="6" t="s">
         <v>1715</v>
       </c>
@@ -23466,7 +24374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="15.75">
+    <row r="572" spans="1:8" ht="15.5">
       <c r="A572" s="6" t="s">
         <v>1718</v>
       </c>
@@ -23492,7 +24400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="15.75">
+    <row r="573" spans="1:8" ht="15.5">
       <c r="A573" s="6" t="s">
         <v>1721</v>
       </c>
@@ -23518,7 +24426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="15.75">
+    <row r="574" spans="1:8" ht="15.5">
       <c r="A574" s="6" t="s">
         <v>1724</v>
       </c>
@@ -23544,7 +24452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="15.75">
+    <row r="575" spans="1:8" ht="15.5">
       <c r="A575" s="6" t="s">
         <v>1727</v>
       </c>
@@ -23570,7 +24478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="15.75">
+    <row r="576" spans="1:8" ht="15.5">
       <c r="A576" s="6" t="s">
         <v>1730</v>
       </c>
@@ -23596,7 +24504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="15.75">
+    <row r="577" spans="1:8" ht="15.5">
       <c r="A577" s="6" t="s">
         <v>1733</v>
       </c>
@@ -23622,7 +24530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="15.75">
+    <row r="578" spans="1:8" ht="15.5">
       <c r="A578" s="6" t="s">
         <v>1736</v>
       </c>
@@ -23648,7 +24556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="15.75">
+    <row r="579" spans="1:8" ht="15.5">
       <c r="A579" s="6" t="s">
         <v>1739</v>
       </c>
@@ -23674,7 +24582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="15.75">
+    <row r="580" spans="1:8" ht="15.5">
       <c r="A580" s="6" t="s">
         <v>1742</v>
       </c>
@@ -23700,7 +24608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="15.75">
+    <row r="581" spans="1:8" ht="15.5">
       <c r="A581" s="6" t="s">
         <v>1745</v>
       </c>
@@ -23726,7 +24634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="15.75">
+    <row r="582" spans="1:8" ht="15.5">
       <c r="A582" s="6" t="s">
         <v>1748</v>
       </c>
@@ -23752,7 +24660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="15.75">
+    <row r="583" spans="1:8" ht="15.5">
       <c r="A583" s="6" t="s">
         <v>1751</v>
       </c>
@@ -23778,7 +24686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="15.75">
+    <row r="584" spans="1:8" ht="15.5">
       <c r="A584" s="6" t="s">
         <v>1754</v>
       </c>
@@ -23804,7 +24712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="15.75">
+    <row r="585" spans="1:8" ht="15.5">
       <c r="A585" s="6" t="s">
         <v>1757</v>
       </c>
@@ -23830,7 +24738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="15.75">
+    <row r="586" spans="1:8" ht="15.5">
       <c r="A586" s="6" t="s">
         <v>1760</v>
       </c>
@@ -23856,7 +24764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="15.75">
+    <row r="587" spans="1:8" ht="15.5">
       <c r="A587" s="6" t="s">
         <v>1763</v>
       </c>
@@ -23882,7 +24790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="15.75">
+    <row r="588" spans="1:8" ht="15.5">
       <c r="A588" s="6" t="s">
         <v>1766</v>
       </c>
@@ -23908,7 +24816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="15.75">
+    <row r="589" spans="1:8" ht="15.5">
       <c r="A589" s="6" t="s">
         <v>1769</v>
       </c>
@@ -23934,7 +24842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="15.75">
+    <row r="590" spans="1:8" ht="15.5">
       <c r="A590" s="6" t="s">
         <v>1772</v>
       </c>
@@ -23960,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="15.75">
+    <row r="591" spans="1:8" ht="15.5">
       <c r="A591" s="6" t="s">
         <v>1775</v>
       </c>
@@ -23986,7 +24894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="15.75">
+    <row r="592" spans="1:8" ht="15.5">
       <c r="A592" s="6" t="s">
         <v>1778</v>
       </c>
@@ -24012,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="15.75">
+    <row r="593" spans="1:8" ht="15.5">
       <c r="A593" s="6" t="s">
         <v>1781</v>
       </c>
@@ -24038,7 +24946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="15.75">
+    <row r="594" spans="1:8" ht="15.5">
       <c r="A594" s="6" t="s">
         <v>1784</v>
       </c>
@@ -24064,7 +24972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="15.75">
+    <row r="595" spans="1:8" ht="15.5">
       <c r="A595" s="6" t="s">
         <v>1787</v>
       </c>
@@ -24090,7 +24998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="15.75">
+    <row r="596" spans="1:8" ht="15.5">
       <c r="A596" s="6" t="s">
         <v>1790</v>
       </c>
@@ -24116,7 +25024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="15.75">
+    <row r="597" spans="1:8" ht="15.5">
       <c r="A597" s="6" t="s">
         <v>1793</v>
       </c>
@@ -24142,7 +25050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="15.75">
+    <row r="598" spans="1:8" ht="15.5">
       <c r="A598" s="6" t="s">
         <v>1796</v>
       </c>
@@ -24168,7 +25076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="15.75">
+    <row r="599" spans="1:8" ht="15.5">
       <c r="A599" s="6" t="s">
         <v>1799</v>
       </c>
@@ -24194,7 +25102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="15.75">
+    <row r="600" spans="1:8" ht="15.5">
       <c r="A600" s="6" t="s">
         <v>1802</v>
       </c>
@@ -24220,7 +25128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="15.75">
+    <row r="601" spans="1:8" ht="15.5">
       <c r="A601" s="6" t="s">
         <v>1805</v>
       </c>
@@ -24246,7 +25154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="15.75">
+    <row r="602" spans="1:8" ht="15.5">
       <c r="A602" s="6" t="s">
         <v>1808</v>
       </c>
@@ -24272,7 +25180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="15.75">
+    <row r="603" spans="1:8" ht="15.5">
       <c r="A603" s="6" t="s">
         <v>1811</v>
       </c>
@@ -24298,7 +25206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="15.75">
+    <row r="604" spans="1:8" ht="15.5">
       <c r="A604" s="6" t="s">
         <v>1814</v>
       </c>
@@ -24324,7 +25232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="15.75">
+    <row r="605" spans="1:8" ht="15.5">
       <c r="A605" s="6" t="s">
         <v>1817</v>
       </c>
@@ -24350,7 +25258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="15.75">
+    <row r="606" spans="1:8" ht="15.5">
       <c r="A606" s="6" t="s">
         <v>1820</v>
       </c>
@@ -24376,7 +25284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="15.75">
+    <row r="607" spans="1:8" ht="15.5">
       <c r="A607" s="6" t="s">
         <v>1823</v>
       </c>
@@ -24402,7 +25310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="15.75">
+    <row r="608" spans="1:8" ht="15.5">
       <c r="A608" s="6" t="s">
         <v>1826</v>
       </c>
@@ -24428,7 +25336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="15.75">
+    <row r="609" spans="1:8" ht="15.5">
       <c r="A609" s="6" t="s">
         <v>1829</v>
       </c>
@@ -24454,7 +25362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="15.75">
+    <row r="610" spans="1:8" ht="15.5">
       <c r="A610" s="6" t="s">
         <v>1832</v>
       </c>
@@ -24480,7 +25388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="15.75">
+    <row r="611" spans="1:8" ht="15.5">
       <c r="A611" s="6" t="s">
         <v>1835</v>
       </c>
@@ -24506,7 +25414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="15.75">
+    <row r="612" spans="1:8" ht="15.5">
       <c r="A612" s="6" t="s">
         <v>1838</v>
       </c>
@@ -24532,7 +25440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="15.75">
+    <row r="613" spans="1:8" ht="15.5">
       <c r="A613" s="6" t="s">
         <v>1841</v>
       </c>
@@ -24558,7 +25466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="15.75">
+    <row r="614" spans="1:8" ht="15.5">
       <c r="A614" s="6" t="s">
         <v>1844</v>
       </c>
@@ -24584,7 +25492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="15.75">
+    <row r="615" spans="1:8" ht="15.5">
       <c r="A615" s="6" t="s">
         <v>1847</v>
       </c>
@@ -24610,7 +25518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="15.75">
+    <row r="616" spans="1:8" ht="15.5">
       <c r="A616" s="6" t="s">
         <v>1850</v>
       </c>
@@ -24636,7 +25544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="15.75">
+    <row r="617" spans="1:8" ht="15.5">
       <c r="A617" s="6" t="s">
         <v>1853</v>
       </c>
@@ -24662,7 +25570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="15.75">
+    <row r="618" spans="1:8" ht="15.5">
       <c r="A618" s="6" t="s">
         <v>1856</v>
       </c>
@@ -24688,7 +25596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="15.75">
+    <row r="619" spans="1:8" ht="15.5">
       <c r="A619" s="6" t="s">
         <v>1859</v>
       </c>
@@ -32355,6 +33263,2606 @@
         <v>12</v>
       </c>
       <c r="H913" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8">
+      <c r="A914" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B914" t="s">
+        <v>9</v>
+      </c>
+      <c r="C914" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D914" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E914" t="s">
+        <v>12</v>
+      </c>
+      <c r="F914" t="s">
+        <v>12</v>
+      </c>
+      <c r="G914" t="s">
+        <v>12</v>
+      </c>
+      <c r="H914" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8">
+      <c r="A915" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B915" t="s">
+        <v>14</v>
+      </c>
+      <c r="C915" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D915" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E915" t="s">
+        <v>12</v>
+      </c>
+      <c r="F915" t="s">
+        <v>12</v>
+      </c>
+      <c r="G915" t="s">
+        <v>12</v>
+      </c>
+      <c r="H915" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8">
+      <c r="A916" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B916" t="s">
+        <v>14</v>
+      </c>
+      <c r="C916" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D916" t="s">
+        <v>2751</v>
+      </c>
+      <c r="E916" t="s">
+        <v>23</v>
+      </c>
+      <c r="F916" t="s">
+        <v>23</v>
+      </c>
+      <c r="G916" t="s">
+        <v>23</v>
+      </c>
+      <c r="H916" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8">
+      <c r="A917" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B917" t="s">
+        <v>9</v>
+      </c>
+      <c r="C917" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D917" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E917" t="s">
+        <v>23</v>
+      </c>
+      <c r="F917" t="s">
+        <v>23</v>
+      </c>
+      <c r="G917" t="s">
+        <v>23</v>
+      </c>
+      <c r="H917" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8">
+      <c r="A918" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B918" t="s">
+        <v>9</v>
+      </c>
+      <c r="C918" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D918" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E918" t="s">
+        <v>12</v>
+      </c>
+      <c r="F918" t="s">
+        <v>12</v>
+      </c>
+      <c r="G918" t="s">
+        <v>12</v>
+      </c>
+      <c r="H918" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8">
+      <c r="A919" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B919" t="s">
+        <v>9</v>
+      </c>
+      <c r="C919" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D919" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E919" t="s">
+        <v>12</v>
+      </c>
+      <c r="F919" t="s">
+        <v>12</v>
+      </c>
+      <c r="G919" t="s">
+        <v>12</v>
+      </c>
+      <c r="H919" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8">
+      <c r="A920" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B920" t="s">
+        <v>9</v>
+      </c>
+      <c r="C920" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D920" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E920" t="s">
+        <v>12</v>
+      </c>
+      <c r="F920" t="s">
+        <v>12</v>
+      </c>
+      <c r="G920" t="s">
+        <v>12</v>
+      </c>
+      <c r="H920" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8">
+      <c r="A921" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B921" t="s">
+        <v>9</v>
+      </c>
+      <c r="C921" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D921" t="s">
+        <v>2766</v>
+      </c>
+      <c r="E921" t="s">
+        <v>12</v>
+      </c>
+      <c r="F921" t="s">
+        <v>23</v>
+      </c>
+      <c r="G921" t="s">
+        <v>12</v>
+      </c>
+      <c r="H921" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8">
+      <c r="A922" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B922" t="s">
+        <v>14</v>
+      </c>
+      <c r="C922" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D922" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E922" t="s">
+        <v>12</v>
+      </c>
+      <c r="F922" t="s">
+        <v>12</v>
+      </c>
+      <c r="G922" t="s">
+        <v>12</v>
+      </c>
+      <c r="H922" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8">
+      <c r="A923" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B923" t="s">
+        <v>9</v>
+      </c>
+      <c r="C923" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D923" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E923" t="s">
+        <v>23</v>
+      </c>
+      <c r="F923" t="s">
+        <v>23</v>
+      </c>
+      <c r="G923" t="s">
+        <v>23</v>
+      </c>
+      <c r="H923" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8">
+      <c r="A924" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B924" t="s">
+        <v>9</v>
+      </c>
+      <c r="C924" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D924" t="s">
+        <v>2775</v>
+      </c>
+      <c r="E924" t="s">
+        <v>12</v>
+      </c>
+      <c r="F924" t="s">
+        <v>23</v>
+      </c>
+      <c r="G924" t="s">
+        <v>12</v>
+      </c>
+      <c r="H924" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8">
+      <c r="A925" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B925" t="s">
+        <v>9</v>
+      </c>
+      <c r="C925" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D925" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E925" t="s">
+        <v>12</v>
+      </c>
+      <c r="F925" t="s">
+        <v>12</v>
+      </c>
+      <c r="G925" t="s">
+        <v>12</v>
+      </c>
+      <c r="H925" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8">
+      <c r="A926" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B926" t="s">
+        <v>14</v>
+      </c>
+      <c r="C926" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D926" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E926" t="s">
+        <v>12</v>
+      </c>
+      <c r="F926" t="s">
+        <v>23</v>
+      </c>
+      <c r="G926" t="s">
+        <v>12</v>
+      </c>
+      <c r="H926" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8">
+      <c r="A927" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B927" t="s">
+        <v>14</v>
+      </c>
+      <c r="C927" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D927" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E927" t="s">
+        <v>12</v>
+      </c>
+      <c r="F927" t="s">
+        <v>12</v>
+      </c>
+      <c r="G927" t="s">
+        <v>12</v>
+      </c>
+      <c r="H927" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8">
+      <c r="A928" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B928" t="s">
+        <v>14</v>
+      </c>
+      <c r="C928" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D928" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E928" t="s">
+        <v>12</v>
+      </c>
+      <c r="F928" t="s">
+        <v>12</v>
+      </c>
+      <c r="G928" t="s">
+        <v>12</v>
+      </c>
+      <c r="H928" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8">
+      <c r="A929" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B929" t="s">
+        <v>14</v>
+      </c>
+      <c r="C929" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D929" t="s">
+        <v>2790</v>
+      </c>
+      <c r="E929" t="s">
+        <v>12</v>
+      </c>
+      <c r="F929" t="s">
+        <v>12</v>
+      </c>
+      <c r="G929" t="s">
+        <v>12</v>
+      </c>
+      <c r="H929" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8">
+      <c r="A930" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B930" t="s">
+        <v>14</v>
+      </c>
+      <c r="C930" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D930" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E930" t="s">
+        <v>12</v>
+      </c>
+      <c r="F930" t="s">
+        <v>12</v>
+      </c>
+      <c r="G930" t="s">
+        <v>12</v>
+      </c>
+      <c r="H930" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8">
+      <c r="A931" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B931" t="s">
+        <v>14</v>
+      </c>
+      <c r="C931" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D931" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E931" t="s">
+        <v>12</v>
+      </c>
+      <c r="F931" t="s">
+        <v>12</v>
+      </c>
+      <c r="G931" t="s">
+        <v>12</v>
+      </c>
+      <c r="H931" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8">
+      <c r="A932" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B932" t="s">
+        <v>14</v>
+      </c>
+      <c r="C932" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D932" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E932" t="s">
+        <v>12</v>
+      </c>
+      <c r="F932" t="s">
+        <v>12</v>
+      </c>
+      <c r="G932" t="s">
+        <v>12</v>
+      </c>
+      <c r="H932" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8">
+      <c r="A933" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B933" t="s">
+        <v>14</v>
+      </c>
+      <c r="C933" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D933" t="s">
+        <v>2802</v>
+      </c>
+      <c r="E933" t="s">
+        <v>12</v>
+      </c>
+      <c r="F933" t="s">
+        <v>12</v>
+      </c>
+      <c r="G933" t="s">
+        <v>12</v>
+      </c>
+      <c r="H933" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8">
+      <c r="A934" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B934" t="s">
+        <v>14</v>
+      </c>
+      <c r="C934" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D934" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E934" t="s">
+        <v>12</v>
+      </c>
+      <c r="F934" t="s">
+        <v>12</v>
+      </c>
+      <c r="G934" t="s">
+        <v>12</v>
+      </c>
+      <c r="H934" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8">
+      <c r="A935" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B935" t="s">
+        <v>14</v>
+      </c>
+      <c r="C935" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D935" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E935" t="s">
+        <v>12</v>
+      </c>
+      <c r="F935" t="s">
+        <v>12</v>
+      </c>
+      <c r="G935" t="s">
+        <v>12</v>
+      </c>
+      <c r="H935" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8">
+      <c r="A936" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B936" t="s">
+        <v>9</v>
+      </c>
+      <c r="C936" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D936" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E936" t="s">
+        <v>12</v>
+      </c>
+      <c r="F936" t="s">
+        <v>12</v>
+      </c>
+      <c r="G936" t="s">
+        <v>12</v>
+      </c>
+      <c r="H936" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8">
+      <c r="A937" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B937" t="s">
+        <v>9</v>
+      </c>
+      <c r="C937" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D937" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E937" t="s">
+        <v>12</v>
+      </c>
+      <c r="F937" t="s">
+        <v>23</v>
+      </c>
+      <c r="G937" t="s">
+        <v>12</v>
+      </c>
+      <c r="H937" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8">
+      <c r="A938" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B938" t="s">
+        <v>14</v>
+      </c>
+      <c r="C938" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D938" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E938" t="s">
+        <v>12</v>
+      </c>
+      <c r="F938" t="s">
+        <v>12</v>
+      </c>
+      <c r="G938" t="s">
+        <v>12</v>
+      </c>
+      <c r="H938" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8">
+      <c r="A939" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B939" t="s">
+        <v>14</v>
+      </c>
+      <c r="C939" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D939" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E939" t="s">
+        <v>12</v>
+      </c>
+      <c r="F939" t="s">
+        <v>12</v>
+      </c>
+      <c r="G939" t="s">
+        <v>12</v>
+      </c>
+      <c r="H939" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8">
+      <c r="A940" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B940" t="s">
+        <v>14</v>
+      </c>
+      <c r="C940" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D940" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E940" t="s">
+        <v>12</v>
+      </c>
+      <c r="F940" t="s">
+        <v>12</v>
+      </c>
+      <c r="G940" t="s">
+        <v>12</v>
+      </c>
+      <c r="H940" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8">
+      <c r="A941" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B941" t="s">
+        <v>9</v>
+      </c>
+      <c r="C941" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D941" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E941" t="s">
+        <v>12</v>
+      </c>
+      <c r="F941" t="s">
+        <v>12</v>
+      </c>
+      <c r="G941" t="s">
+        <v>12</v>
+      </c>
+      <c r="H941" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8">
+      <c r="A942" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B942" t="s">
+        <v>14</v>
+      </c>
+      <c r="C942" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D942" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E942" t="s">
+        <v>12</v>
+      </c>
+      <c r="F942" t="s">
+        <v>12</v>
+      </c>
+      <c r="G942" t="s">
+        <v>12</v>
+      </c>
+      <c r="H942" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8">
+      <c r="A943" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B943" t="s">
+        <v>14</v>
+      </c>
+      <c r="C943" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D943" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E943" t="s">
+        <v>12</v>
+      </c>
+      <c r="F943" t="s">
+        <v>12</v>
+      </c>
+      <c r="G943" t="s">
+        <v>12</v>
+      </c>
+      <c r="H943" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8">
+      <c r="A944" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B944" t="s">
+        <v>9</v>
+      </c>
+      <c r="C944" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D944" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E944" t="s">
+        <v>23</v>
+      </c>
+      <c r="F944" t="s">
+        <v>23</v>
+      </c>
+      <c r="G944" t="s">
+        <v>23</v>
+      </c>
+      <c r="H944" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8">
+      <c r="A945" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B945" t="s">
+        <v>9</v>
+      </c>
+      <c r="C945" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D945" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E945" t="s">
+        <v>12</v>
+      </c>
+      <c r="F945" t="s">
+        <v>12</v>
+      </c>
+      <c r="G945" t="s">
+        <v>12</v>
+      </c>
+      <c r="H945" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8">
+      <c r="A946" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B946" t="s">
+        <v>14</v>
+      </c>
+      <c r="C946" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D946" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E946" t="s">
+        <v>12</v>
+      </c>
+      <c r="F946" t="s">
+        <v>23</v>
+      </c>
+      <c r="G946" t="s">
+        <v>12</v>
+      </c>
+      <c r="H946" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8">
+      <c r="A947" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B947" t="s">
+        <v>14</v>
+      </c>
+      <c r="C947" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D947" t="s">
+        <v>2844</v>
+      </c>
+      <c r="E947" t="s">
+        <v>23</v>
+      </c>
+      <c r="F947" t="s">
+        <v>23</v>
+      </c>
+      <c r="G947" t="s">
+        <v>23</v>
+      </c>
+      <c r="H947" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8">
+      <c r="A948" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B948" t="s">
+        <v>14</v>
+      </c>
+      <c r="C948" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D948" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E948" t="s">
+        <v>12</v>
+      </c>
+      <c r="F948" t="s">
+        <v>12</v>
+      </c>
+      <c r="G948" t="s">
+        <v>12</v>
+      </c>
+      <c r="H948" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8">
+      <c r="A949" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B949" t="s">
+        <v>9</v>
+      </c>
+      <c r="C949" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D949" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E949" t="s">
+        <v>12</v>
+      </c>
+      <c r="F949" t="s">
+        <v>23</v>
+      </c>
+      <c r="G949" t="s">
+        <v>12</v>
+      </c>
+      <c r="H949" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8">
+      <c r="A950" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B950" t="s">
+        <v>14</v>
+      </c>
+      <c r="C950" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D950" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E950" t="s">
+        <v>12</v>
+      </c>
+      <c r="F950" t="s">
+        <v>12</v>
+      </c>
+      <c r="G950" t="s">
+        <v>12</v>
+      </c>
+      <c r="H950" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8">
+      <c r="A951" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B951" t="s">
+        <v>14</v>
+      </c>
+      <c r="C951" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D951" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E951" t="s">
+        <v>12</v>
+      </c>
+      <c r="F951" t="s">
+        <v>12</v>
+      </c>
+      <c r="G951" t="s">
+        <v>12</v>
+      </c>
+      <c r="H951" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8">
+      <c r="A952" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B952" t="s">
+        <v>14</v>
+      </c>
+      <c r="C952" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D952" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E952" t="s">
+        <v>12</v>
+      </c>
+      <c r="F952" t="s">
+        <v>23</v>
+      </c>
+      <c r="G952" t="s">
+        <v>12</v>
+      </c>
+      <c r="H952" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8">
+      <c r="A953" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B953" t="s">
+        <v>9</v>
+      </c>
+      <c r="C953" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D953" t="s">
+        <v>2862</v>
+      </c>
+      <c r="E953" t="s">
+        <v>12</v>
+      </c>
+      <c r="F953" t="s">
+        <v>23</v>
+      </c>
+      <c r="G953" t="s">
+        <v>12</v>
+      </c>
+      <c r="H953" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8">
+      <c r="A954" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B954" t="s">
+        <v>9</v>
+      </c>
+      <c r="C954" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D954" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E954" t="s">
+        <v>12</v>
+      </c>
+      <c r="F954" t="s">
+        <v>12</v>
+      </c>
+      <c r="G954" t="s">
+        <v>12</v>
+      </c>
+      <c r="H954" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8">
+      <c r="A955" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B955" t="s">
+        <v>9</v>
+      </c>
+      <c r="C955" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D955" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E955" t="s">
+        <v>12</v>
+      </c>
+      <c r="F955" t="s">
+        <v>23</v>
+      </c>
+      <c r="G955" t="s">
+        <v>12</v>
+      </c>
+      <c r="H955" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8">
+      <c r="A956" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B956" t="s">
+        <v>9</v>
+      </c>
+      <c r="C956" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D956" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E956" t="s">
+        <v>12</v>
+      </c>
+      <c r="F956" t="s">
+        <v>12</v>
+      </c>
+      <c r="G956" t="s">
+        <v>12</v>
+      </c>
+      <c r="H956" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8">
+      <c r="A957" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B957" t="s">
+        <v>9</v>
+      </c>
+      <c r="C957" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D957" t="s">
+        <v>2874</v>
+      </c>
+      <c r="E957" t="s">
+        <v>12</v>
+      </c>
+      <c r="F957" t="s">
+        <v>12</v>
+      </c>
+      <c r="G957" t="s">
+        <v>12</v>
+      </c>
+      <c r="H957" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8">
+      <c r="A958" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B958" t="s">
+        <v>14</v>
+      </c>
+      <c r="C958" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D958" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E958" t="s">
+        <v>12</v>
+      </c>
+      <c r="F958" t="s">
+        <v>12</v>
+      </c>
+      <c r="G958" t="s">
+        <v>12</v>
+      </c>
+      <c r="H958" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8">
+      <c r="A959" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B959" t="s">
+        <v>14</v>
+      </c>
+      <c r="C959" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D959" t="s">
+        <v>2880</v>
+      </c>
+      <c r="E959" t="s">
+        <v>12</v>
+      </c>
+      <c r="F959" t="s">
+        <v>12</v>
+      </c>
+      <c r="G959" t="s">
+        <v>12</v>
+      </c>
+      <c r="H959" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8">
+      <c r="A960" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B960" t="s">
+        <v>14</v>
+      </c>
+      <c r="C960" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D960" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E960" t="s">
+        <v>12</v>
+      </c>
+      <c r="F960" t="s">
+        <v>23</v>
+      </c>
+      <c r="G960" t="s">
+        <v>12</v>
+      </c>
+      <c r="H960" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8">
+      <c r="A961" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B961" t="s">
+        <v>9</v>
+      </c>
+      <c r="C961" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D961" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E961" t="s">
+        <v>12</v>
+      </c>
+      <c r="F961" t="s">
+        <v>12</v>
+      </c>
+      <c r="G961" t="s">
+        <v>12</v>
+      </c>
+      <c r="H961" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8">
+      <c r="A962" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B962" t="s">
+        <v>9</v>
+      </c>
+      <c r="C962" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D962" t="s">
+        <v>2889</v>
+      </c>
+      <c r="E962" t="s">
+        <v>12</v>
+      </c>
+      <c r="F962" t="s">
+        <v>12</v>
+      </c>
+      <c r="G962" t="s">
+        <v>12</v>
+      </c>
+      <c r="H962" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8">
+      <c r="A963" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B963" t="s">
+        <v>14</v>
+      </c>
+      <c r="C963" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D963" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E963" t="s">
+        <v>12</v>
+      </c>
+      <c r="F963" t="s">
+        <v>12</v>
+      </c>
+      <c r="G963" t="s">
+        <v>12</v>
+      </c>
+      <c r="H963" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8">
+      <c r="A964" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B964" t="s">
+        <v>14</v>
+      </c>
+      <c r="C964" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D964" t="s">
+        <v>2895</v>
+      </c>
+      <c r="E964" t="s">
+        <v>12</v>
+      </c>
+      <c r="F964" t="s">
+        <v>23</v>
+      </c>
+      <c r="G964" t="s">
+        <v>12</v>
+      </c>
+      <c r="H964" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8">
+      <c r="A965" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B965" t="s">
+        <v>9</v>
+      </c>
+      <c r="C965" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D965" t="s">
+        <v>2898</v>
+      </c>
+      <c r="E965" t="s">
+        <v>12</v>
+      </c>
+      <c r="F965" t="s">
+        <v>12</v>
+      </c>
+      <c r="G965" t="s">
+        <v>12</v>
+      </c>
+      <c r="H965" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8">
+      <c r="A966" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B966" t="s">
+        <v>9</v>
+      </c>
+      <c r="C966" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D966" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E966" t="s">
+        <v>12</v>
+      </c>
+      <c r="F966" t="s">
+        <v>12</v>
+      </c>
+      <c r="G966" t="s">
+        <v>12</v>
+      </c>
+      <c r="H966" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8">
+      <c r="A967" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B967" t="s">
+        <v>9</v>
+      </c>
+      <c r="C967" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D967" t="s">
+        <v>2904</v>
+      </c>
+      <c r="E967" t="s">
+        <v>12</v>
+      </c>
+      <c r="F967" t="s">
+        <v>23</v>
+      </c>
+      <c r="G967" t="s">
+        <v>12</v>
+      </c>
+      <c r="H967" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8">
+      <c r="A968" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B968" t="s">
+        <v>9</v>
+      </c>
+      <c r="C968" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D968" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E968" t="s">
+        <v>12</v>
+      </c>
+      <c r="F968" t="s">
+        <v>12</v>
+      </c>
+      <c r="G968" t="s">
+        <v>12</v>
+      </c>
+      <c r="H968" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8">
+      <c r="A969" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B969" t="s">
+        <v>9</v>
+      </c>
+      <c r="C969" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D969" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E969" t="s">
+        <v>23</v>
+      </c>
+      <c r="F969" t="s">
+        <v>23</v>
+      </c>
+      <c r="G969" t="s">
+        <v>23</v>
+      </c>
+      <c r="H969" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8">
+      <c r="A970" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B970" t="s">
+        <v>9</v>
+      </c>
+      <c r="C970" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D970" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E970" t="s">
+        <v>12</v>
+      </c>
+      <c r="F970" t="s">
+        <v>12</v>
+      </c>
+      <c r="G970" t="s">
+        <v>12</v>
+      </c>
+      <c r="H970" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8">
+      <c r="A971" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B971" t="s">
+        <v>9</v>
+      </c>
+      <c r="C971" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D971" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E971" t="s">
+        <v>12</v>
+      </c>
+      <c r="F971" t="s">
+        <v>12</v>
+      </c>
+      <c r="G971" t="s">
+        <v>12</v>
+      </c>
+      <c r="H971" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8">
+      <c r="A972" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B972" t="s">
+        <v>9</v>
+      </c>
+      <c r="C972" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D972" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E972" t="s">
+        <v>23</v>
+      </c>
+      <c r="F972" t="s">
+        <v>23</v>
+      </c>
+      <c r="G972" t="s">
+        <v>23</v>
+      </c>
+      <c r="H972" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8">
+      <c r="A973" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B973" t="s">
+        <v>9</v>
+      </c>
+      <c r="C973" t="s">
+        <v>2921</v>
+      </c>
+      <c r="D973" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E973" t="s">
+        <v>12</v>
+      </c>
+      <c r="F973" t="s">
+        <v>23</v>
+      </c>
+      <c r="G973" t="s">
+        <v>12</v>
+      </c>
+      <c r="H973" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8">
+      <c r="A974" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B974" t="s">
+        <v>14</v>
+      </c>
+      <c r="C974" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D974" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E974" t="s">
+        <v>12</v>
+      </c>
+      <c r="F974" t="s">
+        <v>12</v>
+      </c>
+      <c r="G974" t="s">
+        <v>12</v>
+      </c>
+      <c r="H974" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8">
+      <c r="A975" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B975" t="s">
+        <v>14</v>
+      </c>
+      <c r="C975" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D975" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E975" t="s">
+        <v>23</v>
+      </c>
+      <c r="F975" t="s">
+        <v>23</v>
+      </c>
+      <c r="G975" t="s">
+        <v>23</v>
+      </c>
+      <c r="H975" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8">
+      <c r="A976" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B976" t="s">
+        <v>14</v>
+      </c>
+      <c r="C976" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D976" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E976" t="s">
+        <v>12</v>
+      </c>
+      <c r="F976" t="s">
+        <v>12</v>
+      </c>
+      <c r="G976" t="s">
+        <v>12</v>
+      </c>
+      <c r="H976" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8">
+      <c r="A977" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B977" t="s">
+        <v>9</v>
+      </c>
+      <c r="C977" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D977" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E977" t="s">
+        <v>12</v>
+      </c>
+      <c r="F977" t="s">
+        <v>12</v>
+      </c>
+      <c r="G977" t="s">
+        <v>12</v>
+      </c>
+      <c r="H977" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8">
+      <c r="A978" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B978" t="s">
+        <v>9</v>
+      </c>
+      <c r="C978" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D978" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E978" t="s">
+        <v>12</v>
+      </c>
+      <c r="F978" t="s">
+        <v>12</v>
+      </c>
+      <c r="G978" t="s">
+        <v>12</v>
+      </c>
+      <c r="H978" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8">
+      <c r="A979" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B979" t="s">
+        <v>14</v>
+      </c>
+      <c r="C979" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D979" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E979" t="s">
+        <v>12</v>
+      </c>
+      <c r="F979" t="s">
+        <v>12</v>
+      </c>
+      <c r="G979" t="s">
+        <v>12</v>
+      </c>
+      <c r="H979" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8">
+      <c r="A980" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B980" t="s">
+        <v>9</v>
+      </c>
+      <c r="C980" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D980" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E980" t="s">
+        <v>23</v>
+      </c>
+      <c r="F980" t="s">
+        <v>23</v>
+      </c>
+      <c r="G980" t="s">
+        <v>23</v>
+      </c>
+      <c r="H980" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8">
+      <c r="A981" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B981" t="s">
+        <v>9</v>
+      </c>
+      <c r="C981" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D981" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E981" t="s">
+        <v>12</v>
+      </c>
+      <c r="F981" t="s">
+        <v>12</v>
+      </c>
+      <c r="G981" t="s">
+        <v>12</v>
+      </c>
+      <c r="H981" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8">
+      <c r="A982" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B982" t="s">
+        <v>9</v>
+      </c>
+      <c r="C982" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D982" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E982" t="s">
+        <v>12</v>
+      </c>
+      <c r="F982" t="s">
+        <v>23</v>
+      </c>
+      <c r="G982" t="s">
+        <v>12</v>
+      </c>
+      <c r="H982" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8">
+      <c r="A983" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B983" t="s">
+        <v>9</v>
+      </c>
+      <c r="C983" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D983" t="s">
+        <v>2952</v>
+      </c>
+      <c r="E983" t="s">
+        <v>12</v>
+      </c>
+      <c r="F983" t="s">
+        <v>12</v>
+      </c>
+      <c r="G983" t="s">
+        <v>12</v>
+      </c>
+      <c r="H983" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8">
+      <c r="A984" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B984" t="s">
+        <v>14</v>
+      </c>
+      <c r="C984" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D984" t="s">
+        <v>2955</v>
+      </c>
+      <c r="E984" t="s">
+        <v>12</v>
+      </c>
+      <c r="F984" t="s">
+        <v>12</v>
+      </c>
+      <c r="G984" t="s">
+        <v>12</v>
+      </c>
+      <c r="H984" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8">
+      <c r="A985" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B985" t="s">
+        <v>9</v>
+      </c>
+      <c r="C985" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D985" t="s">
+        <v>2958</v>
+      </c>
+      <c r="E985" t="s">
+        <v>12</v>
+      </c>
+      <c r="F985" t="s">
+        <v>12</v>
+      </c>
+      <c r="G985" t="s">
+        <v>12</v>
+      </c>
+      <c r="H985" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8">
+      <c r="A986" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B986" t="s">
+        <v>9</v>
+      </c>
+      <c r="C986" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D986" t="s">
+        <v>2961</v>
+      </c>
+      <c r="E986" t="s">
+        <v>12</v>
+      </c>
+      <c r="F986" t="s">
+        <v>12</v>
+      </c>
+      <c r="G986" t="s">
+        <v>12</v>
+      </c>
+      <c r="H986" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8">
+      <c r="A987" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B987" t="s">
+        <v>14</v>
+      </c>
+      <c r="C987" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D987" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E987" t="s">
+        <v>12</v>
+      </c>
+      <c r="F987" t="s">
+        <v>12</v>
+      </c>
+      <c r="G987" t="s">
+        <v>12</v>
+      </c>
+      <c r="H987" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8">
+      <c r="A988" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B988" t="s">
+        <v>9</v>
+      </c>
+      <c r="C988" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D988" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E988" t="s">
+        <v>12</v>
+      </c>
+      <c r="F988" t="s">
+        <v>12</v>
+      </c>
+      <c r="G988" t="s">
+        <v>12</v>
+      </c>
+      <c r="H988" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8">
+      <c r="A989" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B989" t="s">
+        <v>14</v>
+      </c>
+      <c r="C989" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D989" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E989" t="s">
+        <v>12</v>
+      </c>
+      <c r="F989" t="s">
+        <v>12</v>
+      </c>
+      <c r="G989" t="s">
+        <v>12</v>
+      </c>
+      <c r="H989" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8">
+      <c r="A990" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B990" t="s">
+        <v>14</v>
+      </c>
+      <c r="C990" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D990" t="s">
+        <v>2973</v>
+      </c>
+      <c r="E990" t="s">
+        <v>12</v>
+      </c>
+      <c r="F990" t="s">
+        <v>12</v>
+      </c>
+      <c r="G990" t="s">
+        <v>12</v>
+      </c>
+      <c r="H990" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8">
+      <c r="A991" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B991" t="s">
+        <v>14</v>
+      </c>
+      <c r="C991" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D991" t="s">
+        <v>2976</v>
+      </c>
+      <c r="E991" t="s">
+        <v>12</v>
+      </c>
+      <c r="F991" t="s">
+        <v>12</v>
+      </c>
+      <c r="G991" t="s">
+        <v>12</v>
+      </c>
+      <c r="H991" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="992" spans="1:8">
+      <c r="A992" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B992" t="s">
+        <v>9</v>
+      </c>
+      <c r="C992" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D992" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E992" t="s">
+        <v>23</v>
+      </c>
+      <c r="F992" t="s">
+        <v>23</v>
+      </c>
+      <c r="G992" t="s">
+        <v>23</v>
+      </c>
+      <c r="H992" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8">
+      <c r="A993" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B993" t="s">
+        <v>9</v>
+      </c>
+      <c r="C993" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D993" t="s">
+        <v>2982</v>
+      </c>
+      <c r="E993" t="s">
+        <v>12</v>
+      </c>
+      <c r="F993" t="s">
+        <v>12</v>
+      </c>
+      <c r="G993" t="s">
+        <v>12</v>
+      </c>
+      <c r="H993" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8">
+      <c r="A994" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B994" t="s">
+        <v>9</v>
+      </c>
+      <c r="C994" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D994" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E994" t="s">
+        <v>12</v>
+      </c>
+      <c r="F994" t="s">
+        <v>12</v>
+      </c>
+      <c r="G994" t="s">
+        <v>12</v>
+      </c>
+      <c r="H994" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8">
+      <c r="A995" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B995" t="s">
+        <v>9</v>
+      </c>
+      <c r="C995" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D995" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E995" t="s">
+        <v>23</v>
+      </c>
+      <c r="F995" t="s">
+        <v>23</v>
+      </c>
+      <c r="G995" t="s">
+        <v>23</v>
+      </c>
+      <c r="H995" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8">
+      <c r="A996" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B996" t="s">
+        <v>9</v>
+      </c>
+      <c r="C996" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D996" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E996" t="s">
+        <v>12</v>
+      </c>
+      <c r="F996" t="s">
+        <v>12</v>
+      </c>
+      <c r="G996" t="s">
+        <v>12</v>
+      </c>
+      <c r="H996" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8">
+      <c r="A997" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B997" t="s">
+        <v>9</v>
+      </c>
+      <c r="C997" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D997" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E997" t="s">
+        <v>12</v>
+      </c>
+      <c r="F997" t="s">
+        <v>23</v>
+      </c>
+      <c r="G997" t="s">
+        <v>12</v>
+      </c>
+      <c r="H997" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8">
+      <c r="A998" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B998" t="s">
+        <v>9</v>
+      </c>
+      <c r="C998" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D998" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E998" t="s">
+        <v>12</v>
+      </c>
+      <c r="F998" t="s">
+        <v>23</v>
+      </c>
+      <c r="G998" t="s">
+        <v>12</v>
+      </c>
+      <c r="H998" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8">
+      <c r="A999" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B999" t="s">
+        <v>9</v>
+      </c>
+      <c r="C999" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D999" t="s">
+        <v>3000</v>
+      </c>
+      <c r="E999" t="s">
+        <v>23</v>
+      </c>
+      <c r="F999" t="s">
+        <v>23</v>
+      </c>
+      <c r="G999" t="s">
+        <v>23</v>
+      </c>
+      <c r="H999" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8">
+      <c r="A1000" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1000" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1000" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8">
+      <c r="A1001" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1001" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8">
+      <c r="A1002" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>3008</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>3009</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1002" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8">
+      <c r="A1003" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>3012</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8">
+      <c r="A1004" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1004" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8">
+      <c r="A1005" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8">
+      <c r="A1006" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1006" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8">
+      <c r="A1007" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8">
+      <c r="A1008" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1008" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8">
+      <c r="A1009" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1009" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8">
+      <c r="A1010" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1010" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8">
+      <c r="A1011" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1011" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8">
+      <c r="A1012" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1012" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8">
+      <c r="A1013" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1013" t="s">
         <v>12</v>
       </c>
     </row>

--- a/data/after coding/data_awareness_for_hand_scoring_all.xlsx
+++ b/data/after coding/data_awareness_for_hand_scoring_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\GitHub\unconscious-ec-RRR\data\after coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF9BAEE-D029-477B-8A5A-6FF43FCDB9DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C735823-4CD7-4B9B-B1F2-BCDE08ECD659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9167,7 +9167,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9513,8 +9513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E908" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1023" sqref="G1023"/>
+    <sheetView tabSelected="1" topLeftCell="E928" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A914" sqref="A914:H1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -33594,14 +33594,14 @@
       <c r="E926" t="s">
         <v>12</v>
       </c>
-      <c r="F926" t="s">
-        <v>23</v>
+      <c r="F926" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="G926" t="s">
         <v>12</v>
       </c>
       <c r="H926" s="10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="927" spans="1:8">

--- a/data/after coding/data_awareness_for_hand_scoring_all.xlsx
+++ b/data/after coding/data_awareness_for_hand_scoring_all.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6727" uniqueCount="3505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7911" uniqueCount="3949">
   <si>
     <t>unique_id</t>
   </si>
@@ -10534,6 +10534,1338 @@
   </si>
   <si>
     <t>i mean names of random creatures would often appear with their pictures of the character... also the word glasses was often next to the holey orange thing</t>
+  </si>
+  <si>
+    <t>Hutter_1</t>
+  </si>
+  <si>
+    <t>nein, ueberhaupt nichts. ich habe versucht herauszufinden, ob sich die pattern ueber die verschiedenen durchlaeufe hinweg wiederholen, aber das taten sie nicht.</t>
+  </si>
+  <si>
+    <t>nein, gar nichts. neinneineinein.</t>
+  </si>
+  <si>
+    <t>Hutter_10</t>
+  </si>
+  <si>
+    <t>ja, shelmet wurde mit negativen bildern und wöoertern gezeigt, das weisse geist mit positiven und der gelbe dino oft mit einem ventilator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein ehrlichgesagt nicht </t>
+  </si>
+  <si>
+    <t>Hutter_100</t>
+  </si>
+  <si>
+    <t>die reize waren über den bildschirm verteilt, teilweise sind sie nacheinander entlang einer linie ueber den bildschirm gewandert</t>
+  </si>
+  <si>
+    <t>viele bilder wurden immer gemeinsam mit bestimmten anderen bildern oder woertern eingeblendet</t>
+  </si>
+  <si>
+    <t>Hutter_101</t>
+  </si>
+  <si>
+    <t>es wurde wörter präsentiert, die als gut oder schlecht bewertet werden können.  fuellbilder waren neutral, angenehm oder unangenehm. die ziel undn fuellwesen waren alle sympathisch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ich habe versucht,  moeglichst schnell die zielfigur wahrzunehmen, daher habe ich nicht weitzer auf eine systematik geachtet. </t>
+  </si>
+  <si>
+    <t>FAlSE</t>
+  </si>
+  <si>
+    <t>Hutter_102</t>
+  </si>
+  <si>
+    <t>eine figur wurde mit deutlich negativeren woertern gezeigt als ein anderes, bei dem sehr viele positive woerter erschienen. ausserdem wurde bei dem glas oft entweder beton oder brille als wort ergaenzt. das blaue wesen, das mit den negativen worten gezeigt wurde, tat mir leid, waerend das mit den positiven worten eher unsympatischer wurde, da ich es ungerecht fand, dass das muschellwesen posiitive worte bekam und das blaue wesen negative.</t>
+  </si>
+  <si>
+    <t>anfangs waren die worte immer sehr aehnlich, auch in einer aehnlichen reihenfolge.ausserdem erschienen immer die selben charaktere</t>
+  </si>
+  <si>
+    <t>Hutter_103</t>
+  </si>
+  <si>
+    <t>mir ist nichts ungewöhnliches aufgefallen, außer dass die wörter manchmal sehr lange dageblieben sind und sich oft wiederholt haben.</t>
+  </si>
+  <si>
+    <t>es wurden oft die gleichen wörter für einen längeren zeitraum gezeigt und andere wörter jedes mal nur kurz.</t>
+  </si>
+  <si>
+    <t>Hutter_104</t>
+  </si>
+  <si>
+    <t>manchmal trat dass zielojekt für sehr lange zeit nicht auf</t>
+  </si>
+  <si>
+    <t>haefig dieselben kombinationen</t>
+  </si>
+  <si>
+    <t>Hutter_105</t>
+  </si>
+  <si>
+    <t>bilder und woerter wurden in legleichen kombinationen praesentiert</t>
+  </si>
+  <si>
+    <t>es erschien in einer reihenfolge zwei bilder, dann ein bild und ein wort und anschliessend zwei wörter. begonnen hat es meistens mit einem wort</t>
+  </si>
+  <si>
+    <t>Hutter_106</t>
+  </si>
+  <si>
+    <t>jedem wesen wurden verschiedene gute oder schlechte eigenschaften zugeschrieben</t>
+  </si>
+  <si>
+    <t>zwei der bilder wurden immer zusammen eingeblendet. außerdem wurde das gesuchte wesen nie ohne dessen namen angezeigt</t>
+  </si>
+  <si>
+    <t>Hutter_107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist aufgefallen, dass bei bestimmten pokemon , also bei bestimmten wesen, ejeweils entweder nur negative, nur positive adjektive oder nur neutrale substantive vorkamen. z.b. bei dem grünen pflanzenpokemon kamen nur neutrale nomen wie beton vor. bei dem pokemon das aussieht wie eine muschel kamen immer nur mit ihm zusammen nagative adjektive vor und bei dem blauen fisch geist Ã„nhlichen pokemon kamen immer nur positive adjektive wie z.b. wertvoll vor. bei anderen pokemon die vorkamen weiss ich es nicht mehr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insgesamt wurden die 2 bilder mit den foenen oft zusammen gezeigt und das glas zusammen mit dem orangenen block. ausserdem haben sich bei bestimmten pokemon die bilder mit denen sie zusammen gezeigt wurden gewechselt. das muschel pokemon z.b. das zusammen mit woetern nur mit negativen woerten auftauchte, hat auch immer wieder andere bilder die ebenfalls negativ auf einen wirken, z.b. wurden einmal mit diesem pokemon zusammen wuermer gezeigt. bei dem blauen fischgeist pokemon, das nur mit positiven adjektiven gezeigt wurde, hat man, wenn  es mit bildern zusammen auftauchte, nur mit positiv wirkenden bildern gesehen, wie z.b. einem wasserfall. bei dem einen pflanzen pokemon, das oft zusammen mit neutralen nomen auftauchte, hwurden zusammen bilder gezeigt, die ebenfalls neutral wirken, z.b. einem glas auf einem tisch. </t>
+  </si>
+  <si>
+    <t>Hutter_108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zunächstaechst wurden die bilder aud die man reaieren sollte meist gemeinsam mit dem namen praesentiert  </t>
+  </si>
+  <si>
+    <t>praesentation der bilder auf die man reagieren sollte wurde zum ende der aufgabe häufiger</t>
+  </si>
+  <si>
+    <t>Hutter_109</t>
+  </si>
+  <si>
+    <t>shelmet wurde meistens mit für mich eher negativ assoziierten wörten und der hellblaue geist mit positven wörtern bze. bw. bildern</t>
+  </si>
+  <si>
+    <t>das wort brille wurde oft mit dem kasten verbunden gezeigt, ebenso erging es bei anderen wort und bildpaaren</t>
+  </si>
+  <si>
+    <t>Hutter_11</t>
+  </si>
+  <si>
+    <t>pokemon wurden oftmals  zusammen mit positven bzw. negativen bildern eingeblendet wie z.b. shelmet welches nur nmit negativen bildern dargestellt wurde. av wa</t>
+  </si>
+  <si>
+    <t>verschiedene bilder wurden isehr haeufig zusammen gezeigt oder zumindestens nacheinander eingeblendet wie beim wuerfel und ventilator etc. verschiedene pokemon wurden nur mit positiven bzw. negativen bildern zusammen gezeigt wie shelmet mit den negativen.</t>
+  </si>
+  <si>
+    <t>Hutter_110</t>
+  </si>
+  <si>
+    <t>ich glaube bilder und woerter waren immer ungefaehr in der selben reihenfolge dargestellt</t>
+  </si>
+  <si>
+    <t>wie schon vorher geschieben, ich denke bilder und woerter ware immer in der gleichen reihenfolge</t>
+  </si>
+  <si>
+    <t>Hutter_111</t>
+  </si>
+  <si>
+    <t>das bild mit dem föhn im bad und das bild mit dem ventilator sind häufiger als die anderen bildern vorgekommen.</t>
+  </si>
+  <si>
+    <t>buch und bleistift sind fast immer in einer kombination vorgekommen.</t>
+  </si>
+  <si>
+    <t>Hutter_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alle woerter wurden in grossschrift geschrieben, ausser wenn sie direkt unter dem bild geschrieben waren  </t>
+  </si>
+  <si>
+    <t>haeufig wurden bestimmte bilder gemeinsam oder kurz hintereinander gezeigt</t>
+  </si>
+  <si>
+    <t>Hutter_113</t>
+  </si>
+  <si>
+    <t>das blaue wesen, welches wie ein tintenfisch aussieht , wurde immer mit negativv attribuierten worten gezeigt. das wesen mit dem rosanen ruessel wurde andersherum immer mit positive attribuierten worten gezeigt. die paarung der wesen mit den bildern und lessworten war unterschiedlich und folgte einem muster  negativ, positiv, neutral.</t>
+  </si>
+  <si>
+    <t>wie zuvor beschrieben, das habe ich leider schon vorweg genommen.</t>
+  </si>
+  <si>
+    <t>Hutter_114</t>
+  </si>
+  <si>
+    <t>ich denke, dass bei dem pokemon mit der muschel hauptsaechlich negative bilder gezeigt wurden. leider ist die aufgabe fuer mich etwas ungeeignet, da ich von den gezeigten pokemon berreits favouriten vor der studie hatte</t>
+  </si>
+  <si>
+    <t>der ventilator und noch ein weiteres neutrales bild tauchten oft gemeinsam im mmittelpunkt aquf</t>
+  </si>
+  <si>
+    <t>Hutter_115</t>
+  </si>
+  <si>
+    <t>die abfolge in den 5 durchführungen war ziemlich ähnlich</t>
+  </si>
+  <si>
+    <t>die abfolge war ähnlich</t>
+  </si>
+  <si>
+    <t>Hutter_116</t>
+  </si>
+  <si>
+    <t>bei dem blauen 12tier2 war häufiger müll zu sehen als bei den anderen</t>
+  </si>
+  <si>
+    <t>nach einer längeren pause kam öftters das gesuchte zielobjekt an der dritten stelle</t>
+  </si>
+  <si>
+    <t>Hutter_117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja, am anfang kamm immer eine gebalte ladung des zielobjekt. gegen später nur noch selten. die ladung am anfang war auch gemischt zwischen wort und bilddarstellungen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">das habe ich schon bei der vorigen frage beantwortet. </t>
+  </si>
+  <si>
+    <t>Hutter_118</t>
+  </si>
+  <si>
+    <t>ich hatte im gefühl, dass zwischen einzelnen durchgängen eine pause war. und,dass das zielobjekt meistens relativ offensichtlich plaziert wurde.</t>
+  </si>
+  <si>
+    <t>es gab oft dieselben paarungen an objekten.</t>
+  </si>
+  <si>
+    <t>Hutter_119</t>
+  </si>
+  <si>
+    <t>manche figuren wurden immer mit positiven woertern oder bildern gepaart, zum beispiel frillish, es wurden schöne landschaften gezeigt oder woerter wie angenehm, oder hilfreich. andere wurden wiederum nur mit negativen bildern und woertern verbunden, wie zum beispiel das schneckenwesen mit dem helm. zwischendurch gab es auch neutrale woeretr oter wund bilder gezeigt wie das wort bleistift oder das bild eines ventilators.</t>
+  </si>
+  <si>
+    <t>manche figuren waren stets mit positiven andere stets mit negativen woertern verbunden.</t>
+  </si>
+  <si>
+    <t>Hutter_12</t>
+  </si>
+  <si>
+    <t>zwei der bilder waren staendig entweder mit positiven oder negativen stimuli kombiniert. andere stimuli kamen eher in kombination vor, so z.b. bleistift und buch.</t>
+  </si>
+  <si>
+    <t>einige woerter oder bilder in kombination und zwei der pokemon immer mit positiven oder negativen stimuli kombiniert.</t>
+  </si>
+  <si>
+    <t>Hutter_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> des gab ziemlich viele adjektive, die sowohl positiv, als auch negativ waren.</t>
+  </si>
+  <si>
+    <t>meich bin nicht komplett sicher, aber die negativen adjektiven wurden mit bildern von etwas, dass suess erscheint, gezeigt.</t>
+  </si>
+  <si>
+    <t>Hutter_121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mir ist aufgefallen, das entweder die figur oder die bezeichnung oder beides erschienen sind. das hat mich aber nicht gestört.</t>
+  </si>
+  <si>
+    <t>mir ist keine systematik aufgefallen. ich habe trotzdem immer sofort reagiert.</t>
+  </si>
+  <si>
+    <t>Hutter_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nach einer gewissen zeit wurde das zielobjekt mindestens dreimal hintereinander gezeigt. entweder als bild oder als name. ausserdem hat wurde in nur einem der trials gleich zu beginn zweimal der zielreiz gezeigt. </t>
+  </si>
+  <si>
+    <t>abeton, brille und das bild eines glases wurden oft nahe beieinander gezeigt, entweder zeitlich oder oertlich</t>
+  </si>
+  <si>
+    <t>Hutter_123</t>
+  </si>
+  <si>
+    <t>sie wurden an unterschiedlichen stellen platziert, ausserdem sind manche bilder sehr häufig erschienen , z.b. das glas, und andere nur ein mal, z.b. regenwuermer</t>
+  </si>
+  <si>
+    <t>die haeufigkeit der verschiedenen motive hat variiert</t>
+  </si>
+  <si>
+    <t>Hutter_124</t>
+  </si>
+  <si>
+    <t>ich hatte den eindruck, oft die gleichen kombinationen der fuellwoerter erschienen sind</t>
+  </si>
+  <si>
+    <t>es wurden oft die gleichen fuellwoerter mit den gleichen fuellbildern kombiniert</t>
+  </si>
+  <si>
+    <t>Hutter_125</t>
+  </si>
+  <si>
+    <t>der carblaue geistähnliche cartoon wurde mit negativen bildern und wörtern kombiniert, der muschelähnliche cartoon wurde mit positiven bildern und wörtern kombiniert.</t>
+  </si>
+  <si>
+    <t>positive bilder und wörter mit bestimmten cartoons</t>
+  </si>
+  <si>
+    <t>Hutter_126</t>
+  </si>
+  <si>
+    <t>ausser, dass ich das gefuehl hatte, dass es da etwas gibt, was einem auffallen koennte oder sollte, ist mir nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>der foehn wurde haeufig mit einem bestimmten adneren bild zusammen gezeigt und gewisse woerter immer mit bestimmten anderen woertern. adjektive wurden, glaube ich, nur in kombination mit einem andderen wesen gezeig</t>
+  </si>
+  <si>
+    <t>Hutter_127</t>
+  </si>
+  <si>
+    <t>zielobjekte sind häufig erst nach längerer pause wieder aufgetreten</t>
+  </si>
+  <si>
+    <t>abwechselnd kurze, einzelne episoden und lange reizketten</t>
+  </si>
+  <si>
+    <t>Hutter_128</t>
+  </si>
+  <si>
+    <t>shelmet wurde immer mit negativen wörtern oertern und bildern gezeigt, frillish nur mit positiven und die anderen beiden wesen immer mit neutralen. das zielobjekt wurde auch immer mir neutralen wörten und bildern gezeigt oder eben alleine oder eben mit den beiden wesen, die mit neutralen bildern gezeigt wurden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menuja siehe vorherige antwort. ganz oft dauch die paarung bild von glas und beton oder neutrale wörter zusammen. </t>
+  </si>
+  <si>
+    <t>Hutter_129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oft wurden die bilder mit entweder durchweg positiven oder durchweg negativen begriffen gezeigt, dadurch entsteht bestimmt unbewusst ein urteil üueber ein bild. </t>
+  </si>
+  <si>
+    <t>bestimmte bilder sind oft zusammen erschienen, grade eine farbkombination aus blau orange, negativ bewbewertete adjektive oder bilder kamen wiederholend zu ausgewählten cartoons.</t>
+  </si>
+  <si>
+    <t>Hutter_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es gab in jedem lessdurchlauf immer eine relativ lange zeit lesspause, bevor man den naechsten zielreiz gesehen hat.  </t>
+  </si>
+  <si>
+    <t>in den letzten durchgängen kam der lesszielreiz mit bild und name immer als erstes</t>
+  </si>
+  <si>
+    <t>Hutter_130</t>
+  </si>
+  <si>
+    <t>mir ist nichts besonderes aufgegallen</t>
+  </si>
+  <si>
+    <t>wenn ein wesen erschienen ist, so ist auch sein name unter ihm erschienen</t>
+  </si>
+  <si>
+    <t>Hutter_131</t>
+  </si>
+  <si>
+    <t>ja, manche wesen sind weiderholt mit denselben begriffen aufgetaucht wie das gelbe wesen mit beton und das helbe geistwesen mit eher negativen begriffen</t>
+  </si>
+  <si>
+    <t>ja wie gesagt das geistwesen wurde immer mit eher negativen woertern und bildern gezeigt</t>
+  </si>
+  <si>
+    <t>Hutter_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> es kamen immer neue bilder dazu, die im eigentlichen nichts mit den pokemons zu tun hatten. ich kann sie nicht in einen kontext einordnen. viele themenbereichedown wurden mit den angezigten bildern abgedeckt.</t>
+  </si>
+  <si>
+    <t>für mich hatte das anzeigen der bilder nicht wirklioch eine struktur. die auswahl wirkte auf mich eher willkürlich, als geplant.</t>
+  </si>
+  <si>
+    <t>Hutter_134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubbbbbestimmte pokemons haben schlechte begriffe dabei stehen gehabt, viele nbilder, die neutral waren hatten zusammenhangslose wortpaarte dabei stehen gehabt.  </t>
+  </si>
+  <si>
+    <t>ab und zu kam nach dem gewollten pokemon oder begriff direkt wieder das pokemon oder dazugehörige begriff, führte zu leichtem zögern</t>
+  </si>
+  <si>
+    <t>Hutter_135</t>
+  </si>
+  <si>
+    <t>oft sind gewisse bilder immer zusammen aufgetaucht oder eine dreierkombi aus bildern und text</t>
+  </si>
+  <si>
+    <t>oft sind gewisse bilder mit demselben text aufgetaucht</t>
+  </si>
+  <si>
+    <t>Hutter_136</t>
+  </si>
+  <si>
+    <t>tbbbilder und woerter waren nicht immer stimmig</t>
+  </si>
+  <si>
+    <t>nichts außergewoehliches bzw. abweichend von der einleitung</t>
+  </si>
+  <si>
+    <t>Hutter_137</t>
+  </si>
+  <si>
+    <t>swhelmet wurde sehr haeufig mit negativen und frillisch sehr hauefig mit positiven begriffen gepaart. swadloon und skreegy wurden eher mit neutralen begriffen gepaart. ansonsten gab es bestimmte paerchen, wie zum beispiel bleistift und buch, die sehr haeufig zusammen aufgetaucht sind</t>
+  </si>
+  <si>
+    <t>wenn die zielperson aufgetaucht ist, kam es mir vor, als wären die bilder oder woerter davor absichtlich in den ecken des bildschirmes aufgetaucht sind, so dass meine aufmerksamkeit woander war</t>
+  </si>
+  <si>
+    <t>Hutter_138</t>
+  </si>
+  <si>
+    <t>manchmal hatte ich den eindruck, dass kurz nach der praesentation der zielwesen nochmals dasselbe wesenn gezeigt gezeigt wurde und es dann schwerer war, darauf zu reagieren. vielleicht wurden manche woerter haeufiger zusammen mit anderen woertern oder bilder gezeigt.</t>
+  </si>
+  <si>
+    <t>hier bin ich mir sehr unsicher. vielleicht wurde das zielwesen seltener mit passenden woertern als mit unpassenden praesentiert.</t>
+  </si>
+  <si>
+    <t>Hutter_139</t>
+  </si>
+  <si>
+    <t>die lessbilder von einem föhn und einem ventilator wurden sehr oft gleichzeitig gezeigt</t>
+  </si>
+  <si>
+    <t>nein, mir ist nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>Hutter_14</t>
+  </si>
+  <si>
+    <t>nicht wirklich, ich habe sie kaum beobachtet, ehrlich gesagt, es war genug einen kurzen blick zu geben, um zu verstehen, ob es mein zielobjekt ist oder nicht, wenn nicht, dann war es mir egal und ich habe nicht wirklich angeschaut, was man mir da gezeigt hatt. vielleicht, war es in der art meine schutzreaktion von zu viel information, um mich nur an der poundrichtigen zu konzentrieren.</t>
+  </si>
+  <si>
+    <t>klar, ich habe bemerkt, dass da oft nur bestimmte bilder und woerter gab, aber wie gesagt, ich habe sie nicht wirklich beobachtet, aber habe schon nachgedacht, dass es eine komische auswahl ist, und waerend mes mir langweilig war, habe ich versucht nachzudenken, wieso genau die bilder und genau die woerter, die sich besonders oft wiederholt haben</t>
+  </si>
+  <si>
+    <t>Hutter_140</t>
+  </si>
+  <si>
+    <t>ja, mir ist aufgefallen, dass ein 2e figur mit mehrnur mit positiven woertern und bildern und eine andere figur nur mit negativen woertern und bildern praesentiert wurde.</t>
+  </si>
+  <si>
+    <t>ich glaube, dass habe ich schon bei der frage zuvor angegeben.</t>
+  </si>
+  <si>
+    <t>Hutter_141</t>
+  </si>
+  <si>
+    <t>ein bild wurde immer mit negativ konnbehafteten woertern gezeigt, ein anderes immer mit positiven.</t>
+  </si>
+  <si>
+    <t>manche bilder wurden sehr oft mit den gleichen woertern gezeigt. oft wurden bilder auch durchgaengig mentweder mit positiv, negativ oder neutralen woertern gezeigt.</t>
+  </si>
+  <si>
+    <t>Hutter_142</t>
+  </si>
+  <si>
+    <t>neben bestimmten figuren tauchten öfter oefter negative bilder oder woerter auf als neben anderen figuren, z.</t>
+  </si>
+  <si>
+    <t>die negativen bzw. positiven woerter und bilder tauchten nur mittig zusammen mit einer figur auf, sonst nicht.</t>
+  </si>
+  <si>
+    <t>Hutter_143</t>
+  </si>
+  <si>
+    <t>zes geab cartoonfiguren, die grundsaetzlich mit begrifflichkeiten oder bildern verknuepft wurden, die allgemein eher negativ assoziiert werden , wie z.b. .b. nutzlos., und vice versa.</t>
+  </si>
+  <si>
+    <t>bestimmte lessbilder bzw. bilder und wort paare traten sehr haeufig auf, wie der foehn und der ventilator bzw. der glaskrug und das lesswort lessbeton.</t>
+  </si>
+  <si>
+    <t>Hutter_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">je nach zielwesen ahaben einige bilder gewechselt. die farben dieser bilder habwaren aehnlich wie die farben der entsprechenden zielwesen.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein, mir ist kein system aufgefallen. </t>
+  </si>
+  <si>
+    <t>Hutter_145</t>
+  </si>
+  <si>
+    <t>die wörter und bilder wurden auf unterschiedlichen teilen des bildschirms abgebildet. manche wörter zbb. buch, wurde deutlich häufiger präsentiert als andere wörter oder bilder.</t>
+  </si>
+  <si>
+    <t>das wort buch wurde sehr häufig präsentiert</t>
+  </si>
+  <si>
+    <t>Hutter_146</t>
+  </si>
+  <si>
+    <t>das blaue wesen wurde mit negativen bildern gepund woertern gepaart, shelmet mit positiven. deshalb kam die frage nach der bewertung der wesen nicht unerwartet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buchstabe und buch erschien haeufig zs. dann das negative bzw. positive pairing blaues tier und shelmet. </t>
+  </si>
+  <si>
+    <t>Hutter_147</t>
+  </si>
+  <si>
+    <t>ein e figur ist immer mit negativen bildern oder begriffen präsentiert worden, eines immmer mit positiven bildern oder begriffen und die anderen mit neutralen bildern oder begriffen</t>
+  </si>
+  <si>
+    <t>immer die gleiche figur mit negativen material präsentiert bzw. immer die gleiche figur mit positivem material, der rest eher neutral</t>
+  </si>
+  <si>
+    <t>Hutter_148</t>
+  </si>
+  <si>
+    <t>mal waren die abstänaende zwischen den bildern recht lang, mal recht kurz. manchmal war lange zeit nichts zu sehen</t>
+  </si>
+  <si>
+    <t>bestimmte bilder wurden oft zusammen gezeigt</t>
+  </si>
+  <si>
+    <t>Hutter_149</t>
+  </si>
+  <si>
+    <t>es gab zwischen drin viele neurale bilder. manche figuren wurden oft mit negativen bildern und wörtern gezeigt, andere mit eher positiven.</t>
+  </si>
+  <si>
+    <t>nach einem positiven ode3r negativen bild kamen ersteinmal einige neutrale bilder ehe die zielfigur gezeigt wurde.</t>
+  </si>
+  <si>
+    <t>Hutter_15</t>
+  </si>
+  <si>
+    <t>mir ist nichts aussergewoehnliches aufgefallen</t>
+  </si>
+  <si>
+    <t>es wurden haeufig die gleichen bilder zusammen abgebildet. das bild des zielobjekts wurde immer in kombination mit dem namen gezeigt.</t>
+  </si>
+  <si>
+    <t>Hutter_150</t>
+  </si>
+  <si>
+    <t>die zbilder der zielobjekte wurden immer mit dem namen des objektes selbst angezeigt.</t>
+  </si>
+  <si>
+    <t>ich hatte den eindruck, dass sich manche sequenzen wiederholt haben, bei den unterschiedlichen aufgaben.</t>
+  </si>
+  <si>
+    <t>Hutter_151</t>
+  </si>
+  <si>
+    <t>zielreiz war sehr groß präsentiert.</t>
+  </si>
+  <si>
+    <t>es waren teilweise große pausen zwischendrin.</t>
+  </si>
+  <si>
+    <t>Hutter_16</t>
+  </si>
+  <si>
+    <t>mir ist eigentlich nichts besonderes aufgefallen. manchmal waren die bilder etwas weiter in der ecke und haben eine besondere aufmerksamkeit verlangt.</t>
+  </si>
+  <si>
+    <t>nein mir ist nichts aufgefallen. ich war ganz auf die das erkennen fokussiert, so dass ich mich nicht mit der systematik auseinander gesetzt habe.delete</t>
+  </si>
+  <si>
+    <t>Hutter_17</t>
+  </si>
+  <si>
+    <t>scraggy und das glas erschienen haeufig mit dem wort beton gemeinsam</t>
+  </si>
+  <si>
+    <t>es gab ein system, naemlich oftmals war der foen neben einem wort und dann ging das wort schnell weg und dieses karo ding erschien</t>
+  </si>
+  <si>
+    <t>Hutter_18</t>
+  </si>
+  <si>
+    <t>die bilder und woerter sind immer an unterschiedlichen stellen des bildschirms erschienen. manchmal wurden die woerter und bilder direkt hintereinander angezeigt und manchmal kam dazwischen ein weisser bildschirm.</t>
+  </si>
+  <si>
+    <t>der einsatz von woertern und bildern, die positive bzw. negative gefuehle aussloesen.</t>
+  </si>
+  <si>
+    <t>Hutter_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">einige wesen sind haeufig in verbindung mit negativen bildern erschienen, andere in verbindung mit positiven. n8wasser,blau,familie99. </t>
+  </si>
+  <si>
+    <t>bilder und attribute hund nomen haben sich in ihrer kombination teilweise wiederholt.</t>
+  </si>
+  <si>
+    <t>Hutter_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> es waren immer wieder die gleichen wörter und bilder</t>
+  </si>
+  <si>
+    <t>nein mir ist nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>Hutter_20</t>
+  </si>
+  <si>
+    <t>shellet wurde moft mit negativen und frishlett oft mit positiven reizen praesentiert</t>
+  </si>
+  <si>
+    <t>bei muschelwesen negativer reiz bei blauem geist positiver reiz gekoppelt</t>
+  </si>
+  <si>
+    <t>Hutter_21</t>
+  </si>
+  <si>
+    <t>shamlet wurde nur mit negativen bildern gezeigt, das blaue wesen wurde ausschliesslich mit positiven bildern assoziiert. das grüne mit eher harten beildern un dbegd begriffen gezeigt</t>
+  </si>
+  <si>
+    <t>beton und glas wuirde häufig zusammen gezeigt, auch der fön mit dem gitter. in den ecken häufig buch und bleistift</t>
+  </si>
+  <si>
+    <t>Hutter_22</t>
+  </si>
+  <si>
+    <t>sie wurden in einer bestimmten reihenfolge präsentiert udie wörter waren bei den comicfiguren häufig fett markiert.</t>
+  </si>
+  <si>
+    <t>zneben den bildern die immer zu sehen waren 8fö  wie foen oder ventilator  wurden zu den neuen comicfiguren emotionale bilder zwischengefügt.</t>
+  </si>
+  <si>
+    <t>Hutter_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es haben sich die bilder und begriffe wiederholt. </t>
+  </si>
+  <si>
+    <t>mir ist nichts systematisches aufgefallen.</t>
+  </si>
+  <si>
+    <t>Hutter_24</t>
+  </si>
+  <si>
+    <t>viele dinge sind oft zusammen erschienen, zum beispiel erschienen einige bilder paarweise sowie auch einige wörter. andere wörter oder bilder erschienen nur ein einziges mal.</t>
+  </si>
+  <si>
+    <t>die bilder der figuren die man erkennen sollte, kamen immer nur in verbindung mit dem wort vor, obwohl das wort teilweise auch alleine erschien.</t>
+  </si>
+  <si>
+    <t>Hutter_25</t>
+  </si>
+  <si>
+    <t>das blaue wesen wurde meist zusammen mit schoener natur oder angehemen worten gezeigt und das muschel aehnliche tier wurde immer mit schmutz oder unangenehmen dingen zusammen gezeigt. ausserdem kam ein bild, ich weiss nicht was er darstellen sollte, dauerhaft zusammen mit dem wort brille .</t>
+  </si>
+  <si>
+    <t>die blaue figur wurde immer in verbindung mit angenehmen dingen gezeigt und das muschel aehnliche tier immer in verbindung mit unangenehmen dingen. ausserdem wurden manche bilder permanent miteinander zusammen gezeigt. ich glaube das richtige wesen kam auch meist in  verbindung mit dem wort beton.</t>
+  </si>
+  <si>
+    <t>Hutter_26</t>
+  </si>
+  <si>
+    <t>bestimmte cartoons waren immer mit negativen, andere immer mit positiven bilder und woerter praesentiert</t>
+  </si>
+  <si>
+    <t>das blaue cartoon wurde immer mit poangenehme bilder und woerter gezeigt, das gelbe immer mit dem wort beton, das cartoon in der muschel mit unangenehme bilder unfd woerter</t>
+  </si>
+  <si>
+    <t>Hutter_27</t>
+  </si>
+  <si>
+    <t>manche figuren wurden mit eher negativen begriffen verknuepft, waehrend es bei anderen umgekehrt der fall war</t>
+  </si>
+  <si>
+    <t>manche bild und wortpaare wurden haeufig zusammen dargestellt, beispielsweise der foehn und der ventilator, computer und swadloon, negatives mit frillish</t>
+  </si>
+  <si>
+    <t>Hutter_28</t>
+  </si>
+  <si>
+    <t>bestimmte figuren waren oft mit gleichen bildern gepaart, bspw. hatte frilish oft bilder und wörtter mit angezeigt bekommen, die mich bei der vorigen aufgabe eher für sie statt die andere gezeigte figur entscheidne lassen haen lassen hat. auch die position der bilder und wörter war oft gleich, bleistifte wurde z.b. häufig oben links allein angezeigt.</t>
+  </si>
+  <si>
+    <t>buch war oft mit dem bild des föoehns gepaart, brille mit dem foto des eckigen kastens, laevtl. lautsprecher. zudem hatte die grüne figur oft das bild des glases mit dabei und scraggy den begriff beton. die bilder und wörter traten oft an denselben stellen auf, bspw. das glas unten rechts und bleistifte oben links.</t>
+  </si>
+  <si>
+    <t>Hutter_29</t>
+  </si>
+  <si>
+    <t>die motive haben sich wiederholt und waren teilweise gepaartt.</t>
+  </si>
+  <si>
+    <t>kann es sein, dass bestimmte woerter bzw. motive mit postiven, neutralen, negativen woertern bzw. motiven gepaart waren</t>
+  </si>
+  <si>
+    <t>Hutter_3</t>
+  </si>
+  <si>
+    <t>nicht wirklich  außer dass vielleicht manchen bilder auch im naechsten trial laenger verblieben und hin manche wörter aueßerlich aenlichkeit hatten und weitere kleinigkeiten</t>
+  </si>
+  <si>
+    <t>nicht wirklich wenn diese frage gefragt wird ob man nach einem bestimmten muster gehandelt hat so trifft das nicht zu ab da man mehr scheiben muss kann es natuerlich sein dass mir etwas aufgefallen sein müsste</t>
+  </si>
+  <si>
+    <t>Hutter_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es gab meistens zu beginn einer aufgabe einen aufruf der bildes s bildes der zu ueberwachenden figur. es gab zwischen den aufrufen laengere pausen, jedoch wurde das jeweilige bild oder  der namen der figur bei erneuter aufrufung relativ oft in kurzen intervallen gezeigt, wenn nicht sogar direkt hintereinander.  </t>
+  </si>
+  <si>
+    <t>es wurden bestimmte bilder und wörter wie glas, beton und föhn systematisch sehr oft und hintereinander aufgerufen. darüber hinaus wurden in jeder aufgabe alle figuren gezeigt, abgesehen von denen, welche in den folgenden aufgaben überwacht werden sollten. daneben wurden mit jeder neuen aufgabe neue vereinzelte bilder ohne zusammenhang dazugemischt.</t>
+  </si>
+  <si>
+    <t>Hutter_31</t>
+  </si>
+  <si>
+    <t>bestimmte dinge kamen fast immer in kombination mit demselben wort. wie brille plus und der wuerfel und beton und das glas.</t>
+  </si>
+  <si>
+    <t>beton und glas kamen oft zusammen, brille und wuerfel. regenschirm und computer. frillish hatte immer lange adjektive, die polarisieren. shelmet eher adjektive, die emotional sind.</t>
+  </si>
+  <si>
+    <t>Hutter_32</t>
+  </si>
+  <si>
+    <t>einige kombinationen, wie zum beispiel brille und das bild des lueftungsschachtes, kamen haefiufiger vor.</t>
+  </si>
+  <si>
+    <t>es kam nie alleine das bild des wesens, immer noch entweder text und bild zusammen, oder nur text.</t>
+  </si>
+  <si>
+    <t>Hutter_33</t>
+  </si>
+  <si>
+    <t>frillish ist häufig mit negativen bildern gezeigt worden 8friedhof, umweltverschmutzung9, das kleine schneckenwesen mit positiven dingen 8segelschiff9 und scraggy mit neutralen gegenständen 8föhn, wasserglas9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ndie darstellung war zufällig, ich habe kein muster erkannt.</t>
+  </si>
+  <si>
+    <t>Hutter_34</t>
+  </si>
+  <si>
+    <t>manche bilder und wörter wurdeoerter wurde oefter zusammen gezeigt als andere.</t>
+  </si>
+  <si>
+    <t>ein wesen wurde nur mit positiven woerten kombiniert gezeigt worden und ein anderes nur mit negativen.</t>
+  </si>
+  <si>
+    <t>Hutter_35</t>
+  </si>
+  <si>
+    <t>zusammen mit frillish kamen oft unangenehme bilder oder wörter und mit dem wemuschelhelmwesen eher positive.</t>
+  </si>
+  <si>
+    <t>s.vorherige antwort  frillish negativ, shelmet positiv</t>
+  </si>
+  <si>
+    <t>Hutter_36</t>
+  </si>
+  <si>
+    <t>bei jedem durchgang ist zeimlich zu beginn eine klaengere pause in der weder bild noch text angeziegt wird. ausserdem kommt bei jedem durchgnag einmal serh schnell hintereinander text und dnach das bild des zielobjekts. wenn das bild des zielobjekts erscheint, ist immer auch der name dazu dabei.</t>
+  </si>
+  <si>
+    <t>ich habe in der vorherigen fragestellunmg diese frage beantwortet.</t>
+  </si>
+  <si>
+    <t>Hutter_37</t>
+  </si>
+  <si>
+    <t>manchmal gab es längere pausen, bis die zielperson erschien. es kam mir so vor, als wäre der erste durchlauf etwas langsamer durchgelaufen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> es gab namen, adjektive und gegenstände </t>
+  </si>
+  <si>
+    <t>Hutter_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">das blaue eiswesen warurde haeufig mit negativen bildern angezeigt, shelmet wurde haeufig mit positiven bildern angezeigt. ein glas und das wort beton erschienen haeufig nebeneinander sowie eine wortkombination </t>
+  </si>
+  <si>
+    <t>wesen die nicht erkannt werden sollten wurden immer gemeinsam mit ihrem namen angezeigt</t>
+  </si>
+  <si>
+    <t>Hutter_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> während der letzten menuphase wurden eher emotionale bilder gezeigt und längere pausen gemacht.</t>
+  </si>
+  <si>
+    <t>rctrlndas bild des ventilators, de s glas und des föhns kamen immer vor</t>
+  </si>
+  <si>
+    <t>Hutter_4</t>
+  </si>
+  <si>
+    <t>auffällig war, das die bilder an untershcieldlichen stellen einbgeblendet wurden und dass es blaue und rote bilder gab</t>
+  </si>
+  <si>
+    <t>manche wörter wurden einzeln, andere in komibnation mit anderen bikldern oder wörtern eingeblendet</t>
+  </si>
+  <si>
+    <t>Hutter_40</t>
+  </si>
+  <si>
+    <t>ja, ein pokemon war immer mit negativen worten praesentiert, und eines immer mit positiven</t>
+  </si>
+  <si>
+    <t>ja, wie eben gesagt, 1 pokemon gut 1 schlecht</t>
+  </si>
+  <si>
+    <t>Hutter_41</t>
+  </si>
+  <si>
+    <t>schnell aufeinander ode r mit langer pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nenein, mir ist nichts aufgefallen </t>
+  </si>
+  <si>
+    <t>Hutter_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">häufig wurden die selben wörterkombinationen verwendet. </t>
+  </si>
+  <si>
+    <t>teilweise wurden die gleichen kombinationen gezeigt.</t>
+  </si>
+  <si>
+    <t>Hutter_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist aufgefallen, dass z.b. manche bilder wie frillish immer mit negativen begriffen gezeigt wurde. shelmet hingegen hatte eigentlich hauptsächlich positive begriffe. </t>
+  </si>
+  <si>
+    <t>also systematisch war zum einen die zuordnung von positven und negativen begriffen zu frillish und shelmet. die echten bilder schienen neutral zu sein. shaggy war häufig mit dem ventilator zu sehen. außerdem wurde das wort lessbuch häufig mit anderen wörtern kombiniert.</t>
+  </si>
+  <si>
+    <t>Hutter_44</t>
+  </si>
+  <si>
+    <t>die farben der bilder sind ziemlich ähnlich, auch die wörter waren nicht leicht zu unterscheiden.</t>
+  </si>
+  <si>
+    <t>nein, nur konzentration um richtig wählen zu können.</t>
+  </si>
+  <si>
+    <t>Hutter_45</t>
+  </si>
+  <si>
+    <t>oft wurden die gleichen kombinationen zweier wörter, zweier bilder oder bildwo und wort  gewählt</t>
+  </si>
+  <si>
+    <t>zu manchen bildern wurden nur positive bzw nur negative begrifffe gezeigt</t>
+  </si>
+  <si>
+    <t>Hutter_46</t>
+  </si>
+  <si>
+    <t>die bilder waren farblich und vor allem von der wärme beziehungsweise kälte der farben ähnlich wie manche comcic figuren. bei den wörtern waren manche alltagsgegenstände wie brillen vorhanden aber auch wertende adjektive.</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass oft ähnaehnliche bilder verwendet haben. z.b. bei der blauen figur war es so, dass oft blaue bilder und andere bbblaue figuren gezeigt wurden.</t>
+  </si>
+  <si>
+    <t>Hutter_47</t>
+  </si>
+  <si>
+    <t>nein, es erschien mir sehr willkuerlich.</t>
+  </si>
+  <si>
+    <t>wie eben erwaehn, es erschien mir ganz willkkuerlich.</t>
+  </si>
+  <si>
+    <t>Hutter_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein, eher hatte ich das gefuehl ein bestimmtes muster zu erkennen. </t>
+  </si>
+  <si>
+    <t>ja, ich hatte das gefuehl, dass die ablaeufe einem gewissen schema folgten.</t>
+  </si>
+  <si>
+    <t>Hutter_49</t>
+  </si>
+  <si>
+    <t>die lange pause 8, leerer bildschirm zwischen den bildern</t>
+  </si>
+  <si>
+    <t>nein, eher nicht, nach zufalsprinzip</t>
+  </si>
+  <si>
+    <t>Hutter_5</t>
+  </si>
+  <si>
+    <t>die comicfigur frillish ist stets mit sehr positiven woertern und bildern konnotiert worden, während shelmet stets mit sehr negativen woertern un bildern konnotiert wurde. da mir das aufgefallen ist, hatte ich eher mitleid mit shelmet, als dass er mir unsympathisch war..</t>
+  </si>
+  <si>
+    <t>manche woerter waren eng mit bestimmten comicfiguren verknüpft, so z.b. computer mit dem grünen comicmoster. andere bilder waren möglichstneutral mit neutralen begriffen, wie buch oder bleistift.</t>
+  </si>
+  <si>
+    <t>Hutter_50</t>
+  </si>
+  <si>
+    <t>es gab ein paar bilder divon objekten die sehr oft gezeigt wurden. zwischendurch waren es bilder von menschen. die wörter haben sich auch oft wiederholt.</t>
+  </si>
+  <si>
+    <t>einn paar objekte wurden immer nebeneinander gezeigt. auch wörter wurden mehrmals mit bestimmten symbolen gepaart.</t>
+  </si>
+  <si>
+    <t>Hutter_51</t>
+  </si>
+  <si>
+    <t>mir ist nichts besonderes aufgefallen, ausser dass  die zielnamen mit bild verschwommener sind als die anderen namen</t>
+  </si>
+  <si>
+    <t>mir ist keine systematik aufgefallen</t>
+  </si>
+  <si>
+    <t>Hutter_52</t>
+  </si>
+  <si>
+    <t>immer die gleichen bilder oder woerter</t>
+  </si>
+  <si>
+    <t>nein, nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>Hutter_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">das  zielobjekt ist oft sehr lange nicht erschienen. </t>
+  </si>
+  <si>
+    <t>die bilder und woerter waren voneinander unabhaengig.</t>
+  </si>
+  <si>
+    <t>Hutter_54</t>
+  </si>
+  <si>
+    <t>manchmal wurden dias passende wort mit einem anderen bild kombiniert. manchmal sahen die falschen wörter und das gesuchte wort optisch ähnlich aus.</t>
+  </si>
+  <si>
+    <t>manche bilder wurden immer mit wörtern gezeigt die nicht gesucht waren.</t>
+  </si>
+  <si>
+    <t>Hutter_55</t>
+  </si>
+  <si>
+    <t>die substantive wurden nicht auf den bildern angezeigt mit denen sie präsentiert wurden. nur manche wörter erschienen einzeln und an unterschiedlichen räumen auf dem bildschirmrightright. einige bilder erschienen oefters als andere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negativ behaftete adjektive wurden haufig mit dem hellblauen wesen zusammen gezeigt. das wort brille wurde oft mit dem bild des ziergelsteins gezeigt. </t>
+  </si>
+  <si>
+    <t>Hutter_56</t>
+  </si>
+  <si>
+    <t>die bilder der figuren waren nie ohne namen zu sehen, und die namen haben immer zum bild gepasst. es wurden keine bilder mit falschem namen präsentiert. die füllbilder und wörter wurden hingegen einzeln präsentiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in den ersten sekunden jedes durchlaufs wurde die zielfigur mindestens einmal gezeigt. es gab jeweils eine phase, in der die zielfigur laenger nicht praesentiert wurde. </t>
+  </si>
+  <si>
+    <t>Hutter_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">das blaue wesen häufig mit positiv besetzten woertern oder bildern kombiniert, ein anderes immer mit negativ besetzten woetern und bildern. das beleidigt aussehende grüne monster immer immer neutralen bildern und woertern.rctrl </t>
+  </si>
+  <si>
+    <t>wiederkehrende kombinationen</t>
+  </si>
+  <si>
+    <t>Hutter_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mir ist nichts aufgefallen. ich konnte nur die geschriebenen wörter gefühlt weniger schnell wahrnehmen als die bilder. es gab neutrale und schlecht und gute bilder unnd woerter.</t>
+  </si>
+  <si>
+    <t>nein. ich denke sie sind zufällig erschienen. sowohl was ort, als auch was zuordnung 8also ob zu zweit oder allein9</t>
+  </si>
+  <si>
+    <t>Hutter_59</t>
+  </si>
+  <si>
+    <t>shelmet wurde immer mit negativen wörtern gleichzeitig gezeigt. zudem wurde frillish stets mit nur positiven wörtern und bildern gezeigt.</t>
+  </si>
+  <si>
+    <t>computer und regenschirm kamen häufig zusammen.</t>
+  </si>
+  <si>
+    <t>Hutter_6</t>
+  </si>
+  <si>
+    <t>es sind einige wesen eher mit positiven begriffen und bildern gezeigt worden und andere mit eher negativen</t>
+  </si>
+  <si>
+    <t>es wurde ganz klar anhand der begriffe festgelegt ob das wesen mit positiven oder negativen konnotationen verbunden wird</t>
+  </si>
+  <si>
+    <t>Hutter_60</t>
+  </si>
+  <si>
+    <t>einnes der wesen wurde häufig neben positiven worten gezeigt während ein anderes wesen eher mit negativen wortern gezeigt wurde</t>
+  </si>
+  <si>
+    <t>ein wesen ist meist mit einem wort aufgetaucht, und du d die wörter buch und bleistift sind oft zusammen gezeigt worden</t>
+  </si>
+  <si>
+    <t>Hutter_61</t>
+  </si>
+  <si>
+    <t>es wurden einige pokemon bzw monster mit schlecht konnotierten woertern verbunden und vice versa. ausserdem waren die bilder sehr einheitlich gefärbt, also zbsp blau oder vermittelten ein bestimmtes geffuehl. mir ist besonders das bild auf dem friedhof uaufgefallen. am ende bei der sympathie fragerunde hatte ich zu vielen gar keine eindeutige meinung und hab intuitiv gehandelt, vielleicht widerspricht sich deshalb auch die sympathie einiger pokemon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es kam recen recht haeufig die bilder vom foehn , dem ventilator und dem glas. </t>
+  </si>
+  <si>
+    <t>Hutter_62</t>
+  </si>
+  <si>
+    <t>die wörter und bilder wurden teilweise schneller und langsamer gezeigt</t>
+  </si>
+  <si>
+    <t>das anfangsbild wurde in der gleichen reihenfolge nochmal gezeigt. gegen ende war immer eine kurze pause, auf die jedoch nochmal eins paar bilder und wörter gezeigt wurden. einige bilder wurden sehr häufig gezeigt, wohingegen ein paar bilder nur vereinzelt vorkamen</t>
+  </si>
+  <si>
+    <t>Hutter_63</t>
+  </si>
+  <si>
+    <t>ja, zu dem blauen cartoon kamen immer negative wörte oder bilder und zu dem grau roten cartoon positive</t>
+  </si>
+  <si>
+    <t>negative oft mit den gleichen cartoons zusammen und anders herum</t>
+  </si>
+  <si>
+    <t>Hutter_64</t>
+  </si>
+  <si>
+    <t>die bilder waren immer an verschiedenen plätzen. auch waren einige bilder oder wörter deutlich häufiger vorhanden als andere</t>
+  </si>
+  <si>
+    <t>mir persönlich war kein system erkenntlich, ich war zu sehr auf die aufgabe konzentriert</t>
+  </si>
+  <si>
+    <t>Hutter_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mir ist nichts besonderers aufgefallen</t>
+  </si>
+  <si>
+    <t>mir ist nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>Hutter_66</t>
+  </si>
+  <si>
+    <t>unregelmaessige abstaende und unterschiedliche kombinationen</t>
+  </si>
+  <si>
+    <t>nein nicht wirklich.</t>
+  </si>
+  <si>
+    <t>Hutter_67</t>
+  </si>
+  <si>
+    <t>oft wurden dpaare aus bildern wiederholt gezeigt, z.b. beton und ein bild von einem glas oder bilder von einem föhn oehn und einem ventilator. ausserdem wurde hdas ziel haeufig in kurzen abstaenden wiederholt gezeigt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wie bereits gesagt gab es einige paare, die vermehrt gezeigt wurden wie z.b. das word beton und ein bild von einem glass. </t>
+  </si>
+  <si>
+    <t>Hutter_68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die blaue figur frillish war stets mit negativen woertern verbunden, shelmet war stets mit positiven woertern verbunden </t>
+  </si>
+  <si>
+    <t>das wort beton stand sehr haeufig neben dem leeren glas. shelmet war stets mit postiven worten verknuepft, frillish stets mit negativen worten</t>
+  </si>
+  <si>
+    <t>Hutter_69</t>
+  </si>
+  <si>
+    <t>es gab einige bilder uund worte, die meist zusammen erschienen sind, z.b. brille mit dem bild von deiesem quadrat, computer plus und regenschirm, meist waren 2 bbilder zusammen relativ gegensätzlich z.b. rot und blau</t>
+  </si>
+  <si>
+    <t>manche wurden immer zusammen angezeigt, oder es wurde nachdem das gesuchte bild oder wort gezeigt wurde, ein sehr ähnliches bild oder wort gezeigt.</t>
+  </si>
+  <si>
+    <t>Hutter_7</t>
+  </si>
+  <si>
+    <t>mehrere bilder u woerter erschienen sehr oft, bspw ddie woerter brille, bleistifte, buch, regenschirm bzw die bilder glas, ventilator, wuerfel an wand, waehrend andere bilder meist von personen, der natur oder muell bzw adjektive nicht wiederholt wurden.</t>
+  </si>
+  <si>
+    <t>lessnichts bestimmtess aufgefallen..</t>
+  </si>
+  <si>
+    <t>Hutter_70</t>
+  </si>
+  <si>
+    <t>es war immer die gleichen bilder nach einer bestimmnten reihenfolge geordnet</t>
+  </si>
+  <si>
+    <t>dazu ist mir nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>Hutter_72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelmet wurde nurn mit negativen bildern und adjektiven behaftet ,da das quallenähnliche eispokemon nur mit positven begriffen ,wie beruhigen ,wertvoll etc. bei dem orangenen wurde oft das wort beton neben gesetzt </t>
+  </si>
+  <si>
+    <t>manche pokemon wurden  eher positiv und andere deutlich negativ dargestellt</t>
+  </si>
+  <si>
+    <t>Hutter_73</t>
+  </si>
+  <si>
+    <t>die verschiedenen wesen wurden in ein bestimmtes licht gerückt indem sie entweder mit neutralen bi, negativen oder positiven bildern und wörtern gepaart wurden.</t>
+  </si>
+  <si>
+    <t>wie gesagt, die valenz der wörter und bilder wurde durch  systematische paarung übertragen.</t>
+  </si>
+  <si>
+    <t>Hutter_74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bbbilder sind in bestimmten paaren aufgetreten, muster schien sich zu wiederholen</t>
+  </si>
+  <si>
+    <t>foehn und ventilator häufigaeufig zusammen</t>
+  </si>
+  <si>
+    <t>Hutter_75</t>
+  </si>
+  <si>
+    <t>die figuren waren immer mit namen gepaart</t>
+  </si>
+  <si>
+    <t>das poundfrillisch wurde oft mit negativen sachen gepaart</t>
+  </si>
+  <si>
+    <t>Hutter_76</t>
+  </si>
+  <si>
+    <t>die worte wurden an unterschiedlichen positionen des bildschirms angezeigt. ausserdem waren die kombinationen der paare unterschiedlich in bezug darauf obsie eher positiv zu bewerten waren oder negativ.</t>
+  </si>
+  <si>
+    <t>manche wortpaare schienen in allen vier durchgängen wiederholt angezeigt zu werden, waehrend andere bilder nur einmal vorkamen. der zielgegenstand war immer nur in der entsprechenden runde vorhanden.</t>
+  </si>
+  <si>
+    <t>Hutter_77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die bilder bestanden abwechselnd aus objekteaufnahmen und alltagsszenen. die wörter aoerter aus subjekten und verben. auch wechselte die postion der bilder und woerter, so dass man nicht immer nur starr auf deiddas zentrum des bildschirrms starrte. </t>
+  </si>
+  <si>
+    <t>es gab immer eine bilderpaar, dann ein wort bild paar und dann zwei woerter. dazwischen gab es vereinzelt einzelne wörter und einzelne bilder.</t>
+  </si>
+  <si>
+    <t>Hutter_78</t>
+  </si>
+  <si>
+    <t>poundfrillish ist ausschließlich mit negativen begriffen und bildern präsentiert worden und shelmet nur zusammen mit positiv konnotierten begriffen und bildern.</t>
+  </si>
+  <si>
+    <t>die zielfigur kam oft lange zeit nicht und dann mehrmals hintereinander in wort und oder bild. manche neutralen bilder und begriffe, wie der fön oder das  wort regenschirm wurden nicht mit figuren gepaart.</t>
+  </si>
+  <si>
+    <t>Hutter_79</t>
+  </si>
+  <si>
+    <t>primng, unangenheme woerter und bilder sindgemein gemeinsam erschienen mit den fantasy figuren</t>
+  </si>
+  <si>
+    <t>ja die bilder und worte wurden systematisch praesentiert in dem man sie nach ansprechlickeit aufgeteilt hat</t>
+  </si>
+  <si>
+    <t>Hutter_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lessdie bilder wurden anfangs laenger gezeigt, spaeter dann allerdings kuerzer eingeblendet. außerdem waren die worte und bilder, die eingeblendet wurden, immer die gleichen. </t>
+  </si>
+  <si>
+    <t>die bilder und lesswoerter wurden immer an einer anderen stelle eingeblendet, sodass man sich nicht darauf einstellen konnte, den gesuchtegesuchten begriff an der immergleichen stelle zu sehen</t>
+  </si>
+  <si>
+    <t>Hutter_80</t>
+  </si>
+  <si>
+    <t>die zeit die zwischen den praesentationen der verschiedenen bilder verging variierte.down</t>
+  </si>
+  <si>
+    <t>nein mir ist nichts systematisches aufgefallen.</t>
+  </si>
+  <si>
+    <t>Hutter_81</t>
+  </si>
+  <si>
+    <t>die bilder und wortkombinationen waren zunaechst nebeneinander angeordnet. wedie bilder und worte sind nicht so sehr auf die raender des bildschirms verteilt gewesen wie ich erwartet haette. wenn bild und bezeichnung gleichzeitig auftauchten, ging es schneller sie zu erkennen. nach einer weile sind die gleichen bilder und worte wiederholt gleichzeitig aufgetaucht.</t>
+  </si>
+  <si>
+    <t>die as bild mit dem foen auf der kiste in dem gekachelten zimmer ist oft mit dem gleichen bild zusammen aufgetaucht.</t>
+  </si>
+  <si>
+    <t>Hutter_82</t>
+  </si>
+  <si>
+    <t>sie waren nie in einer ganz extremen ecke des bildschirms</t>
+  </si>
+  <si>
+    <t>an den catroonfiguren standen immer namen untendran</t>
+  </si>
+  <si>
+    <t>Hutter_83</t>
+  </si>
+  <si>
+    <t>ich war überrascht, dass so viel vom bildschirm weiß blieb. außerdem ist mir aufgefallen dass immer, wenn eine cartoonfigur zu sehen war, auch ihr name zu sehen war. ich musste nie die leertaste drücken, wenn nicht der name zu sehen war, ob nun mit oder ohne bild. auch ist mir aufgefallen, dass nie die cartoonfiguren von vorherigen oder zukuenftigen aufgaben zgaben zu sehen waren.</t>
+  </si>
+  <si>
+    <t>wie gesagt, namen passten immer zu figuren. ansonsten konnte man die angezeigten elemente, soweit ich mich erinnern kann, in drei kategorien einteilen. wöroerter, bilder und cartoonfiguren.</t>
+  </si>
+  <si>
+    <t>Hutter_84</t>
+  </si>
+  <si>
+    <t>mit einigen der bilder bzw. wörter wurden eher positive begriffe oder bilder dargestellt, mit anderen eher negative, mit wieder anderen wieder neutrale.</t>
+  </si>
+  <si>
+    <t>wie in der vorherigen frage schon festgestellt, bestimmte arten von begriffen oder bildern kamen immer zusammen vor.</t>
+  </si>
+  <si>
+    <t>Hutter_85</t>
+  </si>
+  <si>
+    <t>oft warurde das bild und der name gleichzeitig präsentiert. einmal ist es vorgekommen, dass ein bilzielbild neben einem normalen bild gezeigt wurde, das normale dann geändert wurde, aber das zielbild noch da war  verwirrend.</t>
+  </si>
+  <si>
+    <t>wie bereits geschrieben, gab es meiner meinung nach immer eine korrelation von bild und text, die zusammen passen.</t>
+  </si>
+  <si>
+    <t>Hutter_86</t>
+  </si>
+  <si>
+    <t>die anzahl der angezeigten woerter, sowie die geschwindigkeit in welcher diese gezeigt wurden und die groesse der bilder waren unterschiedlich.</t>
+  </si>
+  <si>
+    <t>die cartoons, das jeweilige zielcartoon ausgenommen, wurden immer mit ihrem namen darunter angezeigt. die restlichen lessbilder oder woerter wurden einzeln, also ohne das passende wort oder bild angezeigt.</t>
+  </si>
+  <si>
+    <t>Hutter_87</t>
+  </si>
+  <si>
+    <t>einzelne wesen wurden eher mit positiveren füllbildern, andere eher mit negtativen bildern gepaart. einige bilder oder wortkombinationen sind auch häufig gemeinsam aufgetreten.</t>
+  </si>
+  <si>
+    <t>es gab eine reihenfolge, in der die bilder und wörter nacheinander auftauchten. bestimmte paare immer zusammen. häufig am anfang auch die zu beobachtende figur öfters oder ihr name mehrfach nacheinander.</t>
+  </si>
+  <si>
+    <t>Hutter_88</t>
+  </si>
+  <si>
+    <t>manchmal wurden das zielwort und das zielbild gleichzeitig auf dem bildschirm gezeigt. manchmal warenurden für das selbe pokemon einmal positive wörter gezeigt, manchmal negative.</t>
+  </si>
+  <si>
+    <t>ich hatte das gefühl, das manche s manche pokemon öfter mit demselben wort präsentiert wurden.</t>
+  </si>
+  <si>
+    <t>Hutter_89</t>
+  </si>
+  <si>
+    <t>blaue , erschrocken schauende figur ist eher mitzusammen mit negativen oder schockierenderen bildern erschienen</t>
+  </si>
+  <si>
+    <t>dias quadrat an der wand iwar oft im  zusammenhang mit dem leeren krug zu sehen, der krug war dabei immer links, das quadrat immer rechts</t>
+  </si>
+  <si>
+    <t>Hutter_9</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass biei einigen pokemon immer ein negatives adjektiv eingeblendet wurde. andere pokemon sind mit neutralen begriffen aufgetaucht</t>
+  </si>
+  <si>
+    <t>das graue pokemon mit negativen bildern oder adjektiven und das gelbe pokemon mit eher neutralen und das blaue pokemon mit groestenteils positiven adjektiven und bildern</t>
+  </si>
+  <si>
+    <t>Hutter_90</t>
+  </si>
+  <si>
+    <t>ja, manche bilder bzw. wesen wurden nur mit positiven bildern oder woertern praesentiert, andere nur mit negativen.</t>
+  </si>
+  <si>
+    <t>frisllish ist positiv dargestellt worden, shelmet netagiv.</t>
+  </si>
+  <si>
+    <t>Hutter_91</t>
+  </si>
+  <si>
+    <t>ddas zielwort bzw. zielbild kam gefühluehlt ziemlich oft aufeinanderfolgend und dann laengere zeit nicht mehr. ausserdem kam es zu beginn jeden durchgangs immer direkt zu beginn. bei den späteren durchgäaengen kamen zu den alltagsgegenstaenden leicht verstoerende sbilder und bilder die naehe ausdruecken hinzu.</t>
+  </si>
+  <si>
+    <t>die woerter und bilder sind oft in verschiedenen ecken de s bildschirms aufgetaucht. oft kam ein bild mit seinem name darunter vor, waehrend nebendran ein anderes wort stand.</t>
+  </si>
+  <si>
+    <t>Hutter_92</t>
+  </si>
+  <si>
+    <t>es gab bilder mit lessradioaktivität und tod, die mich gestört haben.</t>
+  </si>
+  <si>
+    <t>das wort brille wurde fast immer mit dem gleichen orangen bild zusammengezeig gezeigt.</t>
+  </si>
+  <si>
+    <t>Hutter_93</t>
+  </si>
+  <si>
+    <t>das pokemonartige tier, das einer muschel aehnelte, wurde stets mit negativen bildern oder woertern praesentiert</t>
+  </si>
+  <si>
+    <t>siehe vorheriges feld, das muschelpokemon wurde immer negativ praesentiert und andere eher neutral, beispielsweise das blaue</t>
+  </si>
+  <si>
+    <t>Hutter_94</t>
+  </si>
+  <si>
+    <t>bei frillish sind immer npositive begriffe aufgetaucht, neben shelmet negative, sowie unangenehmere bilder. es gab ein ganz klarar und voraussehbarer zusammenhang zwischen bestimmte bilder und bestimmte worte, sowie zwischen wort und bildpaare</t>
+  </si>
+  <si>
+    <t>das bierglas kam fast immer mit dem wort beton vor, danach kam das orangene viereck mit dem wort brille. zu bestimmte bilder von pokemons wurde versuch verschiedene gefuehle zu erzeugen</t>
+  </si>
+  <si>
+    <t>Hutter_96</t>
+  </si>
+  <si>
+    <t>manche wesen hatten immer positiv assoziierte worte neben sich stehen, andere hatten nur negative worte neben sich stehen.</t>
+  </si>
+  <si>
+    <t>wie sie gezeigt wurden nicht, aber eben die verknüpfung von manchen wesen nur mit positiven und manchen nur mit negativen begriffen</t>
+  </si>
+  <si>
+    <t>Hutter_97</t>
+  </si>
+  <si>
+    <t>neinpound mir ist nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>Hutter_98</t>
+  </si>
+  <si>
+    <t>manche woerter sind meistens in paaren aufgetreten und dann ploetzlich mit dem zielwort. andere sind mit bildern aufgetaucht, die zum nachdenken angeregt haben und somit fuer ablenkung gesorgt haben.</t>
+  </si>
+  <si>
+    <t>das gleiche wie bei der frage davor, machen woerter die meistens im gleichen paar aufgetreten sind, sind ploetzlich mit dem zielwort dagestanden und andere wurde mit bildern gezeigt, die zum nachdenken angeregt und somit abgekenkt haben.</t>
+  </si>
+  <si>
+    <t>Hutter_99</t>
+  </si>
+  <si>
+    <t>es gab figuren, die eher mit neutralen bildern und begriffen präsentiert wurden, welche mit negativen und andere mit positiven.</t>
+  </si>
+  <si>
+    <t>bild dd wort kontingenz</t>
   </si>
 </sst>
 </file>
@@ -10595,7 +11927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10621,6 +11953,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10896,10 +12234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1168"/>
+  <dimension ref="A1:H1316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1140" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1171" sqref="B1171"/>
+    <sheetView tabSelected="1" topLeftCell="A1284" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1318" sqref="B1318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -41281,6 +42619,3854 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1169" spans="1:8">
+      <c r="A1169" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>3506</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E1169" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1169" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1169" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8">
+      <c r="A1170" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>3509</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E1170" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1170" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1170" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8">
+      <c r="A1171" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E1171" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1171" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1171" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8">
+      <c r="A1172" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E1172" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1172" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>3517</v>
+      </c>
+      <c r="H1172" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8">
+      <c r="A1173" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E1173" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1173" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1173" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8">
+      <c r="A1174" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E1174" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1174" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1174" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8">
+      <c r="A1175" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E1175" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1175" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1175" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8">
+      <c r="A1176" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E1176" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1176" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1176" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8">
+      <c r="A1177" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E1177" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1177" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1177" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8">
+      <c r="A1178" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>3535</v>
+      </c>
+      <c r="E1178" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1178" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1178" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1178" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8">
+      <c r="A1179" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E1179" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1179" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1179" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8">
+      <c r="A1180" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E1180" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1180" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1180" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1180" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8">
+      <c r="A1181" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>3544</v>
+      </c>
+      <c r="E1181" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1181" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1181" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8">
+      <c r="A1182" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>3546</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E1182" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1182" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1182" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8">
+      <c r="A1183" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>3549</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E1183" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1183" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1183" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8">
+      <c r="A1184" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>3552</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E1184" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1184" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1184" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1184" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8">
+      <c r="A1185" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E1185" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1185" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1185" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8">
+      <c r="A1186" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E1186" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1186" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1186" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8">
+      <c r="A1187" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>3561</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>3562</v>
+      </c>
+      <c r="E1187" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1187" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1187" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8">
+      <c r="A1188" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>3564</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>3565</v>
+      </c>
+      <c r="E1188" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1188" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1188" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8">
+      <c r="A1189" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>3568</v>
+      </c>
+      <c r="E1189" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1189" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1189" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8">
+      <c r="A1190" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E1190" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1190" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1190" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8">
+      <c r="A1191" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>3574</v>
+      </c>
+      <c r="E1191" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1191" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1191" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8">
+      <c r="A1192" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>3577</v>
+      </c>
+      <c r="E1192" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1192" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1192" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8">
+      <c r="A1193" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>3580</v>
+      </c>
+      <c r="E1193" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1193" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1193" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8">
+      <c r="A1194" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>3583</v>
+      </c>
+      <c r="E1194" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1194" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1194" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8">
+      <c r="A1195" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>3585</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>3586</v>
+      </c>
+      <c r="E1195" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1195" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1195" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8">
+      <c r="A1196" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>3589</v>
+      </c>
+      <c r="E1196" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1196" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1196" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8">
+      <c r="A1197" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>3591</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E1197" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1197" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1197" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:8">
+      <c r="A1198" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>3594</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>3595</v>
+      </c>
+      <c r="E1198" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1198" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1198" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:8">
+      <c r="A1199" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>3597</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>3598</v>
+      </c>
+      <c r="E1199" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1199" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1199" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:8">
+      <c r="A1200" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>3600</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>3601</v>
+      </c>
+      <c r="E1200" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1200" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1200" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1200" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8">
+      <c r="A1201" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>3604</v>
+      </c>
+      <c r="E1201" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1201" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1201" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1201" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:8">
+      <c r="A1202" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>3607</v>
+      </c>
+      <c r="E1202" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1202" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1202" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1202" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:8">
+      <c r="A1203" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>3609</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>3610</v>
+      </c>
+      <c r="E1203" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1203" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1203" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:8">
+      <c r="A1204" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>3613</v>
+      </c>
+      <c r="E1204" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1204" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1204" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:8">
+      <c r="A1205" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>3616</v>
+      </c>
+      <c r="E1205" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1205" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1205" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:8">
+      <c r="A1206" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>3618</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>3619</v>
+      </c>
+      <c r="E1206" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1206" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1206" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8">
+      <c r="A1207" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>3621</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E1207" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1207" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1207" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:8">
+      <c r="A1208" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>3624</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>3625</v>
+      </c>
+      <c r="E1208" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1208" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1208" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8">
+      <c r="A1209" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>3627</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>3628</v>
+      </c>
+      <c r="E1209" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1209" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1209" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8">
+      <c r="A1210" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>3631</v>
+      </c>
+      <c r="E1210" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1210" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1210" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8">
+      <c r="A1211" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>3633</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E1211" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1211" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1211" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8">
+      <c r="A1212" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>3636</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E1212" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1212" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1212" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8">
+      <c r="A1213" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>3639</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E1213" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1213" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1213" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8">
+      <c r="A1214" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>3643</v>
+      </c>
+      <c r="E1214" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1214" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1214" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8">
+      <c r="A1215" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>3645</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>3646</v>
+      </c>
+      <c r="E1215" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1215" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1215" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8">
+      <c r="A1216" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E1216" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1216" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1216" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8">
+      <c r="A1217" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E1217" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1217" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1217" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8">
+      <c r="A1218" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E1218" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1218" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1218" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8">
+      <c r="A1219" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>3657</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>3658</v>
+      </c>
+      <c r="E1219" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1219" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1219" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8">
+      <c r="A1220" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>3660</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E1220" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1220" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1220" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8">
+      <c r="A1221" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>3663</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>3664</v>
+      </c>
+      <c r="E1221" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1221" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1221" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8">
+      <c r="A1222" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>3666</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>3667</v>
+      </c>
+      <c r="E1222" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1222" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1222" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8">
+      <c r="A1223" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>3670</v>
+      </c>
+      <c r="E1223" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1223" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1223" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8">
+      <c r="A1224" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>3673</v>
+      </c>
+      <c r="E1224" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1224" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1224" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1224" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8">
+      <c r="A1225" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>3676</v>
+      </c>
+      <c r="E1225" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1225" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1225" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8">
+      <c r="A1226" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>3679</v>
+      </c>
+      <c r="E1226" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1226" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1226" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1226" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8">
+      <c r="A1227" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>3682</v>
+      </c>
+      <c r="E1227" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1227" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1227" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8">
+      <c r="A1228" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>3685</v>
+      </c>
+      <c r="E1228" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1228" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1228" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8">
+      <c r="A1229" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E1229" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1229" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1229" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1229" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8">
+      <c r="A1230" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>3691</v>
+      </c>
+      <c r="E1230" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1230" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1230" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8">
+      <c r="A1231" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E1231" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1231" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1231" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8">
+      <c r="A1232" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E1232" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1232" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1232" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8">
+      <c r="A1233" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>3700</v>
+      </c>
+      <c r="E1233" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1233" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1233" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8">
+      <c r="A1234" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>3703</v>
+      </c>
+      <c r="E1234" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1234" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1234" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8">
+      <c r="A1235" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>3705</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>3706</v>
+      </c>
+      <c r="E1235" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1235" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1235" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8">
+      <c r="A1236" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>3708</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>3709</v>
+      </c>
+      <c r="E1236" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1236" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1236" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8">
+      <c r="A1237" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E1237" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1237" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1237" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8">
+      <c r="A1238" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>3715</v>
+      </c>
+      <c r="E1238" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1238" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1238" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8">
+      <c r="A1239" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>3718</v>
+      </c>
+      <c r="E1239" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1239" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1239" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8">
+      <c r="A1240" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>3721</v>
+      </c>
+      <c r="E1240" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1240" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1240" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8">
+      <c r="A1241" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E1241" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1241" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1241" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8">
+      <c r="A1242" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>3727</v>
+      </c>
+      <c r="E1242" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1242" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1242" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8">
+      <c r="A1243" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>3729</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E1243" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1243" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1243" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8">
+      <c r="A1244" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>3733</v>
+      </c>
+      <c r="E1244" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1244" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1244" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8">
+      <c r="A1245" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>3735</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E1245" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1245" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1245" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8">
+      <c r="A1246" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>3739</v>
+      </c>
+      <c r="E1246" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1246" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1246" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8">
+      <c r="A1247" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>3741</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>3742</v>
+      </c>
+      <c r="E1247" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1247" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1247" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8">
+      <c r="A1248" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>3745</v>
+      </c>
+      <c r="E1248" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1248" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1248" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8">
+      <c r="A1249" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E1249" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1249" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1249" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8">
+      <c r="A1250" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E1250" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1250" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1250" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8">
+      <c r="A1251" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>3753</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>3754</v>
+      </c>
+      <c r="E1251" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1251" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1251" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8">
+      <c r="A1252" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>3757</v>
+      </c>
+      <c r="E1252" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1252" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1252" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8">
+      <c r="A1253" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>3759</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E1253" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1253" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1253" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8">
+      <c r="A1254" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E1254" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1254" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1254" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8">
+      <c r="A1255" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>3765</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>3766</v>
+      </c>
+      <c r="E1255" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1255" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1255" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8">
+      <c r="A1256" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>3768</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>3769</v>
+      </c>
+      <c r="E1256" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1256" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1256" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8">
+      <c r="A1257" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>3772</v>
+      </c>
+      <c r="E1257" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1257" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1257" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8">
+      <c r="A1258" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>3774</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>3775</v>
+      </c>
+      <c r="E1258" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1258" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1258" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8">
+      <c r="A1259" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>3777</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E1259" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1259" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1259" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8">
+      <c r="A1260" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>3780</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>3781</v>
+      </c>
+      <c r="E1260" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1260" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1260" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8">
+      <c r="A1261" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>3783</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>3784</v>
+      </c>
+      <c r="E1261" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1261" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1261" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8">
+      <c r="A1262" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>3786</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>3787</v>
+      </c>
+      <c r="E1262" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1262" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1262" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8">
+      <c r="A1263" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>3790</v>
+      </c>
+      <c r="E1263" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1263" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1263" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8">
+      <c r="A1264" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>3793</v>
+      </c>
+      <c r="E1264" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1264" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1264" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8">
+      <c r="A1265" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>3795</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>3796</v>
+      </c>
+      <c r="E1265" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1265" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1265" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8">
+      <c r="A1266" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>3798</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>3799</v>
+      </c>
+      <c r="E1266" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1266" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1266" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8">
+      <c r="A1267" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E1267" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1267" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1267" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8">
+      <c r="A1268" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>3805</v>
+      </c>
+      <c r="E1268" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1268" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1268" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8">
+      <c r="A1269" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E1269" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1269" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1269" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8">
+      <c r="A1270" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>3811</v>
+      </c>
+      <c r="E1270" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1270" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1270" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8">
+      <c r="A1271" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>3813</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>3814</v>
+      </c>
+      <c r="E1271" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1271" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1271" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8">
+      <c r="A1272" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>3816</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E1272" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1272" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1272" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8">
+      <c r="A1273" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E1273" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1273" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1273" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8">
+      <c r="A1274" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>3823</v>
+      </c>
+      <c r="E1274" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1274" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1274" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8">
+      <c r="A1275" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>3825</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E1275" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1275" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1275" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8">
+      <c r="A1276" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>3828</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E1276" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1276" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1276" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8">
+      <c r="A1277" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>3831</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E1277" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1277" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1277" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8">
+      <c r="A1278" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E1278" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1278" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1278" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8">
+      <c r="A1279" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E1279" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1279" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1279" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8">
+      <c r="A1280" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E1280" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1280" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1280" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8">
+      <c r="A1281" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E1281" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1281" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1281" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8">
+      <c r="A1282" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E1282" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1282" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1282" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8">
+      <c r="A1283" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E1283" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1283" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1283" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8">
+      <c r="A1284" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>3853</v>
+      </c>
+      <c r="E1284" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1284" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1284" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8">
+      <c r="A1285" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>3856</v>
+      </c>
+      <c r="E1285" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1285" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1285" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8">
+      <c r="A1286" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E1286" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1286" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1286" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8">
+      <c r="A1287" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E1287" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1287" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1287" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8">
+      <c r="A1288" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>3864</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>3865</v>
+      </c>
+      <c r="E1288" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1288" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1288" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8">
+      <c r="A1289" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E1289" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1289" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1289" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8">
+      <c r="A1290" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>3870</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>3871</v>
+      </c>
+      <c r="E1290" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1290" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1290" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8">
+      <c r="A1291" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>3873</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>3874</v>
+      </c>
+      <c r="E1291" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1291" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1291" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8">
+      <c r="A1292" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E1292" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1292" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1292" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8">
+      <c r="A1293" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E1293" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1293" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1293" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8">
+      <c r="A1294" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E1294" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1294" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1294" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8">
+      <c r="A1295" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>3885</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>3886</v>
+      </c>
+      <c r="E1295" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1295" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1295" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8">
+      <c r="A1296" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>3888</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E1296" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1296" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1296" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8">
+      <c r="A1297" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>3892</v>
+      </c>
+      <c r="E1297" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1297" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1297" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8">
+      <c r="A1298" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E1298" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1298" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1298" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8">
+      <c r="A1299" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>3898</v>
+      </c>
+      <c r="E1299" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1299" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1299" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8">
+      <c r="A1300" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>3900</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>3901</v>
+      </c>
+      <c r="E1300" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1300" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1300" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8">
+      <c r="A1301" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>3904</v>
+      </c>
+      <c r="E1301" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1301" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1301" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8">
+      <c r="A1302" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>3906</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E1302" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1302" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1302" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8">
+      <c r="A1303" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>3910</v>
+      </c>
+      <c r="E1303" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1303" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1303" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8">
+      <c r="A1304" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>3912</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>3913</v>
+      </c>
+      <c r="E1304" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1304" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1304" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8">
+      <c r="A1305" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E1305" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1305" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1305" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8">
+      <c r="A1306" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>3918</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>3919</v>
+      </c>
+      <c r="E1306" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1306" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1306" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8">
+      <c r="A1307" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>3921</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>3922</v>
+      </c>
+      <c r="E1307" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1307" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1307" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8">
+      <c r="A1308" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>3925</v>
+      </c>
+      <c r="E1308" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1308" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1308" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8">
+      <c r="A1309" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E1309" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1309" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1309" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8">
+      <c r="A1310" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>3930</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>3931</v>
+      </c>
+      <c r="E1310" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1310" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1310" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8">
+      <c r="A1311" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>3933</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>3934</v>
+      </c>
+      <c r="E1311" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1311" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1311" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8">
+      <c r="A1312" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>3936</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>3937</v>
+      </c>
+      <c r="E1312" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1312" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1312" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8">
+      <c r="A1313" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>3939</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E1313" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1313" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1313" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8">
+      <c r="A1314" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>3942</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E1314" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1314" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1314" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8">
+      <c r="A1315" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>3944</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>3945</v>
+      </c>
+      <c r="E1315" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1315" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1315" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8">
+      <c r="A1316" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E1316" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1316" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1316" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/after coding/data_awareness_for_hand_scoring_all.xlsx
+++ b/data/after coding/data_awareness_for_hand_scoring_all.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7911" uniqueCount="3949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9047" uniqueCount="4373">
   <si>
     <t>unique_id</t>
   </si>
@@ -11866,13 +11866,1288 @@
   </si>
   <si>
     <t>bild dd wort kontingenz</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_10</t>
+  </si>
+  <si>
+    <t>häufiges wiedeerholen der worte brille u, buch und regenschirm. die meisten gezeigten fotos waren negativ belastet.</t>
+  </si>
+  <si>
+    <t>wörter wurden häufiger alleine angezeigt als bilder. einige bilder wie der fön oder der bierkrug kamen häufiger vor, andere dagegen lediglich einmalig.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manchmal sind wörter an den selben stellen aufgetreten. es gab auch lange pausen zwischendurch. </t>
+  </si>
+  <si>
+    <t>unangenehme wesen wurden mit unangenehmen wörtern verbunden. schönere mit schöneren. und neutrale fotos mit neutralen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_101</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass die bilder und wörter keinen zusammenhang haben.</t>
+  </si>
+  <si>
+    <t>nenein, irgendetwas systematisches ist mir tatsächlich leider nicht aufgefallen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_102</t>
+  </si>
+  <si>
+    <t>frillish wurde regelmäßig in verbindung mit negativ assoziierten bildern angezeigt. scatterbug wurde häufig zusammen mit dem bild computer angezeigt. hgolett wurde häufig mit bildern gezeigtoder wöertern gezeigt die positive assoziationen wecken. die letzten beiden wesen erschienen sowohl bildlich als auch wärtliuch direkt am anfang schnell und hÄufig hintereinander.</t>
+  </si>
+  <si>
+    <t>dscatterbug erschien regelmÄÄssig mit dem wort computer. frillish hÄufig mit negativen worten und bildern. golett hÄufig mit positiven worten und bildern</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golett wurde 98in der regel in zusammenhang mit negativen begriffen gezeigt. viele wörter fingen mit b an 8. beton, buch, bleistift.v viele fotos wurden wiederkehrend gezeigt , ventilator, fön etc, andere tauchten nur einmal auf.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">siehe erste antwort. golett in zusammenhang mit negativen begriffen, frillish eher mit positiv konnotierten. wörter wurden über den ganzen bildschirm verteilt gezeigt, bilder mehr im zentrum und nur vereinzelt am rand. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es waren adjektivee  </t>
+  </si>
+  <si>
+    <t>leider nist mir nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_106</t>
+  </si>
+  <si>
+    <t>die bilder hatten oft etwas mit der natur oder müll zu tun. ausserdem waren längemanchmal längere pausen zwischen den bildern.</t>
+  </si>
+  <si>
+    <t>der orangene würfel war meistens rechts in der mitte genauso wie ddie müllsäcke.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_107</t>
+  </si>
+  <si>
+    <t>das erste mal ist das wesen und sein name immer zusammen aufgetaucht</t>
+  </si>
+  <si>
+    <t>das wort brille ist oft mit dem wabenbild erschienen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja1, fdie der fÖhn und der kleine ventilator kamen oft zusammen vor, das heißt stromgeräte, die kälte oder wärme hergeben </t>
+  </si>
+  <si>
+    <t>jfdie figur goulet kam oft mit schönem, süßem und positiv konnotierten begriffen vor, während frilisch mit negativen wörtern wie unerwünscht und abwertenden bildern vor kam. bleistift und buch kamen ebefalls oft im zusammenhang dran</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die bilder und wörter wurden von verschiedenen perspektiven eingeblendet. bgegenstände und bilder waren häufig immer dieselben 8föhn, glas etc9.99 </t>
+  </si>
+  <si>
+    <t>bei bestimmten bildern scheint mir waren die  entsprechenden wörter eindeutig immer negativ oder positiv geprägt.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_11</t>
+  </si>
+  <si>
+    <t>die cartoon? bilder waren immer mit den dazugehörigen namen versehen. die gegenstandsbilder, zb der föhn, waren häufiger angezeigt als die landschaftsbilder.</t>
+  </si>
+  <si>
+    <t>die landschaftsbilder waren eher in kombination mit den gesuchten  cartoons angezeigt als die anderen bilder.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_110</t>
+  </si>
+  <si>
+    <t>manche pokemon wurden immer mit positven bilder oder wörtern gezeigt und ein pokemon wurde nur mit negativen bildern oder wörtern gezeigt</t>
+  </si>
+  <si>
+    <t>frillish immer mit positiven bildenr und wörtern und golett immer mit negativen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_111</t>
+  </si>
+  <si>
+    <t>neben den bildern und namen erschienen häufig auch adjektive, die gefühle beschreiben. außerdem passten die alltagsgegenstände nicht wirklich rein. und es gab unterschiedliche lange pausen zwischen den bildabfolgen.</t>
+  </si>
+  <si>
+    <t>häufig kam es mir vor, dass der name und das passende bild zusammenerschienen. im übrigen habe ich kein system erkannt.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_112</t>
+  </si>
+  <si>
+    <t>man hat versucht, insbes. 2ggolegolet 8phon. negative eigenschaften zuzuordnen. das beeindruckt mich natÃœrlich wenig. dem blauben geisterfadenvieh andersrum wurden versucht positive emotionen zuzuordnen.</t>
+  </si>
+  <si>
+    <t>das, was ich eben schrieb. negative emotionen sollten, so kam es mir zumindest vor, durch schneller bildfolge schneller getriggert werden. ich bin jurist, ich hoffe die daten zeigen, dass das nicht klappt  sonst Ãœberlege ich mir das nochmal ...</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_113</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nein, nichts besonderes ist mir aufgefallen. sie schienen willkürlich.</t>
+  </si>
+  <si>
+    <t>nein, das ist mir nicht aufgefallen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigentlich nicht, es gab viele 2randombilder, die kaum zusammenhang ergaben wie zb beton </t>
+  </si>
+  <si>
+    <t>ich denke nicht es kam mir alles durcheinander aus dem verteiler hervor</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die wörter und bilder wwurden immer an unterschiedlichen stellen auf dem bildschirm angezeigt. sie erschienen sehr zusammenhangslos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bestimmte wörter und bilder schienen immer wieder als 2paar aufzutauchen. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_116</t>
+  </si>
+  <si>
+    <t>ich fand nicht as auußergewöhliches</t>
+  </si>
+  <si>
+    <t>am anfang an war bischen langsamer und dann schnelle geworden</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_117</t>
+  </si>
+  <si>
+    <t>ffrillish wurde mit negativen wörtern präsentiert, gollett mit positiven</t>
+  </si>
+  <si>
+    <t>golett und frillish systematisch, der rest eher belienig und mit neutraler aussage</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_118</t>
+  </si>
+  <si>
+    <t>eigentlich nicht, beim zweiten teil habe ich einmal ausversehen getipp. das ist nur passiert, weil ich mich gemütlich hingesetzt habe</t>
+  </si>
+  <si>
+    <t>nein, aber darauf habe ich auch nciht geachtet</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_12</t>
+  </si>
+  <si>
+    <t>nein, mir ist nichts aussergewoenliches augfegallen</t>
+  </si>
+  <si>
+    <t>nein, ich habe gedacht, es waere  vom system zufaellig entscheidet</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_120</t>
+  </si>
+  <si>
+    <t>einige pokemon wurden eher mit negativen begriffen und bildern inn verbindung gebracht.</t>
+  </si>
+  <si>
+    <t>einige pokemonn z.b. dieser geist wurden mit bildern wie grabsteinen und negativen begriffen rightin verbindung gebracht. a</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_121</t>
+  </si>
+  <si>
+    <t>mir ist nichts außergewöhnliches aufgefallen.</t>
+  </si>
+  <si>
+    <t>es wurden manchmal komplementäre begriffe oder bilder zusammen gezeigt und manchmal wurden diese zufällig miteinander ausgewählt.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es waren meistens gegenstände oder ander pe pokemon </t>
+  </si>
+  <si>
+    <t>nicht wirklich außer dass manche wörter häufiger mit dem selben buchstaben wie das gesuchte tier begonnen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_123</t>
+  </si>
+  <si>
+    <t>ich habe auf nichts der gleichen geachtet, sondern nur auf die aufgabe.</t>
+  </si>
+  <si>
+    <t>bildnomen wurden häufig mit bildern versehen oder standen alleine. adjektive wurden scheinbar immer mit bildern versehen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_124</t>
+  </si>
+  <si>
+    <t>bilder stehen im zusammenhang mit wortern</t>
+  </si>
+  <si>
+    <t>nichts systematisches</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_125</t>
+  </si>
+  <si>
+    <t>manche gezeigteen elemente wurden immer mit einem positiven wort versehen, andere stets mit einem negativen.</t>
+  </si>
+  <si>
+    <t>manche bilder wurden stets mit positiven begriffen, andere stets mit negativen versehen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die anordnung ob etwas eher links oder rechts erschien wechselte. </t>
+  </si>
+  <si>
+    <t>die bilder der figuren waren fast ni ohne bildunterschrift.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_127</t>
+  </si>
+  <si>
+    <t>es war leichterhter fÃœr mich, das gesuchte wort bzw. bild zu erkennen, wenn es mit jeweils einem anderen bild bzw. wort gezeigt wurde</t>
+  </si>
+  <si>
+    <t>es wurden hÄufig begriffspaare und bilderpaare gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_128</t>
+  </si>
+  <si>
+    <t>die bild? wort kombinationen wurden meist in der mmitte des bildschirmes angezeigt</t>
+  </si>
+  <si>
+    <t>die bilder der zu überwachenden figuren wurden fast nur mittig angezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pokemon sind keine cartoon wesen. , sondern stammen aus animes. abgesehen davon gehe ich davon aus, dass die studie zeigen sollte, inwieweit etwas positiv oder negativ konniert durch die bilder und begriffe sein kann.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">golbit wurde eher mit positiven begriffen gezeigt und quabbel eher mit negativen begriffen. außerdem wurden nur poekmon der neueren generationen gewählt. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_13</t>
+  </si>
+  <si>
+    <t>in den ersten experiment habe ich bemerkt, dass veinigen bildern esehr depressiv und traurig waren und die andern  cartoonswesen. deswegen ist eine grosse impakt zwischen die beiden .</t>
+  </si>
+  <si>
+    <t>ich habe keine systematisch gefunden, weil alle worter und bilder zufaellig dargestellt wurden.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">das bild und das wort immer einmal suzammen waren, sie waren immer recht mittel oder links oben, die bilden wie phon oder die worter wie computer kammen immer  </t>
+  </si>
+  <si>
+    <t>zu ert kamm das wort danach wort und bilder danach wieder wort</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein. es gab wertende worte, die mir aufgefallen sind, was die anordnung angeht jedoch nicht.  </t>
+  </si>
+  <si>
+    <t>die groß und kleinschreibung wurde variiert. und die anordnung der worte.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_132</t>
+  </si>
+  <si>
+    <t>es schien so, als ob das auslösende bild7 bzw. wort immer an ähnlichen stellen vorkam, außerdem waren bestimmte begriffe besonders häufig mit bestimmten bildern gepaart. andere bilder hingegen wurden nicht oder nicht häufig mit wörter gezeigt, sondern eher mit anderen bildern.</t>
+  </si>
+  <si>
+    <t>das glas wurde mitoft mit dem begriff beton gezeigt. der haartrockner wurde oft mit dem ventilator gezeigt.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_133</t>
+  </si>
+  <si>
+    <t>ja, und zwar dass manche von den wörtern negative ausprägungen haben 8bspw. unsympatisch bzw. nutzlos, wobei die anderen eher alltägliche gegenstände waren</t>
+  </si>
+  <si>
+    <t>ja ich glaube es gibt einen zusammenhang zwischen dem bild und charakter und das wort was nebenbei bzw danach erscheint</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_134</t>
+  </si>
+  <si>
+    <t>die bilder und buchstaben wurden häufig in sehr ähnlichen zusammenhängen gezeigtt</t>
+  </si>
+  <si>
+    <t>besstimmte bilder und wörter sind häufig in gleicher kombination gezeigt worden</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zu den bildern wurden adjektive7 bzw. nomen eingesetzt, die die bildern positiv bzw. negativ machen. manchmal standen die bilder und wörter an verschiedenen stellen. </t>
+  </si>
+  <si>
+    <t>darauf habe ich nicht geachtet.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_136</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass die wörter auch allein erschienen sind, die bilder allerdings nur in verbindung mit dem wort.</t>
+  </si>
+  <si>
+    <t>das orangene teil wurd ie oft in verbindung mit dem woort brille gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_137</t>
+  </si>
+  <si>
+    <t>die einzelnen bilder waren meist in paaren anzufinden. ein eins der wesen war immer mit positiven, eins immer mit negativen begriffen kombiniert, ventilator und fön gehörten zusammen etc.</t>
+  </si>
+  <si>
+    <t>einige der wörter schienen immer einem bestimmten der cartoon wesen zugeordnet , manche worte scheinen paare gebildet zu haben, da bin ich mir aber eher unsicher</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_138</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass das bild des blauen wesens häufig mit unangenehmen worten oder bildern kombiniert wurde. ansonsten ist mir nichts außergewöhnliches aufgefallen.</t>
+  </si>
+  <si>
+    <t>das telefobild des telefons und des glases kamen häufig zusammen mit dem wort beton vor</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_139</t>
+  </si>
+  <si>
+    <t>zunächst wirkten die bilder und begriffe schlicht willkürlich gewählt und kombiniert. den figuren waren jedoch oft adjektive mit bestimmten eigenschaften zugeordnet</t>
+  </si>
+  <si>
+    <t>ich denke, dass ein system hinter den zuordnungen der adjektive und figuren gab. die begriffe buch, regenschirm etc. und viele der bilder waren jedoch unsystematisch</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_14</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen,  dass sehr unterschiedliche 8miteinander nicht zusammenhängende fbilder nacheinander präsentiert worden sind. was mir vor allem in erinnerung geblieben ist, ist der mann der über einer toilettenschüssel stand. ich fand das bild nicht schön anzusehen.</t>
+  </si>
+  <si>
+    <t>nmir ist leider nichts besonderes aufgefallen an der überwachungsaufgabe</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nein es ist mir nichts aufgefallen</t>
+  </si>
+  <si>
+    <t>bilder alleine kamen nie dran, wörter aber schon</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die meisten bilder haben sich stark von den r cartoon figur abgegrenzt. die wörter waren substantive, gegenstände, und emotionen. </t>
+  </si>
+  <si>
+    <t>die wörter erschienen in unterschiedlichen positionen auf dem bildschirm. einige substantive erschienen dicht nebeneinander, das erforderte mehr konzentration, um diese zu unterscheiden.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_142</t>
+  </si>
+  <si>
+    <t>teilweise wurden dunangenehme bilder und wörter gezeigt, um eine ablehnende haltung beim betrachter hervorzurufen. allerdings habe ich nicht genau darauf geachtet sondern mich nur darauf konzentriert, die leertaste zu den jeweiligen momenten zu drücken, da ich davon ausging, dass es sich um eine reaktionsstudie handelt.</t>
+  </si>
+  <si>
+    <t>nein, ich empfand alle bilder und wörter als eher abstoßend.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_143</t>
+  </si>
+  <si>
+    <t>jja, die bilder waren  fast alle gleich und am anfang kam immer das füllbild</t>
+  </si>
+  <si>
+    <t>ja nämlich die reihenfolge der   bilder war gleich, zum teil.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_144</t>
+  </si>
+  <si>
+    <t>es wurde nicht außergewöhnliches aufgefallen</t>
+  </si>
+  <si>
+    <t>nichts systematisch aufgefallen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_145</t>
+  </si>
+  <si>
+    <t>adjektive wurden bildern zugeordnet</t>
+  </si>
+  <si>
+    <t>bilder wurden mit adjektiven verbunden</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_146</t>
+  </si>
+  <si>
+    <t>golem wurde negativ konotiert, während dieses geistwesen positiv konotiert wurde. ansonsten ist mir nicht spezielles aufgefallen.</t>
+  </si>
+  <si>
+    <t>bilder wurden teilweise mittig, teilweise an den rändern gezeigt. wobei bilder häufig in der mitte gezeigt wurden. insbesondere, wenn mehrere bilder zusammen aufgetaucht sind.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein eigentlich nicht, das einzige was mir aufgefasllen ist war, dass die verschiedenen wörter und bilder an verschiedenen positionen des bildschirmes waren und dies möglicherweise einen einfluss auf die aufmerksakeit hat1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zu beginn wurden die nahmen un die dazugehörgigen figuren untereinader angezeigt, nach ungefähr der hälfte der zeit wurden die nahme und symbole jeweils einzend angezeigt </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_15</t>
+  </si>
+  <si>
+    <t>nein mir ist nichts außergewönhnliches aufgefallen</t>
+  </si>
+  <si>
+    <t>mir ist nichts spezifisches aufgefallen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_152</t>
+  </si>
+  <si>
+    <t>wörter tauchten an der oft auf der gleichen stelle auf, genauso wie einyelne bilder.</t>
+  </si>
+  <si>
+    <t>ja, besonders am anfang. wörter wie regenschirm, bleistift und buch aber auch z.b. das ie bilder auf denen eine tasse oder ein haartrokner war.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_16</t>
+  </si>
+  <si>
+    <t>mmir ist aufgefallen, dass viele begriffe mit dem bild welches gleichzeitig gezeigt wurde nicht zusammen gepasst haben. meistens kamen wörter mit dem anfangsbuchstaben b vor</t>
+  </si>
+  <si>
+    <t>nein mir ist nichts systematisches aufgefallen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> neeeinige wesen wurden im zusammenhang mit unangenehmen bbildern gezeigt</t>
+  </si>
+  <si>
+    <t>in der regel ein gewisser absstand zwischen denselben wesen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_184</t>
+  </si>
+  <si>
+    <t>manche bilder wurden oefters wiederholt und manche bilder wurden nur einmal gezeigt</t>
+  </si>
+  <si>
+    <t>wenn das zielobjekt gezeigt wurde wurde es oft oefter hintereinander gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_185</t>
+  </si>
+  <si>
+    <t>ein Übermaß an fotos, teils einfach auswahle auswahl teils längere pausen.</t>
+  </si>
+  <si>
+    <t>nie wurden zwei figuren gleichzeitig gezeigt. wörter und fotos hingegen schon.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_19</t>
+  </si>
+  <si>
+    <t>es wurde versucht mit den wörtern einfluss auf mag ich oder mag ich nicht zu nehmen</t>
+  </si>
+  <si>
+    <t>die nicht figuren kamen regelmässig gemäß algorythmus</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manche namen wurden leicht geändert? </t>
+  </si>
+  <si>
+    <t>3 bilder wurden öfter presentiert</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_2</t>
+  </si>
+  <si>
+    <t>es wurden bilder gezeigt die evt starke reaktionen auslösen und neutrale bilder wie ein krug o.der Ähnliches</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist nichts aufgefallen, außer dass ich glaube, dass die zeitlichen intervalle des wechsels der bilder unterschiedlich waren. </t>
+  </si>
+  <si>
+    <t>nein, das ist mir nicht aufgefallen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_21</t>
+  </si>
+  <si>
+    <t>es waren immer die selben paar komischen, . ventilator, komisches ding mit löchern und einige traurige bilder.</t>
+  </si>
+  <si>
+    <t>es war oft ein wort mit einem bild oder 2 bilder727 oder 2 worte</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist nichts außergewöhnliches aufgefallen. höchstens, dass ich nicht auf die schriebweise achten konnte und wahrschienlich auch gedrückt habe, wenn die wörter ähnlich geschrieben waren.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit ist nichts systematisches aufgefallen. möglicherweise, sollte die reaktion in folge von extremen wörtern, anders ausfallen. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es wurden meistens die selben bilder und wörterpaare gezeigt. </t>
+  </si>
+  <si>
+    <t>nnein, mir ist eigentlich nichts systematisches aufgefallen. außer dass es oft eben die selben wörterpaare oder bildpaare waren.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_23</t>
+  </si>
+  <si>
+    <t>am anfang waren die bilder realle bilder recht schlicht, mit der zeit kamen mehr und komlexere bilder hinzu</t>
+  </si>
+  <si>
+    <t>zu manchen wesen wurden immer negativ konnotierte dinge eingeblendet, z b ein abfluss oder ein sich übergebender mann</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_24</t>
+  </si>
+  <si>
+    <t>mir ist nur aufgefallen, dass ich die pokemon nicht kenne, und dass dieses niedliche blaue mit solchen worten wwie leicht gezeigt wurde...also die genauen worte fallen mir aber grade nicht mehr ein</t>
+  </si>
+  <si>
+    <t>ja das niedliche blaue hatte so leichte worte</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_25</t>
+  </si>
+  <si>
+    <t>die bilder und wörter sind sehr langsam erschienen</t>
+  </si>
+  <si>
+    <t>eigentlich nicht.. viele bilder mit wörtern die keinen zusammenhang hatten</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_26</t>
+  </si>
+  <si>
+    <t>leider ist mir außer der falschen owrt und bild kombination nichts außergwöhnliches aufgefallen</t>
+  </si>
+  <si>
+    <t>leider ist mir nichts sytematisches aufgefallen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_27</t>
+  </si>
+  <si>
+    <t>die wörter und bilder sind während des ersten teils immer wieder in zeitlich längeren oder kürzeren abständen wiederholt worden. zudem wurden die gefragten objekte öfters hinteinander angezeigt.</t>
+  </si>
+  <si>
+    <t>die bilder wurden in  immerwiederkehrenden llangen und kurzen abständen wiederholt. zudem änderte sich die häufigkeit des erscheinens nach einander.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_28</t>
+  </si>
+  <si>
+    <t>verschiedene textarten, oft gleiche anfangsbuchstaben, adjektive zwischendrin, pausenlänge verschieden</t>
+  </si>
+  <si>
+    <t>oft gleiche nomen, oft gleiche anfangsbuchtsaben, bis auf adjektive gleiche auswahl von objekten</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_3</t>
+  </si>
+  <si>
+    <t>bei einzelnen charakteren wurden positiv bzw. negativ konnotierte wörter und bilder zeitgleich abgebildet und wörter immer wieder wiederholt dargestellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">einerseits um die meinungsbildung über die charaktere zu beeinflussen </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> die wörter waren stets großgeschriebenn. right</t>
+  </si>
+  <si>
+    <t>es gab einzelne bildper und bildpaare, die regelmäßig und teils zusammen bzw. hintereinander aufgetaucht sind</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_31</t>
+  </si>
+  <si>
+    <t>es gab pokemon, die entweder nur  mit guten oder nur mit schlechten wörtern7 bzw. bildern dargestellt wurden.</t>
+  </si>
+  <si>
+    <t>siehe zuvorgegebene antwort 8-.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_32</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass die bilder und wörter ziemlich abwechseln aufgetaucht sind.</t>
+  </si>
+  <si>
+    <t>die wörter wurden immer an unterschiedlichen stellen gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_33</t>
+  </si>
+  <si>
+    <t>oftmals wurden die gleichen bilder gezeigt. die bilder waren häufig emotional sehr unrelevant, jedoch wurden manchmal emotionsvolle bilder eingeblendet. zudem gab es einige sehr wenige male kleine 2tricks, die zum falschtippen bzw. nicht tippen verleiten sollten. 8zzudem waren die wörter häufig sehr unrelevant, wie z.b beton, jedoch wurden zu einigen bildern auch immer wieder positive worte wie wünschenswert, lobenswert usw. eingeblendet.</t>
+  </si>
+  <si>
+    <t>ja, zum teil gab es nahezu gleiche abläufe, wann ein bild ders zielobjekts eingeblendet wurde. doch sehr selten. einige bilder wurden mit positiven begriffen eingeblendet.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_34</t>
+  </si>
+  <si>
+    <t>zuerst ist mir nichts aufgebesonderes aufgefallen, wenn ich aber jetzt darüber nachdenke, fällt mir gerade ein, dass es immer eine kleine pause gab, wo der schirm komplett weiß war. zudem, waren die wörter nicht immer auim selben punkt und ich fand es schwieriger, wenn sie nebeneinander auf der gleichen reihe geschrieben wurden.</t>
+  </si>
+  <si>
+    <t>wie schon in der letzen frage geschrieben habe, waren die wörter nebeneinander schwieriger zu erkennen als die anderen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_35</t>
+  </si>
+  <si>
+    <t>die bilder waren immer zusammen mit den wörtern auf der selben rctrlseite</t>
+  </si>
+  <si>
+    <t>mir ist nichts systematisches aufgefallen eigentlich</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist nichts aufgefallen, höchstens, dass die auswahl der wörter zufällig wirkte. bei den bildern gab es seheher neutralere bilder, später wurden sie etwas bedeutsamer, oder auch ekliger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist nichts systematisches aufgefallen, außer, dass die wörte bleistift und buch oft zusammen kamen. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in der dritte teile der Ãœberwachungsaufgabe waren auch 2menschen dabei und nicht nur sache</t>
+  </si>
+  <si>
+    <t>eine haartrockner war fast immer mit ein ventilator zusammen so wie bleistift und computer</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_39</t>
+  </si>
+  <si>
+    <t>wörter wie brille und buch tauchten immer nur als wörter, aber nie als bilder auf</t>
+  </si>
+  <si>
+    <t>frillish wurde immer mit einem positiven und golett immer mit einem negativen wort bzw bild gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_4</t>
+  </si>
+  <si>
+    <t>einige bilder wurden häufi als paar dargestellt .</t>
+  </si>
+  <si>
+    <t>bilder wurden häufig als paar dargestellt und bestimmte charaktere mit adjektiven beschrieben.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teilweise wurden unter  die bilder der wesen die e, vermutlich, korrekten namen und teilweise die, der zielwesen eingeblendet. desweiteren tauchten häufig adjektive mit extrem positiven oder negativen assoziationen auf. zudem fiel mir auf, dass nach längeren pausen, in denen der bildschirm weiß blieb, erst einige male wörter, dann bilder oder bild und wortkombinationen aufflammten. </t>
+  </si>
+  <si>
+    <t>teilweise wurde das shchon in der frage davor beantwortet. mir fiel auf, dass zum einen die bilder und wörter grötenteils gleich blieben. ich meine es gab teilweise unterschiede in der wahl der adjektive.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_41</t>
+  </si>
+  <si>
+    <t>postionen der bilder und wörter haben sich des Öfteren verändert und wurden auf unterschiedlichen positionen im bild angezeigt</t>
+  </si>
+  <si>
+    <t>manchmal wurden viele wörter hintereinander gezeigt und manchmal wurden hauptsächlich bilder gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_42</t>
+  </si>
+  <si>
+    <t>es waren sehr oft die gleichen bilder und wörter.</t>
+  </si>
+  <si>
+    <t>manchmal waren die bilder an der selben position und wurde einfach ausgetauscht.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_43</t>
+  </si>
+  <si>
+    <t>mal gab es für längere zeit lücken, wo die zielfigur nicht gezeigt wurde und dann wurde sie mehrfach direkt hintereinander gezeigt.</t>
+  </si>
+  <si>
+    <t>wenn die das zielwort gezeigt wurde, wurden im vorhinein viele wörter gezeigt, sodass man sich sehr konzentrieren musste und nicht so  schnell geklickt hat, wie wenn das ziel als bild kam.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_44</t>
+  </si>
+  <si>
+    <t>ddas zielwesen7 oder das wort waren oft ähnlich mit den anderen wörtern. die bilder eines föhns zb waren zum teil überflüssig.  die anfangsbuchstaben der anderen wörter wie zb buch waren ählich wie bermite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 bis 3 mal kamen andere dinge vor und dann das zielwesen. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_45</t>
+  </si>
+  <si>
+    <t>es wurden bilder bzw. namen von pokemon mit adjektiven und bildern von alltäglichen gegenständen zusammen gezeigt.</t>
+  </si>
+  <si>
+    <t>manche pokemon wurden immer mit positiv besetzten adjektiven und bildern in verbindung gebracht, während bei anderen das genau gegenteil war. wiederum andere wurden nur mit alltagsgegenständen in verbindung gebracht.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_46</t>
+  </si>
+  <si>
+    <t>die gesuchten wesen kamen einige male teils 3 oder 4 mal direkt hintereinander. die worte waren teilweise im alphabetischen sinne sehr nah aneinanderliegend.</t>
+  </si>
+  <si>
+    <t>sie waren häufig alphabetisch nah aneinander liegend, die worte kamen selten zu entsprechend gleichbedeutenden bildern.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belanglose wörter hauptspoundächlich in ecken erschienen </t>
+  </si>
+  <si>
+    <t>kombination einiger figuren und attribute systematisch</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist nicht besonderes aufgefallen. da ich nicht besonders aufmerksam bin, war ich darauf konzentriert, die zielobjekte nicht zu verpassen. </t>
+  </si>
+  <si>
+    <t>mir icht nichts systematisches aufgefallen. vielleicht wurden die angenehme oder weniger angenehme dinge gezeigt,  um die aufmerksamkeit zu lenken. sicher bin ich nicht.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_5</t>
+  </si>
+  <si>
+    <t>bei dem soldatenpokemon, glaube gollet gab es immer positive aspekt und bei der qualle frillish öfters negative.ansonsten eher durcheinander</t>
+  </si>
+  <si>
+    <t>sympatisch nicht wirklich,außer dass ich pokemon sehr gerne habe</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_50</t>
+  </si>
+  <si>
+    <t>die anordnung der bilder7 und wörter war immer unterschiedlich. manches kam immer wieder vor und manches auch nur einmal.</t>
+  </si>
+  <si>
+    <t>immer wieder in einem ähnlichen zeitlichen abstand und in ähnlicher paarung.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> die bilder von gegenständen wurden oft in den gleichen paaren gezeigt. manchmal gab es kleine unterschiede der ausschreibung von den figuren auf welche man anchten sollte. manchmal schneller hintereinander wenn oft diese figur vorkam.</t>
+  </si>
+  <si>
+    <t>föhn und ventilator kamen oft zusammen. bestimmte wörter wurden regelmäßig neben einer bestimmten person gezeigt. meistens negative wörter mit der blauen figur.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neben einigen figuren erschienen positiv oder negativ geprägte adjektive. </t>
+  </si>
+  <si>
+    <t>figur, bild , worte , lange pausen, kurze</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_53</t>
+  </si>
+  <si>
+    <t>es gibt bbilder und wörter, die häufiger zusammen gezegt als andere</t>
+  </si>
+  <si>
+    <t>bleichstiftee mit bbuch, bebeton mit glass, beton oder glass mit scattenberg und pphantom</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_54</t>
+  </si>
+  <si>
+    <t>ich habe hauptsäcjlich auf mein pokemon geachtet</t>
+  </si>
+  <si>
+    <t>nichtn im geringsten</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_55</t>
+  </si>
+  <si>
+    <t>nein, auch hier ist mir nichts aufgefallen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_56</t>
+  </si>
+  <si>
+    <t>etwas außergewöhnliches ist mir nicht aufgefallen. di</t>
+  </si>
+  <si>
+    <t>bilder wie zb. der ventilator oder das glas kamen mir vor wie 2füllbilder. nach oder vor ihnen kamen häufig figuren und mehrere wörter auf einmal.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_57</t>
+  </si>
+  <si>
+    <t>neben dem golem sind positive wörter aufgtaucht und neben demr qualle negative wörter</t>
+  </si>
+  <si>
+    <t>golem gute und positive bilder und qualle negative bilder, computer als wort mit einem anderen wort und daals nächstes 22wort der gesuchte begriff</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_59</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen dass weniger schöne bilder r7 bzw. figuren eher mit negativen attributen und bildern versehen waren und nette figuren eher mit positiven</t>
+  </si>
+  <si>
+    <t>negative wörter wurden meist mit weniger sympathischen figuren gezeigt wobei positive wörter eher mit sympathischen figuren verbunden waren.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_6</t>
+  </si>
+  <si>
+    <t>die bilder und wörter sind von unterschiedlichen seiten und von der anordnung her sehr verschieden erschienen. manchmal kamen nur bilder manchmal nur wörter, man wusste nie wann und woher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oft standen die namen direkt unter dem bild, das hat die aufgabe gewissermaßen erleichtert. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist nichts außergewöhnliches aufgefallen. es wurden aber generell die gleichen bilder bei den einzelnen abschnitten gezeigt und oft auch zusammen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">das bild der comicfigur wurde selten alleine gezeigt, der name schon öfters.  und überwiegend. auch zusammen wurde es selten angezeigt. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein, es waren oftmals die selben worte und die gleichen bilder, aber irgendwann kamen weniger neutrale worte bzw bilder dazu </t>
+  </si>
+  <si>
+    <t>die größe hat sich zwar verändert, doch ich habe keinen zusammenhang gemerkt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_62</t>
+  </si>
+  <si>
+    <t>oft dieselben bilder, die gesuchten bilder und namen wurden am anfang öfter gezeigt und am ende kaum</t>
+  </si>
+  <si>
+    <t>die gesuchten bilder und wörter wurden öfter am anfang gezeigt und zum ende hin weniger. die gleichen  bilder wurden meistens an der selben stelle gezeigt. ähnliche wörter wurden benutzt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_63</t>
+  </si>
+  <si>
+    <t>zuerst wurden die bilder immer mit dem passenden bild gezeigt, dann nurnoch die wörter ohne bild</t>
+  </si>
+  <si>
+    <t>ganz oft der föhn mit etwas blauem</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_64</t>
+  </si>
+  <si>
+    <t>mir ist nichts sehr außergwöhnliches aufgefallen, die überschriften waren nur sehr durcheinander im gegensatz zu den bildern, welche nebeneinander gezeigt wurden.</t>
+  </si>
+  <si>
+    <t>oft wurden wörter mit demselben anfangsbuchstaben hintereinander gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bei der letzten hat sich der name zwischendurch geändert von brgime auf bergmitte</t>
+  </si>
+  <si>
+    <t>am anfang wurden oft die wesen mit dem dazugehörenden wort gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_66</t>
+  </si>
+  <si>
+    <t>kombinationen haben sich immer wieder wiederholt. bestimmte wesen wurden immer mit gleichen worten assoziiert.</t>
+  </si>
+  <si>
+    <t>teilweise sehr lange nicht das zielwesen,immer wieder neue bilder</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_67</t>
+  </si>
+  <si>
+    <t>in der letzten runde kamen viel interessantere bilder manchmal vor. obwohl insgesamt die meisten wörter nichts wichtiges bedeuteten kamen immer längere ungewöhnliche wörter vor.</t>
+  </si>
+  <si>
+    <t>sie wurden an verschieden stellen auf dem bildschirm gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_68</t>
+  </si>
+  <si>
+    <t>die zeitabstände zwischen den einbledndungen waren unterschiedlich lang und das gesuchte wesen wurde in unterschiedlichenr intensität wiederholt. außerdem standen die übrigen einblendungen in keinem für mich ersichtlichen zusammenhang</t>
+  </si>
+  <si>
+    <t>mir ist aufgefallen, dass als das gesuchte wesen mit b anfing, auch viele wörter beginnend mit b eingeblendet wurden.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_69</t>
+  </si>
+  <si>
+    <t>mir ist während der aufgabe nichts aufgefallen. ich habe nur an den namen und ans bild gedacht.</t>
+  </si>
+  <si>
+    <t>mit ist dabei nichts systematisches aufgefallen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_7</t>
+  </si>
+  <si>
+    <t>es wurden immer wieder wörter mit dem selben anfangsbustaben zueinander gepackt. zudem sind viele bild wort paare häufig zusammen aufgetaucht, ohne einen bezug zu haben 8z.b. toilette und buch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wie bereits erwähnt wurden häufig die selben paare gezeigt. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_70</t>
+  </si>
+  <si>
+    <t>sehr zentriert, doch ersichtlicher als vorher angenommen . manche bilder kamen sehr oft vor, zum beispiel der fön.</t>
+  </si>
+  <si>
+    <t>manche kombinationen kamen oft zusammen vor, die tasse war oft mit dem wurm</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_71</t>
+  </si>
+  <si>
+    <t>sämtliche bilder zu golem waren positiv, alle zu frillish negativ. leave frrillish alone1 .1</t>
+  </si>
+  <si>
+    <t>brille und dieses kÄstchen waren fast immer zusammen auf dem bild. ich glaube auch fÖhn und glas, aber da bin ich mir nicht sicher. ansonsten golem gut, frillish schlecht. bei den objekten nach denen ich gesucht habe, ist mir nichts aufgefallen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_72</t>
+  </si>
+  <si>
+    <t>wdie bilder haben sehr stark dazu verleitet probleme 8also die zielbilder nicht zu erkennen bzw. sie hatten keine signalfunktion.</t>
+  </si>
+  <si>
+    <t>manchmal haben bilder gleiche eigenschaften, wie die bilder aufgezeigt. bei den wörter war es gleich.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ein glas wurde immer mit dem wort beton gezeigt </t>
+  </si>
+  <si>
+    <t>ein bild von einem glas mit dem w2ort beton, ein bild von deinem ziegel mit dem wort buch?</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_74</t>
+  </si>
+  <si>
+    <t>die wörter und bilder erschienen immer an unterschiedlichen stellen im bild. es waren immer dieselben wörter und bilder, die angezeigt wurden.</t>
+  </si>
+  <si>
+    <t>zu bestimmten bildern erschienen immer dieselben wörter</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mir ist im ersten teil des experiments eigentlich nichts au??ßergewöhnliches aufgefallen.  </t>
+  </si>
+  <si>
+    <t>mir ist nur aufgefallen,dass so ein eckiges ding 8 vielleicht lampe und ein glas immer zusammen aufgetaucht sind.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_76</t>
+  </si>
+  <si>
+    <t>die bilder haben in der regel nicht zu du den bwörtern gepasst. au?erdem sind die wörter und bilder in einem unregelmäßigem tempo gekommen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja, die es gaes gab  bilder die sich regelmä?ig wiederholt haben werden bilder aus dem alltag nur vereinzelt auftauchten  </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_77</t>
+  </si>
+  <si>
+    <t>bbbei bestimmten bildern wurden ausschließlich positive adjektive verwendet, bei anderen nur negative. bestimmte wortkombinationen kamen immer wieedr vor</t>
+  </si>
+  <si>
+    <t>bestimmte immer wiederkehrende kombinationen an bildern und wörtern</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_78</t>
+  </si>
+  <si>
+    <t>bei der testreihe mit bergmite waren neben dem gesuchten vor allem andere wörter, die mit b beginnen, zu sehen. bei cranidos bin ich mindestens einmal auf das wort 2granidos hereingefallen.</t>
+  </si>
+  <si>
+    <t>zum teil blieben wworte an ort und stelle, während neue auftauchten, was dazu führte, dass ich kurz nachdenken musste, ehe ich erneut auf deas erste wwort7 oder bild reagierte.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> das bild,hat teilweise mit dem wort,nicht übereinstimmt.manche bilder sahen merkwürdig aus und  unpassend.</t>
+  </si>
+  <si>
+    <t>nichts systematisches,hierbei,aufgefallen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es wiederholten sich die kombinationen der bilder und worte und auch die positionen, an denen sie auftraten. </t>
+  </si>
+  <si>
+    <t>sowohl kombination der bilder und deren annordnung bzw. position wiederholten sich. in späteren runden kamen neue motivbe hinzu, die anfangs nicht gezeigt wurden.die zielbilder hatten immer eine unterschrift, ebenso die füllbilder. andere bilder tauchten auch ohne unterschrift auf. oft kam der en der föhn und der ventilator zusammen vor.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_80</t>
+  </si>
+  <si>
+    <t>die bilder un wörter hatten gar nix gemeinsames mit einander zu tun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die paaren wurden gemischt kombiniert </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein, leider ist mir nichts ausergewöhnliches eingefallen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja, das  gesuchte wort und bild wurde seltener gezeigt </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_82</t>
+  </si>
+  <si>
+    <t>ich hatte erwartet, dass die bilder noch schneller wechseln und sich die bilder oder wörter viel unterschiedlicher sein werden. durch die wiederholung der bilder und wörter, wfiel die aufgabe einfacher aus.</t>
+  </si>
+  <si>
+    <t>die bilder und wörter wiederholten sich oft,.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die pausen, die zeilangen zeitlichen abstände zwischen neuen  bildern, reale bilder und cartoons gemischt,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">erst  links und rechts texte, dann ein bild und ein text und dann zwei bilder </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_84</t>
+  </si>
+  <si>
+    <t>ich denke vorallem der zügige wechsel zwischen den angezeigten wörtern sollte eine schwierige und komplexe situation bilden</t>
+  </si>
+  <si>
+    <t>vermutlich wurden regelmäßig mehrere bildergruppen hintereinander eingespielt, anstelle von abwechselnden ereignissen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_85</t>
+  </si>
+  <si>
+    <t>ich hatte das gefühl, dass manche bilder immer wieder mit negativen wörtern gezeigt wurden.</t>
+  </si>
+  <si>
+    <t>ich hatte das gefühl, dass viele bilder oft zusammen mit negativen wörtern gezeigt wurden.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_86</t>
+  </si>
+  <si>
+    <t>manche bilder waren öfters zusammen gepaart als andere</t>
+  </si>
+  <si>
+    <t>manche bilder und wörter wurde öfters zusammen gepaart. also es gab etwas wie eine systematik</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_88</t>
+  </si>
+  <si>
+    <t>es waren meistens dieselben wörter bei den fotos.</t>
+  </si>
+  <si>
+    <t>es gab wort 777bild paare</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_89</t>
+  </si>
+  <si>
+    <t>die bilder waren sehr alt. motive etwas seltsam. menschen die sich übergeben und dann mutter und tochter. komische verbidnungen.immer wieder kamen bilder geimeinsam, wie.</t>
+  </si>
+  <si>
+    <t>bilder meistens in der mitte des bildschirmes. die wörter auch mal in den ecken.  meistens bilder gemeinsam mit bildern und wörter mit wörtern.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_9</t>
+  </si>
+  <si>
+    <t>einige der wesen wurden immer mit positiven andere mit negativen und wieder andere mit neutralen begriffen,  und bildern gezeigt.</t>
+  </si>
+  <si>
+    <t>bilder und begirffe, die Ähnliche  neutrale 8etc.9 assozialionen hervorrufen wurden oft zusammen gezeigt</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manche pokemon hatten negativ belastete wÖrter zu ihrer linken oder rechten seite stehen was meine wahl bei den paaren beeinflusst haben kÖnnte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eins der pokemon  , das steinige, war immer sehr schlecht dargestellt. andere wiederrum ha, das blaue pokemon dessen namen ich nicht mehr kenne, hatte nur positive wörter am rand stehen. oft wurde auch das bild des föhns und des  ventilators kombiniert. </t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_91</t>
+  </si>
+  <si>
+    <t>häufig wurden wqörter kombinier, die keinerlei alltäglichen bezug zueinander aufweisen</t>
+  </si>
+  <si>
+    <t>bilder der pokemon wurden nie alleine angezeigt, sondern immer mit einem namen,namen aber auch ohn e bild</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_92</t>
+  </si>
+  <si>
+    <t>mit golett waren meist negative wörter zu sehen, mit frillish positive. manche wörter wurden öfters präsentiert als andere. manchmal wurde das gesuchte bild öfters hintereinander gezeigt und dann schnell ein anderes.</t>
+  </si>
+  <si>
+    <t>wie bereits in der vorherigen frage beantwortet, schnelle abfolgen, manche wörter öfters als andere, bestimmte worte mit einzelnen bildern jeweils positiv oder negativ  konnotiert</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_93</t>
+  </si>
+  <si>
+    <t>das blaue fabelwesen wurde immer mit positiven assoziationen gepaart und das steinige mit negativen..</t>
+  </si>
+  <si>
+    <t>das geistähnliche wesen wurde zusammen mit positiven assoziationen gepaart und das steinige mit negativen.</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_94</t>
+  </si>
+  <si>
+    <t>tabdie bilder wurden teils mittig oder versetzt positioniert. ich habe mich wengier auf die unwichtigen worte konzentriert</t>
+  </si>
+  <si>
+    <t>es ist mir nichts konkretes aufgefallen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_95</t>
+  </si>
+  <si>
+    <t>es sind mehrfach wiederholungen gewesen. die bilder und die texttzeilen waren meiner meinung nach unlogisch.</t>
+  </si>
+  <si>
+    <t>es gab interessanteres studien</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_96</t>
+  </si>
+  <si>
+    <t>mir ist aufgefalle, dass bei allen durchgängen die gleichen2t 2wesen gezeigt wurden. viele bilder haben sich auch wiederholt, jedoch waren gelegentlich und einmalig andere bilder vorhanden. außerdem wurden auch  häufig die selben wörter angezeigt, die keinen zusammenhang zu den bildern hatten.</t>
+  </si>
+  <si>
+    <t>mir ist aufgefalle, dass alle wÖrter m</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_97</t>
+  </si>
+  <si>
+    <t>an der art und weise ist mir nicht direkt etwas ausergewöhnliches aufgefallen. es war nur auffällig das sdie übüberwachungsperson eigentlich immer mittig erschienen ist.</t>
+  </si>
+  <si>
+    <t>die begriffe die erschienen sind hatten öfters den gleichen anfangsbuchstaben wie der eigentliche begriff. außerdem gab es bestimmt bilder wie den ventilator die immer wieder eingeblendet wurden und einige die neu dazu kamen</t>
+  </si>
+  <si>
+    <t>Unkelbach and Hogden_99</t>
+  </si>
+  <si>
+    <t>manche wesen wurden mit positiven adjektiven verbunden, andere mit negativen. frillish wurde sehr positiv dargestellt, gollem sehr negativ. auch den bildern wurden klare begriffe zugeordnet. das orangene bild mit brille, dder föhn mit buch,...</t>
+  </si>
+  <si>
+    <t>ja, ich denke dem beobachter sollten manche wesen freundlicher dargesteelllt werden und die bilder sollten mit einem gegenstand assoziiert werden, der normal nicht damit assziiert wird.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-407]General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -11906,6 +13181,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -11924,10 +13205,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11959,8 +13241,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12234,10 +13519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1316"/>
+  <dimension ref="A1:H1458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1284" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1318" sqref="B1318"/>
+    <sheetView tabSelected="1" topLeftCell="A1428" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A1447" sqref="A1447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -46467,6 +47752,3698 @@
         <v>23</v>
       </c>
     </row>
+    <row r="1317" spans="1:8">
+      <c r="A1317" s="13" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>3951</v>
+      </c>
+      <c r="E1317" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1317" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1317" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1317" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8">
+      <c r="A1318" s="13" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>3953</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>3954</v>
+      </c>
+      <c r="E1318" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1318" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1318" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1318" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8">
+      <c r="A1319" s="13" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>3957</v>
+      </c>
+      <c r="E1319" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1319" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1319" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1319" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8">
+      <c r="A1320" s="13" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>3960</v>
+      </c>
+      <c r="E1320" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1320" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1320" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1320" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8">
+      <c r="A1321" s="13" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E1321" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1321" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1321" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1321" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8">
+      <c r="A1322" s="13" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>3966</v>
+      </c>
+      <c r="E1322" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1322" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1322" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1322" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8">
+      <c r="A1323" s="13" t="s">
+        <v>3967</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E1323" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1323" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1323" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1323" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8">
+      <c r="A1324" s="13" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E1324" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1324" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1324" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1324" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8">
+      <c r="A1325" s="13" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>3974</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>3975</v>
+      </c>
+      <c r="E1325" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1325" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1325" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1325" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8">
+      <c r="A1326" s="13" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>3977</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>3978</v>
+      </c>
+      <c r="E1326" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1326" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1326" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1326" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8">
+      <c r="A1327" s="13" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>3980</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>3981</v>
+      </c>
+      <c r="E1327" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1327" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1327" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1327" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8">
+      <c r="A1328" s="13" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>3983</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E1328" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1328" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1328" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1328" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8">
+      <c r="A1329" s="13" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>3986</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>3987</v>
+      </c>
+      <c r="E1329" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1329" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1329" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1329" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8">
+      <c r="A1330" s="13" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>3989</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>3990</v>
+      </c>
+      <c r="E1330" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1330" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1330" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1330" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8">
+      <c r="A1331" s="13" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>3992</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>3993</v>
+      </c>
+      <c r="E1331" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1331" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1331" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1331" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8">
+      <c r="A1332" s="13" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>3995</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E1332" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1332" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1332" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1332" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8">
+      <c r="A1333" s="13" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>3998</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>3999</v>
+      </c>
+      <c r="E1333" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1333" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1333" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1333" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8">
+      <c r="A1334" s="13" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>4001</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>4002</v>
+      </c>
+      <c r="E1334" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1334" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1334" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1334" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8">
+      <c r="A1335" s="13" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>4004</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>4005</v>
+      </c>
+      <c r="E1335" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1335" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1335" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1335" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8">
+      <c r="A1336" s="13" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>4007</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>4008</v>
+      </c>
+      <c r="E1336" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1336" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1336" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1336" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8">
+      <c r="A1337" s="13" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>4010</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>4011</v>
+      </c>
+      <c r="E1337" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1337" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1337" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1337" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8">
+      <c r="A1338" s="13" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>4013</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>4014</v>
+      </c>
+      <c r="E1338" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1338" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1338" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1338" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8">
+      <c r="A1339" s="14" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B1339" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1339" s="5" t="s">
+        <v>4016</v>
+      </c>
+      <c r="D1339" s="5" t="s">
+        <v>4017</v>
+      </c>
+      <c r="E1339" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1339" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1339" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1339" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8">
+      <c r="A1340" s="14" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>4020</v>
+      </c>
+      <c r="E1340" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1340" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1340" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1340" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8">
+      <c r="A1341" s="14" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B1341" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1341" s="5" t="s">
+        <v>4022</v>
+      </c>
+      <c r="D1341" s="5" t="s">
+        <v>4023</v>
+      </c>
+      <c r="E1341" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1341" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1341" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1341" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8">
+      <c r="A1342" s="14" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B1342" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1342" s="5" t="s">
+        <v>4025</v>
+      </c>
+      <c r="D1342" s="5" t="s">
+        <v>4026</v>
+      </c>
+      <c r="E1342" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1342" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1342" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1342" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8">
+      <c r="A1343" s="14" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>4028</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>4029</v>
+      </c>
+      <c r="E1343" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1343" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1343" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1343" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8">
+      <c r="A1344" s="14" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>4031</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>4032</v>
+      </c>
+      <c r="E1344" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1344" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1344" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1344" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8">
+      <c r="A1345" s="14" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>4034</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>4035</v>
+      </c>
+      <c r="E1345" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1345" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1345" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1345" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8">
+      <c r="A1346" s="14" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>4037</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>4038</v>
+      </c>
+      <c r="E1346" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1346" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1346" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1346" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8">
+      <c r="A1347" s="14" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B1347" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1347" s="5" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D1347" s="5" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E1347" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1347" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1347" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1347" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8">
+      <c r="A1348" s="14" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>4043</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E1348" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1348" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1348" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1348" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8">
+      <c r="A1349" s="14" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B1349" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1349" s="5" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D1349" s="5" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E1349" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1349" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1349" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1349" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8">
+      <c r="A1350" s="14" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E1350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1350" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8">
+      <c r="A1351" s="14" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>4052</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>4053</v>
+      </c>
+      <c r="E1351" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1351" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1351" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1351" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8">
+      <c r="A1352" s="14" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>4056</v>
+      </c>
+      <c r="E1352" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1352" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1352" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1352" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8">
+      <c r="A1353" s="14" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>4058</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>4059</v>
+      </c>
+      <c r="E1353" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1353" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1353" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1353" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8">
+      <c r="A1354" s="14" t="s">
+        <v>4060</v>
+      </c>
+      <c r="B1354" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1354" s="5" t="s">
+        <v>4061</v>
+      </c>
+      <c r="D1354" s="5" t="s">
+        <v>4062</v>
+      </c>
+      <c r="E1354" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1354" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1354" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1354" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8">
+      <c r="A1355" s="14" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B1355" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1355" s="5" t="s">
+        <v>4064</v>
+      </c>
+      <c r="D1355" s="5" t="s">
+        <v>4065</v>
+      </c>
+      <c r="E1355" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1355" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1355" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1355" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8">
+      <c r="A1356" s="13" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>4068</v>
+      </c>
+      <c r="E1356" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1356" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1356" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1356" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8">
+      <c r="A1357" s="13" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>4070</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>4071</v>
+      </c>
+      <c r="E1357" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1357" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1357" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1357" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8">
+      <c r="A1358" s="13" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>4074</v>
+      </c>
+      <c r="E1358" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1358" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1358" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1358" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8">
+      <c r="A1359" s="13" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>4077</v>
+      </c>
+      <c r="E1359" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1359" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1359" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1359" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8">
+      <c r="A1360" s="13" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E1360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1360" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1360" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8">
+      <c r="A1361" s="13" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>4082</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>4083</v>
+      </c>
+      <c r="E1361" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1361" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1361" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1361" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8">
+      <c r="A1362" s="13" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>4086</v>
+      </c>
+      <c r="E1362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1362" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1362" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8">
+      <c r="A1363" s="13" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>4088</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>4089</v>
+      </c>
+      <c r="E1363" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1363" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1363" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1363" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8">
+      <c r="A1364" s="13" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>4092</v>
+      </c>
+      <c r="E1364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1364" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1364" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8">
+      <c r="A1365" s="14" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B1365" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1365" s="5" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D1365" s="5" t="s">
+        <v>4095</v>
+      </c>
+      <c r="E1365" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1365" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1365" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1365" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8">
+      <c r="A1366" s="14" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E1366" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1366" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1366" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1366" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8">
+      <c r="A1367" s="14" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>4100</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>4101</v>
+      </c>
+      <c r="E1367" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1367" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1367" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1367" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8">
+      <c r="A1368" s="14" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>4104</v>
+      </c>
+      <c r="E1368" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1368" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1368" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1368" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8">
+      <c r="A1369" s="14" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>4106</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>4107</v>
+      </c>
+      <c r="E1369" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1369" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1369" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1369" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8">
+      <c r="A1370" s="14" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B1370" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1370" s="5" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D1370" s="5" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E1370" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1370" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1370" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1370" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8">
+      <c r="A1371" s="14" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>4112</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>4113</v>
+      </c>
+      <c r="E1371" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1371" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1371" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1371" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8">
+      <c r="A1372" s="14" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>4115</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>4116</v>
+      </c>
+      <c r="E1372" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1372" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1372" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1372" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8">
+      <c r="A1373" s="14" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>4119</v>
+      </c>
+      <c r="E1373" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1373" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1373" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1373" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8">
+      <c r="A1374" s="14" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B1374" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1374" s="5" t="s">
+        <v>4121</v>
+      </c>
+      <c r="D1374" s="5" t="s">
+        <v>4122</v>
+      </c>
+      <c r="E1374" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1374" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1374" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1374" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8">
+      <c r="A1375" s="14" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>4124</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>4125</v>
+      </c>
+      <c r="E1375" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1375" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1375" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1375" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8">
+      <c r="A1376" s="13" t="s">
+        <v>4126</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>4127</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E1376" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1376" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1376" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1376" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8">
+      <c r="A1377" s="13" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>4130</v>
+      </c>
+      <c r="E1377" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1377" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1377" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1377" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8">
+      <c r="A1378" s="13" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>4132</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>4133</v>
+      </c>
+      <c r="E1378" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1378" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1378" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1378" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8">
+      <c r="A1379" s="13" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>4136</v>
+      </c>
+      <c r="E1379" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1379" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1379" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1379" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8">
+      <c r="A1380" s="13" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>4138</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>4139</v>
+      </c>
+      <c r="E1380" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1380" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1380" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1380" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8">
+      <c r="A1381" s="13" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>4142</v>
+      </c>
+      <c r="E1381" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1381" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1381" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1381" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8">
+      <c r="A1382" s="13" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>4144</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>4145</v>
+      </c>
+      <c r="E1382" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1382" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1382" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1382" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8">
+      <c r="A1383" s="13" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>4147</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>4148</v>
+      </c>
+      <c r="E1383" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1383" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1383" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1383" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8">
+      <c r="A1384" s="13" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>4150</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>4151</v>
+      </c>
+      <c r="E1384" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1384" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1384" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1384" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8">
+      <c r="A1385" s="13" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>4154</v>
+      </c>
+      <c r="E1385" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1385" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1385" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1385" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8">
+      <c r="A1386" s="13" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>4156</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>4157</v>
+      </c>
+      <c r="E1386" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1386" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1386" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1386" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8">
+      <c r="A1387" s="13" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>4159</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>4160</v>
+      </c>
+      <c r="E1387" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1387" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1387" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1387" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8">
+      <c r="A1388" s="13" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>4163</v>
+      </c>
+      <c r="E1388" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1388" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1388" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1388" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8">
+      <c r="A1389" s="13" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E1389" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1389" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1389" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1389" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8">
+      <c r="A1390" s="13" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>4168</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>4169</v>
+      </c>
+      <c r="E1390" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1390" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1390" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1390" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8">
+      <c r="A1391" s="13" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>4171</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>4172</v>
+      </c>
+      <c r="E1391" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1391" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1391" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1391" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8">
+      <c r="A1392" s="13" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>4174</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>4175</v>
+      </c>
+      <c r="E1392" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1392" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1392" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1392" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:8">
+      <c r="A1393" s="13" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>4177</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>4178</v>
+      </c>
+      <c r="E1393" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1393" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1393" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1393" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:8">
+      <c r="A1394" s="13" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>4180</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>4181</v>
+      </c>
+      <c r="E1394" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1394" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1394" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1394" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:8">
+      <c r="A1395" s="13" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>4183</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>4184</v>
+      </c>
+      <c r="E1395" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1395" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1395" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1395" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:8">
+      <c r="A1396" s="14" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B1396" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1396" s="5" t="s">
+        <v>4186</v>
+      </c>
+      <c r="D1396" s="5" t="s">
+        <v>4187</v>
+      </c>
+      <c r="E1396" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1396" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1396" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1396" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:8">
+      <c r="A1397" s="14" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B1397" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1397" s="5" t="s">
+        <v>4189</v>
+      </c>
+      <c r="D1397" s="5" t="s">
+        <v>4190</v>
+      </c>
+      <c r="E1397" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1397" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1397" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1397" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:8">
+      <c r="A1398" s="14" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>4192</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>4193</v>
+      </c>
+      <c r="E1398" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1398" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1398" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1398" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:8">
+      <c r="A1399" s="14" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>4195</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>4196</v>
+      </c>
+      <c r="E1399" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1399" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1399" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1399" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:8">
+      <c r="A1400" s="14" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>4199</v>
+      </c>
+      <c r="E1400" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1400" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1400" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1400" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:8">
+      <c r="A1401" s="14" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>4202</v>
+      </c>
+      <c r="E1401" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1401" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1401" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1401" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:8">
+      <c r="A1402" s="14" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>4205</v>
+      </c>
+      <c r="E1402" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1402" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1402" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1402" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:8">
+      <c r="A1403" s="14" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>4207</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>4208</v>
+      </c>
+      <c r="E1403" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1403" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1403" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1403" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:8">
+      <c r="A1404" s="14" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>4210</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>4211</v>
+      </c>
+      <c r="E1404" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1404" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1404" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1404" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:8">
+      <c r="A1405" s="14" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>4213</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E1405" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1405" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1405" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1405" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:8">
+      <c r="A1406" s="14" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>4216</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>4217</v>
+      </c>
+      <c r="E1406" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1406" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1406" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1406" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:8">
+      <c r="A1407" s="14" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>4219</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>4220</v>
+      </c>
+      <c r="E1407" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1407" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1407" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1407" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:8">
+      <c r="A1408" s="14" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B1408" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1408" s="5" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D1408" s="5" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E1408" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1408" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1408" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1408" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:8">
+      <c r="A1409" s="14" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>4226</v>
+      </c>
+      <c r="E1409" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1409" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1409" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1409" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:8">
+      <c r="A1410" s="13" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>4228</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>4229</v>
+      </c>
+      <c r="E1410" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1410" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1410" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1410" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:8">
+      <c r="A1411" s="13" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>4232</v>
+      </c>
+      <c r="E1411" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1411" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1411" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1411" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:8">
+      <c r="A1412" s="13" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>4235</v>
+      </c>
+      <c r="E1412" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1412" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1412" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1412" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:8">
+      <c r="A1413" s="13" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>4237</v>
+      </c>
+      <c r="E1413" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1413" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1413" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1413" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:8">
+      <c r="A1414" s="13" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>4240</v>
+      </c>
+      <c r="E1414" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1414" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1414" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1414" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:8">
+      <c r="A1415" s="13" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>4243</v>
+      </c>
+      <c r="E1415" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1415" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1415" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1415" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:8">
+      <c r="A1416" s="14" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>4246</v>
+      </c>
+      <c r="E1416" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1416" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1416" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1416" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:8">
+      <c r="A1417" s="14" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>4248</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>4249</v>
+      </c>
+      <c r="E1417" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1417" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1417" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1417" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:8">
+      <c r="A1418" s="14" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B1418" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1418" s="5" t="s">
+        <v>4251</v>
+      </c>
+      <c r="D1418" s="5" t="s">
+        <v>4252</v>
+      </c>
+      <c r="E1418" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1418" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1418" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1418" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:8">
+      <c r="A1419" s="14" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>4254</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>4255</v>
+      </c>
+      <c r="E1419" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1419" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1419" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1419" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:8">
+      <c r="A1420" s="14" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>4257</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>4258</v>
+      </c>
+      <c r="E1420" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1420" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1420" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1420" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:8">
+      <c r="A1421" s="14" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E1421" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1421" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1421" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1421" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:8">
+      <c r="A1422" s="14" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E1422" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1422" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1422" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1422" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:8">
+      <c r="A1423" s="14" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>4267</v>
+      </c>
+      <c r="E1423" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1423" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1423" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1423" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:8">
+      <c r="A1424" s="14" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B1424" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1424" s="5" t="s">
+        <v>4269</v>
+      </c>
+      <c r="D1424" s="5" t="s">
+        <v>4270</v>
+      </c>
+      <c r="E1424" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1424" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1424" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1424" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:8">
+      <c r="A1425" s="14" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>4273</v>
+      </c>
+      <c r="E1425" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1425" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1425" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1425" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:8">
+      <c r="A1426" s="14" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>4275</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>4276</v>
+      </c>
+      <c r="E1426" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1426" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1426" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1426" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:8">
+      <c r="A1427" s="13" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>4279</v>
+      </c>
+      <c r="E1427" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1427" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1427" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1427" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:8">
+      <c r="A1428" s="13" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>4282</v>
+      </c>
+      <c r="E1428" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1428" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1428" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1428" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:8">
+      <c r="A1429" s="13" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>4284</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>4285</v>
+      </c>
+      <c r="E1429" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1429" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1429" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1429" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:8">
+      <c r="A1430" s="13" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>4287</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E1430" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1430" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1430" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1430" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:8">
+      <c r="A1431" s="13" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>4290</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>4291</v>
+      </c>
+      <c r="E1431" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1431" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1431" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1431" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:8">
+      <c r="A1432" s="13" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E1432" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1432" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1432" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1432" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:8">
+      <c r="A1433" s="13" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>4296</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>4297</v>
+      </c>
+      <c r="E1433" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1433" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1433" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1433" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:8">
+      <c r="A1434" s="13" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>4300</v>
+      </c>
+      <c r="E1434" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1434" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1434" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1434" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:8">
+      <c r="A1435" s="13" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>4303</v>
+      </c>
+      <c r="E1435" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1435" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1435" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1435" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:8">
+      <c r="A1436" s="13" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E1436" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1436" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1436" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1436" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:8">
+      <c r="A1437" s="13" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>4308</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>4309</v>
+      </c>
+      <c r="E1437" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1437" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1437" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1437" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:8">
+      <c r="A1438" s="13" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>4311</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E1438" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1438" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1438" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1438" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:8">
+      <c r="A1439" s="13" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>4314</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>4315</v>
+      </c>
+      <c r="E1439" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1439" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1439" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1439" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:8">
+      <c r="A1440" s="13" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>4318</v>
+      </c>
+      <c r="E1440" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1440" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1440" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1440" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:8">
+      <c r="A1441" s="13" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>4320</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E1441" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1441" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1441" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1441" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8">
+      <c r="A1442" s="13" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E1442" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1442" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1442" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1442" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:8">
+      <c r="A1443" s="13" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>4326</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E1443" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1443" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1443" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1443" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:8">
+      <c r="A1444" s="13" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>4329</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E1444" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1444" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1444" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1444" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:8">
+      <c r="A1445" s="13" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>4332</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>4333</v>
+      </c>
+      <c r="E1445" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1445" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1445" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1445" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:8">
+      <c r="A1446" s="13" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>4335</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E1446" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1446" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1446" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1446" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:8">
+      <c r="A1447" s="14" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B1447" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1447" s="5" t="s">
+        <v>4338</v>
+      </c>
+      <c r="D1447" s="5" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E1447" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1447" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1447" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1447" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:8">
+      <c r="A1448" s="14" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B1448" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1448" s="5" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D1448" s="5" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E1448" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1448" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1448" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1448" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:8">
+      <c r="A1449" s="13" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>4344</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>4345</v>
+      </c>
+      <c r="E1449" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1449" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1449" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1449" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:8">
+      <c r="A1450" s="13" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>4347</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>4348</v>
+      </c>
+      <c r="E1450" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1450" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1450" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1450" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8">
+      <c r="A1451" s="14" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B1451" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1451" s="5" t="s">
+        <v>4350</v>
+      </c>
+      <c r="D1451" s="5" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E1451" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1451" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1451" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1451" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:8">
+      <c r="A1452" s="13" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>4353</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E1452" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1452" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1452" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1452" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8">
+      <c r="A1453" s="13" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>4356</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E1453" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1453" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1453" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1453" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:8">
+      <c r="A1454" s="13" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>4359</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>4360</v>
+      </c>
+      <c r="E1454" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1454" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1454" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1454" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:8">
+      <c r="A1455" s="13" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>4362</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>4363</v>
+      </c>
+      <c r="E1455" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1455" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1455" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1455" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:8">
+      <c r="A1456" s="14" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B1456" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1456" s="5" t="s">
+        <v>4365</v>
+      </c>
+      <c r="D1456" s="5" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E1456" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1456" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1456" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1456" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:8">
+      <c r="A1457" s="13" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>4368</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>4369</v>
+      </c>
+      <c r="E1457" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1457" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1457" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1457" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:8">
+      <c r="A1458" s="13" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>4371</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>4372</v>
+      </c>
+      <c r="E1458" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1458" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1458" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1458" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/after coding/data_awareness_for_hand_scoring_all.xlsx
+++ b/data/after coding/data_awareness_for_hand_scoring_all.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9047" uniqueCount="4373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9131" uniqueCount="4434">
   <si>
     <t>unique_id</t>
   </si>
@@ -13138,6 +13138,189 @@
   </si>
   <si>
     <t>ja, ich denke dem beobachter sollten manche wesen freundlicher dargesteelllt werden und die bilder sollten mit einem gegenstand assoziiert werden, der normal nicht damit assziiert wird.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i noticed that you placed alot of the negitive words next to golett </t>
+  </si>
+  <si>
+    <t xml:space="preserve">there were random words, but when golett was on screen it was usually a negative word.  i also think that there were more naturenum_dividenum_dividenum_dividenum_dividenum_divide or positive things next to the grass type pokemon, i cannot remember his name at the moment </t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_11</t>
+  </si>
+  <si>
+    <t>the pictures were appearing in alot of different random spots on the screen.</t>
+  </si>
+  <si>
+    <t>at times i noticed that the same photo or word would appear back to back.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_12</t>
+  </si>
+  <si>
+    <t>some of the cartoon characters were repeatedly paired with negative pictures and words while others were repeatedly paired with positive pictures and words.</t>
+  </si>
+  <si>
+    <t>some cartoons were paired with negative, some with positive. the words book and pencils seemed to be together a lot. as did the picture of the blowdryer with the word book or the picture of the blowdryer with the picture of the fan.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_13</t>
+  </si>
+  <si>
+    <t>it seemed like some pictures were given defining attributes of similar caliber such as s 'terrifying' and 'scary'.</t>
+  </si>
+  <si>
+    <t>the same words would often appear in the same place on the screen.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_14</t>
+  </si>
+  <si>
+    <t>i did not notice anything too out of the ordinary</t>
+  </si>
+  <si>
+    <t>some words or images were consistently placed next to each other when they appeared</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_15</t>
+  </si>
+  <si>
+    <t>iiii noticed that when a picture of a creature would appear then either apositive or negative description word would pop up next to it. ii did not pay  an extreme amount of attention to what the adjectivess were, but ii did notice that these words seemed to be intentionally placed with the pictures.</t>
+  </si>
+  <si>
+    <t>aas previously stated, i noticed that the adjectives were either negative or positive which possibly had an effect on which creatures ii found more appealing.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_16</t>
+  </si>
+  <si>
+    <t>i didnt, but it seemed they all went in the same order</t>
+  </si>
+  <si>
+    <t>yes they seemed to follow a pattern</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_17</t>
+  </si>
+  <si>
+    <t>i saw nothing out of the ordinary.</t>
+  </si>
+  <si>
+    <t>words with same beginnig letters showed up a lot</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_18</t>
+  </si>
+  <si>
+    <t>ii didn't find anything extremely unordinary, it was just interesting to see how the images were timed out and spread across the screen.</t>
+  </si>
+  <si>
+    <t>i noticed that glasses and the box with the cubes appeared pretty close together systematically.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_19</t>
+  </si>
+  <si>
+    <t>the important details that pertained to what i was looking for occasionally didn't show up together at the same time as opposed to the others possibly to throw me off</t>
+  </si>
+  <si>
+    <t>yes a bunch of the images shown repeated or were mirrored</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_20</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_21</t>
+  </si>
+  <si>
+    <t>they seemed to be the same words in different positions but some of the combinations of pictures and words were the same and in the same position.</t>
+  </si>
+  <si>
+    <t>like i mentioned earlier, it seemes that some of the words or pictures were more often together at the same time and position on the screen. like pencil and book were in the middle of the screen or the fan and the hairdryer were in the middle in the same position every time it showed up.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the charracters never appeared without their names but the names appeared without the pictures. </t>
+  </si>
+  <si>
+    <t>sometimes similar items and words appeared together that werent the characters i was supposed to identify</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i didnt notice anything out of the ordinary </t>
+  </si>
+  <si>
+    <t>most of the pictures were the sam elike the hair dryer and glass cup</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when swadloon was presented, unattractive pictures and words with negative connatations appeared with it. when golett was presented, attractive pictures and words with positive connatations appeared. </t>
+  </si>
+  <si>
+    <t>pencil and book appeared together several times.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no, i did not notice anything out of the ordinary about the way the words were presented at the beginning of the surveillance tasks. </t>
+  </si>
+  <si>
+    <t>it did seem almost like  handful of words and imagies appeared at the same times, such as book and the photo with the hair drier.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_26</t>
+  </si>
+  <si>
+    <t>frillish looks like berggmite a bit. i didn't notice anything to strange to me.</t>
+  </si>
+  <si>
+    <t>it looked like teh fan would pop up twith the hair dryer a lot.i remember golem appearing next to a picture of a forest but i don't see any correlation.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_27</t>
+  </si>
+  <si>
+    <t>some of the pictures or words appeared way more than others, the combination of pencil and book appeared a lot and the word book i noticed a lot. also there were a few pictures i was not expecting like the guy over the toilet or the certificate</t>
+  </si>
+  <si>
+    <t>it seemed very systematic with how pencil and book were always together and some words like calming or terrifying were paired with the creatures</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_28</t>
+  </si>
+  <si>
+    <t>some images or words were presented on different locations on the screen while the majority were presented in the middle of the screen. sometimes the target name or image was paired with its nonmatching pair.</t>
+  </si>
+  <si>
+    <t>some names were mixed with non matching images. the target name or image on numerous times showed with its non matching pair.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_30</t>
+  </si>
+  <si>
+    <t>negative images and words were paired with specific creatures.</t>
+  </si>
+  <si>
+    <t>as previously stated, negative words were paired with specific creatures and positive words and images were paired with specific creatures.</t>
+  </si>
+  <si>
+    <t>Olsen and Fritzlen_31</t>
+  </si>
+  <si>
+    <t>the words seemed to come in the same order. for example, i wouldn't see the target for a while, and then i would see it twice in a row, where one of those times the word was paired with pencil.</t>
+  </si>
+  <si>
+    <t>the target seemed to appear hald the time as a word and half the time with the word and an image. i thought i noticed the targets appeared at the same time in the same way as all the other targets.</t>
   </si>
 </sst>
 </file>
@@ -13519,10 +13702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1458"/>
+  <dimension ref="A1:H1479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1428" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1447" sqref="A1447"/>
+    <sheetView tabSelected="1" topLeftCell="E1449" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A1459" sqref="A1459:H1479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -51444,6 +51627,552 @@
         <v>23</v>
       </c>
     </row>
+    <row r="1459" spans="1:8">
+      <c r="A1459" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>4375</v>
+      </c>
+      <c r="E1459" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1459" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1459" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1459" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:8">
+      <c r="A1460" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>4378</v>
+      </c>
+      <c r="E1460" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1460" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1460" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1460" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:8">
+      <c r="A1461" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>4381</v>
+      </c>
+      <c r="E1461" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1461" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1461" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1461" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:8">
+      <c r="A1462" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>4383</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>4384</v>
+      </c>
+      <c r="E1462" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1462" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1462" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1462" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:8">
+      <c r="A1463" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>4386</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E1463" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1463" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1463" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1463" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:8">
+      <c r="A1464" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>4390</v>
+      </c>
+      <c r="E1464" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1464" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1464" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1464" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:8">
+      <c r="A1465" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E1465" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1465" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1465" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1465" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:8">
+      <c r="A1466" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>4396</v>
+      </c>
+      <c r="E1466" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1466" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1466" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1466" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:8">
+      <c r="A1467" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>4398</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E1467" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1467" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1467" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1467" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:8">
+      <c r="A1468" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E1468" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1468" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1468" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1468" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:8">
+      <c r="A1469" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E1469" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1469" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1469" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1469" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:8">
+      <c r="A1470" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E1470" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1470" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1470" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1470" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:8">
+      <c r="A1471" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>4408</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E1471" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1471" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1471" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1471" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:8">
+      <c r="A1472" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>4411</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>4412</v>
+      </c>
+      <c r="E1472" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1472" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1472" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1472" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:8">
+      <c r="A1473" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>4414</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>4415</v>
+      </c>
+      <c r="E1473" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F1473" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1473" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1473" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:8">
+      <c r="A1474" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>4417</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>4418</v>
+      </c>
+      <c r="E1474" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1474" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1474" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1474" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:8">
+      <c r="A1475" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>4420</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>4421</v>
+      </c>
+      <c r="E1475" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1475" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1475" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1475" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:8">
+      <c r="A1476" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>4423</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>4424</v>
+      </c>
+      <c r="E1476" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1476" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1476" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1476" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:8">
+      <c r="A1477" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>4427</v>
+      </c>
+      <c r="E1477" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1477" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1477" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1477" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:8">
+      <c r="A1478" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>4429</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>4430</v>
+      </c>
+      <c r="E1478" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1478" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G1478" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1478" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8">
+      <c r="A1479" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>4433</v>
+      </c>
+      <c r="E1479" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1479" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G1479" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1479" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
